--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="755">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2270,6 +2270,15 @@
   </si>
   <si>
     <t>softis χαρτομαντιλα</t>
+  </si>
+  <si>
+    <t>κλακέτα κινηματογράφου και μάσκα la casa de papel στα jumbo</t>
+  </si>
+  <si>
+    <t>δώρα για την γέννηση του μικρού Μπαρλή απ'τα Jumbo</t>
+  </si>
+  <si>
+    <t>είσοδος στην ΠΑΠΕΙ παρτάρα με Νίκο</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2430,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J784" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J786" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2723,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L784"/>
+  <dimension ref="A1:L786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="I784" sqref="I784"/>
+    <sheetView tabSelected="1" topLeftCell="F772" workbookViewId="0">
+      <selection activeCell="J783" sqref="J783:J786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25587,7 +25596,93 @@
       </c>
     </row>
     <row r="784" spans="1:10">
-      <c r="I784" s="1"/>
+      <c r="A784">
+        <v>5</v>
+      </c>
+      <c r="B784" t="s">
+        <v>323</v>
+      </c>
+      <c r="C784" s="2">
+        <v>43526</v>
+      </c>
+      <c r="D784" t="s">
+        <v>752</v>
+      </c>
+      <c r="E784" t="s">
+        <v>222</v>
+      </c>
+      <c r="F784">
+        <v>5</v>
+      </c>
+      <c r="H784" t="s">
+        <v>245</v>
+      </c>
+      <c r="I784" s="1">
+        <v>782</v>
+      </c>
+      <c r="J784" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10">
+      <c r="A785" s="1">
+        <v>5</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C785" s="7">
+        <v>43526</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F785" s="1">
+        <v>5</v>
+      </c>
+      <c r="G785" s="1"/>
+      <c r="H785" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I785" s="1">
+        <v>783</v>
+      </c>
+      <c r="J785" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10">
+      <c r="A786" s="1">
+        <v>5</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C786" s="7">
+        <v>43526</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F786" s="1">
+        <v>5</v>
+      </c>
+      <c r="G786" s="1"/>
+      <c r="H786" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I786" s="1">
+        <v>784</v>
+      </c>
+      <c r="J786" s="1" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="758">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2279,6 +2279,15 @@
   </si>
   <si>
     <t>είσοδος στην ΠΑΠΕΙ παρτάρα με Νίκο</t>
+  </si>
+  <si>
+    <t>καφές με την Σούπερ Καρβουνίδη</t>
+  </si>
+  <si>
+    <t>κουλούρι ολικής και φυσικός χυμός από το κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>τσουρέκι και τσίχλες</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2439,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J786" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J789" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2732,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L786"/>
+  <dimension ref="A1:L789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F772" workbookViewId="0">
-      <selection activeCell="J783" sqref="J783:J786"/>
+    <sheetView tabSelected="1" topLeftCell="B772" workbookViewId="0">
+      <selection activeCell="J788" sqref="J788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25684,6 +25693,96 @@
         <v>639</v>
       </c>
     </row>
+    <row r="787" spans="1:10">
+      <c r="A787" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C787" s="7">
+        <v>43527</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F787" s="1">
+        <v>5</v>
+      </c>
+      <c r="G787" s="1"/>
+      <c r="H787" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I787" s="1">
+        <v>785</v>
+      </c>
+      <c r="J787" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10">
+      <c r="A788" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C788" s="7">
+        <v>43528</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F788" s="1">
+        <v>5</v>
+      </c>
+      <c r="G788" s="1"/>
+      <c r="H788" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I788" s="1">
+        <v>786</v>
+      </c>
+      <c r="J788" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10">
+      <c r="A789" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C789" s="7">
+        <v>43528</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F789" s="1">
+        <v>5</v>
+      </c>
+      <c r="G789" s="1"/>
+      <c r="H789" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I789" s="1">
+        <v>787</v>
+      </c>
+      <c r="J789" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -2281,13 +2281,13 @@
     <t>είσοδος στην ΠΑΠΕΙ παρτάρα με Νίκο</t>
   </si>
   <si>
-    <t>καφές με την Σούπερ Καρβουνίδη</t>
-  </si>
-  <si>
     <t>κουλούρι ολικής και φυσικός χυμός από το κυλικείο της σχολής</t>
   </si>
   <si>
     <t>τσουρέκι και τσίχλες</t>
+  </si>
+  <si>
+    <t>καφές με την Σούπερ Καρβουνίδη (+ Κατερίνας)</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2744,7 @@
   <dimension ref="A1:L789"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B772" workbookViewId="0">
-      <selection activeCell="J788" sqref="J788"/>
+      <selection activeCell="D787" sqref="D787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25704,7 +25704,7 @@
         <v>43527</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E787" s="1" t="s">
         <v>222</v>
@@ -25734,7 +25734,7 @@
         <v>43528</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>222</v>
@@ -25764,7 +25764,7 @@
         <v>43528</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E789" s="1" t="s">
         <v>222</v>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="761">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2288,6 +2288,15 @@
   </si>
   <si>
     <t>καφές με την Σούπερ Καρβουνίδη (+ Κατερίνας)</t>
+  </si>
+  <si>
+    <t>2 σουβλάκια με μπιφτέκι λαχανικών με Κώστα</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα, χυμό πορτοκάλι και μπάρα δημητριακών</t>
+  </si>
+  <si>
+    <t>φυσικός χυμός στο κυλικείο της σχολής</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2448,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J789" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J793" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2741,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L789"/>
+  <dimension ref="A1:L793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B772" workbookViewId="0">
-      <selection activeCell="D787" sqref="D787"/>
+    <sheetView tabSelected="1" topLeftCell="B788" workbookViewId="0">
+      <selection activeCell="J793" sqref="J793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25783,6 +25792,126 @@
         <v>639</v>
       </c>
     </row>
+    <row r="790" spans="1:10">
+      <c r="A790" s="1">
+        <v>5</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C790" s="7">
+        <v>43529</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F790" s="1">
+        <v>5</v>
+      </c>
+      <c r="G790" s="1"/>
+      <c r="H790" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I790" s="1">
+        <v>788</v>
+      </c>
+      <c r="J790" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10">
+      <c r="A791" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C791" s="7">
+        <v>43529</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F791" s="1">
+        <v>5</v>
+      </c>
+      <c r="G791" s="1"/>
+      <c r="H791" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I791" s="1">
+        <v>789</v>
+      </c>
+      <c r="J791" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10">
+      <c r="A792" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C792" s="7">
+        <v>43529</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F792" s="1">
+        <v>5</v>
+      </c>
+      <c r="G792" s="1"/>
+      <c r="H792" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I792" s="1">
+        <v>790</v>
+      </c>
+      <c r="J792" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10">
+      <c r="A793" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C793" s="7">
+        <v>43529</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F793" s="1">
+        <v>5</v>
+      </c>
+      <c r="G793" s="1"/>
+      <c r="H793" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I793" s="1">
+        <v>791</v>
+      </c>
+      <c r="J793" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="762">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2297,6 +2297,9 @@
   </si>
   <si>
     <t>φυσικός χυμός στο κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>pizza margarita στο tre jolie με Κώστα και Φιλίππου</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2451,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J793" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J794" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2750,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L793"/>
+  <dimension ref="A1:L794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B788" workbookViewId="0">
-      <selection activeCell="J793" sqref="J793"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="A795" sqref="A795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25912,6 +25915,36 @@
         <v>639</v>
       </c>
     </row>
+    <row r="794" spans="1:10">
+      <c r="A794" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C794" s="7">
+        <v>43531</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F794" s="1">
+        <v>5</v>
+      </c>
+      <c r="G794" s="1"/>
+      <c r="H794" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I794" s="1">
+        <v>792</v>
+      </c>
+      <c r="J794" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="765">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2300,6 +2300,15 @@
   </si>
   <si>
     <t>pizza margarita στο tre jolie με Κώστα και Φιλίππου</t>
+  </si>
+  <si>
+    <t>monster doctor και 2 τσίχλες</t>
+  </si>
+  <si>
+    <t>κασερόπιτα στο κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>πεϊνιρλί χωριάτικο από την Βικτώρια</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2460,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J794" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J799" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2753,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L794"/>
+  <dimension ref="A1:L799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="A795" sqref="A795"/>
+    <sheetView tabSelected="1" topLeftCell="E782" workbookViewId="0">
+      <selection activeCell="J799" sqref="J799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25945,6 +25954,131 @@
         <v>641</v>
       </c>
     </row>
+    <row r="795" spans="1:10">
+      <c r="A795" s="1">
+        <v>2</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C795" s="7">
+        <v>43536</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F795" s="1">
+        <v>5</v>
+      </c>
+      <c r="G795" s="1"/>
+      <c r="H795" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I795" s="1">
+        <v>793</v>
+      </c>
+      <c r="J795" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10">
+      <c r="A796" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C796" s="7">
+        <v>43537</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F796" s="1">
+        <v>5</v>
+      </c>
+      <c r="G796" s="1"/>
+      <c r="H796" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I796" s="1">
+        <v>794</v>
+      </c>
+      <c r="J796" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10">
+      <c r="A797">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B797" t="s">
+        <v>207</v>
+      </c>
+      <c r="C797" s="7">
+        <v>43538</v>
+      </c>
+      <c r="D797" t="s">
+        <v>764</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F797" s="1">
+        <v>5</v>
+      </c>
+      <c r="H797" t="s">
+        <v>231</v>
+      </c>
+      <c r="I797" s="1">
+        <v>795</v>
+      </c>
+      <c r="J797" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10">
+      <c r="A798">
+        <v>1</v>
+      </c>
+      <c r="B798" t="s">
+        <v>207</v>
+      </c>
+      <c r="C798" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D798" t="s">
+        <v>339</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F798" s="1">
+        <v>5</v>
+      </c>
+      <c r="H798" t="s">
+        <v>224</v>
+      </c>
+      <c r="I798" s="1">
+        <v>796</v>
+      </c>
+      <c r="J798" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10">
+      <c r="C799" s="7"/>
+      <c r="E799" s="1"/>
+      <c r="F799" s="1"/>
+      <c r="I799" s="1"/>
+      <c r="J799" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="766">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2309,6 +2309,9 @@
   </si>
   <si>
     <t>πεϊνιρλί χωριάτικο από την Βικτώρια</t>
+  </si>
+  <si>
+    <t>ντάκος και ομελέτα στην καφετέρια του πανελληνίου</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2463,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J799" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J802" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2762,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L799"/>
+  <dimension ref="A1:L802"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E782" workbookViewId="0">
-      <selection activeCell="J799" sqref="J799"/>
+      <selection activeCell="I802" sqref="I802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26022,7 +26025,7 @@
         <v>207</v>
       </c>
       <c r="C797" s="7">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="D797" t="s">
         <v>764</v>
@@ -26051,7 +26054,7 @@
         <v>207</v>
       </c>
       <c r="C798" s="7">
-        <v>43539</v>
+        <v>43537</v>
       </c>
       <c r="D798" t="s">
         <v>339</v>
@@ -26073,11 +26076,94 @@
       </c>
     </row>
     <row r="799" spans="1:10">
-      <c r="C799" s="7"/>
-      <c r="E799" s="1"/>
-      <c r="F799" s="1"/>
-      <c r="I799" s="1"/>
-      <c r="J799" s="1"/>
+      <c r="A799" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C799" s="7">
+        <v>43538</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F799" s="1">
+        <v>5</v>
+      </c>
+      <c r="G799" s="1"/>
+      <c r="H799" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I799" s="1">
+        <v>797</v>
+      </c>
+      <c r="J799" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10">
+      <c r="A800" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C800" s="7">
+        <v>43538</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F800" s="1">
+        <v>4</v>
+      </c>
+      <c r="G800" s="1"/>
+      <c r="H800" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I800" s="1">
+        <v>798</v>
+      </c>
+      <c r="J800" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10">
+      <c r="A801" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C801" s="2">
+        <v>43539</v>
+      </c>
+      <c r="E801" t="s">
+        <v>222</v>
+      </c>
+      <c r="F801">
+        <v>5</v>
+      </c>
+      <c r="H801" t="s">
+        <v>228</v>
+      </c>
+      <c r="I801" s="1">
+        <v>799</v>
+      </c>
+      <c r="J801" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10">
+      <c r="I802" s="1"/>
+      <c r="J802" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="768">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2312,6 +2312,12 @@
   </si>
   <si>
     <t>ντάκος και ομελέτα στην καφετέρια του πανελληνίου</t>
+  </si>
+  <si>
+    <t>χαρτί και στυλό</t>
+  </si>
+  <si>
+    <t>φασολάκια και σοκολατόπιτα στην σίτηση με Χρύσα</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2469,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J802" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J804" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2765,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L802"/>
+  <dimension ref="A1:L804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E782" workbookViewId="0">
-      <selection activeCell="I802" sqref="I802"/>
+    <sheetView tabSelected="1" topLeftCell="C789" workbookViewId="0">
+      <selection activeCell="J805" sqref="J805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25995,7 +26001,7 @@
         <v>207</v>
       </c>
       <c r="C796" s="7">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>763</v>
@@ -26025,7 +26031,7 @@
         <v>207</v>
       </c>
       <c r="C797" s="7">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="D797" t="s">
         <v>764</v>
@@ -26054,7 +26060,7 @@
         <v>207</v>
       </c>
       <c r="C798" s="7">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="D798" t="s">
         <v>339</v>
@@ -26083,7 +26089,7 @@
         <v>207</v>
       </c>
       <c r="C799" s="7">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>765</v>
@@ -26113,7 +26119,7 @@
         <v>207</v>
       </c>
       <c r="C800" s="7">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>693</v>
@@ -26143,7 +26149,10 @@
         <v>323</v>
       </c>
       <c r="C801" s="2">
-        <v>43539</v>
+        <v>43538</v>
+      </c>
+      <c r="D801" t="s">
+        <v>766</v>
       </c>
       <c r="E801" t="s">
         <v>222</v>
@@ -26162,8 +26171,93 @@
       </c>
     </row>
     <row r="802" spans="1:10">
-      <c r="I802" s="1"/>
-      <c r="J802" s="1"/>
+      <c r="A802">
+        <v>3.5</v>
+      </c>
+      <c r="B802" t="s">
+        <v>207</v>
+      </c>
+      <c r="C802" s="2">
+        <v>43538</v>
+      </c>
+      <c r="D802" t="s">
+        <v>767</v>
+      </c>
+      <c r="E802" t="s">
+        <v>222</v>
+      </c>
+      <c r="F802">
+        <v>4</v>
+      </c>
+      <c r="H802" t="s">
+        <v>228</v>
+      </c>
+      <c r="I802" s="1">
+        <v>800</v>
+      </c>
+      <c r="J802" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10">
+      <c r="A803" s="1">
+        <v>1</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C803" s="2">
+        <v>43538</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F803" s="1">
+        <v>5</v>
+      </c>
+      <c r="G803" s="1"/>
+      <c r="H803" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I803" s="1">
+        <v>801</v>
+      </c>
+      <c r="J803" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10">
+      <c r="A804" s="1">
+        <v>1</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C804" s="2">
+        <v>43538</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F804" s="1">
+        <v>5</v>
+      </c>
+      <c r="G804" s="1"/>
+      <c r="H804" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I804" s="1">
+        <v>802</v>
+      </c>
+      <c r="J804" s="1" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="769">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2318,6 +2318,9 @@
   </si>
   <si>
     <t>φασολάκια και σοκολατόπιτα στην σίτηση με Χρύσα</t>
+  </si>
+  <si>
+    <t>ομελέτα με πατάτες τηγανητές και κέτσαπ</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2472,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J804" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J805" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2771,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L804"/>
+  <dimension ref="A1:L805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C789" workbookViewId="0">
-      <selection activeCell="J805" sqref="J805"/>
+    <sheetView tabSelected="1" topLeftCell="B789" workbookViewId="0">
+      <selection activeCell="H806" sqref="H806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26259,6 +26262,36 @@
         <v>639</v>
       </c>
     </row>
+    <row r="805" spans="1:10">
+      <c r="A805" s="1">
+        <v>9</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C805" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F805" s="1">
+        <v>4</v>
+      </c>
+      <c r="G805" s="1"/>
+      <c r="H805" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I805" s="1">
+        <v>803</v>
+      </c>
+      <c r="J805" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="770">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2321,6 +2321,9 @@
   </si>
   <si>
     <t>ομελέτα με πατάτες τηγανητές και κέτσαπ</t>
+  </si>
+  <si>
+    <t>amarretti ζελεδάκια και monster</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2475,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J805" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J806" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2774,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L805"/>
+  <dimension ref="A1:L806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B789" workbookViewId="0">
-      <selection activeCell="H806" sqref="H806"/>
+    <sheetView tabSelected="1" topLeftCell="A789" workbookViewId="0">
+      <selection activeCell="A807" sqref="A807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26292,6 +26295,36 @@
         <v>639</v>
       </c>
     </row>
+    <row r="806" spans="1:10">
+      <c r="A806" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C806" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F806" s="1">
+        <v>4</v>
+      </c>
+      <c r="G806" s="1"/>
+      <c r="H806" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I806" s="1">
+        <v>804</v>
+      </c>
+      <c r="J806" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="776">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2324,6 +2324,24 @@
   </si>
   <si>
     <t>amarretti ζελεδάκια και monster</t>
+  </si>
+  <si>
+    <t>ζεστή σοκολάτα από τα mikel με Αλεξία</t>
+  </si>
+  <si>
+    <t>πλαστική σακούλα από τον Μουστάκα με Αλεξία</t>
+  </si>
+  <si>
+    <t>δώρο μικρού Ωρίωνα nerf με Αλεξία</t>
+  </si>
+  <si>
+    <t>4 train pass for Scotland</t>
+  </si>
+  <si>
+    <t>AirBnb in Southampton</t>
+  </si>
+  <si>
+    <t>monster και πατατάκια με ρίγανι</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2493,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J806" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J814" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2777,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L806"/>
+  <dimension ref="A1:L814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A789" workbookViewId="0">
-      <selection activeCell="A807" sqref="A807"/>
+    <sheetView tabSelected="1" topLeftCell="C793" workbookViewId="0">
+      <selection activeCell="J815" sqref="J815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26325,6 +26343,246 @@
         <v>639</v>
       </c>
     </row>
+    <row r="807" spans="1:10">
+      <c r="A807" s="1">
+        <v>15</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C807" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F807" s="1">
+        <v>4</v>
+      </c>
+      <c r="G807" s="1"/>
+      <c r="H807" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I807" s="1">
+        <v>805</v>
+      </c>
+      <c r="J807" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10">
+      <c r="A808" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C808" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F808" s="1">
+        <v>4</v>
+      </c>
+      <c r="G808" s="1"/>
+      <c r="H808" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I808" s="1">
+        <v>806</v>
+      </c>
+      <c r="J808" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10">
+      <c r="A809" s="1">
+        <v>2</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C809" s="7">
+        <v>43539</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F809" s="1">
+        <v>4</v>
+      </c>
+      <c r="G809" s="1"/>
+      <c r="H809" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I809" s="1">
+        <v>807</v>
+      </c>
+      <c r="J809" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10">
+      <c r="A810" s="1">
+        <v>10</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C810" s="7">
+        <v>43541</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F810" s="1">
+        <v>4</v>
+      </c>
+      <c r="G810" s="1"/>
+      <c r="H810" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I810" s="1">
+        <v>808</v>
+      </c>
+      <c r="J810" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10">
+      <c r="A811" s="1">
+        <v>182.71</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C811" s="7">
+        <v>43542</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F811" s="1">
+        <v>4</v>
+      </c>
+      <c r="G811" s="1"/>
+      <c r="H811" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I811" s="1">
+        <v>809</v>
+      </c>
+      <c r="J811" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10">
+      <c r="A812" s="1">
+        <v>44.78</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C812" s="7">
+        <v>43542</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F812" s="1">
+        <v>4</v>
+      </c>
+      <c r="G812" s="1"/>
+      <c r="H812" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I812" s="1">
+        <v>810</v>
+      </c>
+      <c r="J812" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10">
+      <c r="A813" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C813" s="7">
+        <v>43542</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F813" s="1">
+        <v>4</v>
+      </c>
+      <c r="G813" s="1"/>
+      <c r="H813" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I813" s="1">
+        <v>811</v>
+      </c>
+      <c r="J813" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10">
+      <c r="A814" s="1">
+        <v>3</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C814" s="7">
+        <v>43542</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F814" s="1">
+        <v>4</v>
+      </c>
+      <c r="G814" s="1"/>
+      <c r="H814" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I814" s="1">
+        <v>812</v>
+      </c>
+      <c r="J814" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="777">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2342,6 +2342,9 @@
   </si>
   <si>
     <t>monster και πατατάκια με ρίγανι</t>
+  </si>
+  <si>
+    <t>μπάρα δημητριακών και καφέ από τα coffee island</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J814" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J816" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2795,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L814"/>
+  <dimension ref="A1:L816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C793" workbookViewId="0">
-      <selection activeCell="J815" sqref="J815"/>
+    <sheetView tabSelected="1" topLeftCell="B793" workbookViewId="0">
+      <selection activeCell="D816" sqref="D816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26490,7 +26493,7 @@
         <v>809</v>
       </c>
       <c r="J811" s="1" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="812" spans="1:10">
@@ -26520,7 +26523,7 @@
         <v>810</v>
       </c>
       <c r="J812" s="1" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="813" spans="1:10">
@@ -26581,6 +26584,66 @@
       </c>
       <c r="J814" s="1" t="s">
         <v>639</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10">
+      <c r="A815" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C815" s="7">
+        <v>43543</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F815" s="1">
+        <v>4</v>
+      </c>
+      <c r="G815" s="1"/>
+      <c r="H815" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I815" s="1">
+        <v>813</v>
+      </c>
+      <c r="J815" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10">
+      <c r="A816" s="1">
+        <v>10</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C816" s="7">
+        <v>43543</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F816" s="1">
+        <v>4</v>
+      </c>
+      <c r="G816" s="1"/>
+      <c r="H816" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I816" s="1">
+        <v>814</v>
+      </c>
+      <c r="J816" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="778">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2345,6 +2345,9 @@
   </si>
   <si>
     <t>μπάρα δημητριακών και καφέ από τα coffee island</t>
+  </si>
+  <si>
+    <t>σουβλάκι με μπιφτέκι λαχανικών και πατάτες τηγανιτές με Αγίλαρα</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J816" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J817" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2798,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L816"/>
+  <dimension ref="A1:L817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B793" workbookViewId="0">
-      <selection activeCell="D816" sqref="D816"/>
+    <sheetView tabSelected="1" topLeftCell="B801" workbookViewId="0">
+      <selection activeCell="D818" sqref="D818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26646,6 +26649,36 @@
         <v>648</v>
       </c>
     </row>
+    <row r="817" spans="1:10">
+      <c r="A817" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C817" s="7">
+        <v>43544</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F817" s="1">
+        <v>5</v>
+      </c>
+      <c r="G817" s="1"/>
+      <c r="H817" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I817" s="1">
+        <v>815</v>
+      </c>
+      <c r="J817" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="793">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2348,6 +2348,51 @@
   </si>
   <si>
     <t>σουβλάκι με μπιφτέκι λαχανικών και πατάτες τηγανιτές με Αγίλαρα</t>
+  </si>
+  <si>
+    <t>εισητήρια μετρό για αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>pizza τον Cazanova</t>
+  </si>
+  <si>
+    <t>supermarket μπανάνα, σάλτσα, μακαρόνια και τυρί (+ Φακίνου)</t>
+  </si>
+  <si>
+    <t>τεκίλα με Φακίνο στην καλαμαριά και τις γκόμενες</t>
+  </si>
+  <si>
+    <t>πίτσα χωριάτικη, απ'όλα και μεξικάνικη σαλάτα (+ Φακίνου)</t>
+  </si>
+  <si>
+    <t>pizza από Cazanova και βίκοs cola (+ Φακίνου cola)</t>
+  </si>
+  <si>
+    <t>χανιώτικη σαλάτα από το κρητικό περιβόλι</t>
+  </si>
+  <si>
+    <t>pizza από cazanova και λεμονίτα</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ για Νέα Καλλικράτεια Χαλκιδικής</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ για Θεσσαλονίκη</t>
+  </si>
+  <si>
+    <t>pizza από Cazanova και μια Βίκος cola</t>
+  </si>
+  <si>
+    <t>(+ Πολίνας Sandwich με νερό)</t>
+  </si>
+  <si>
+    <t>πίτσα και espresso πρίν την πτήση</t>
+  </si>
+  <si>
+    <t>εισητήρια για Λονδίνο για το καλοκάιρι</t>
+  </si>
+  <si>
+    <t>Chalkidiki</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2544,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J817" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J831" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2801,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L817"/>
+  <dimension ref="A1:L831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B801" workbookViewId="0">
-      <selection activeCell="D818" sqref="D818"/>
+    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="J822" sqref="J822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26679,6 +26724,426 @@
         <v>639</v>
       </c>
     </row>
+    <row r="818" spans="1:10">
+      <c r="A818" s="1">
+        <v>20</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C818" s="7">
+        <v>43545</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F818" s="1">
+        <v>4</v>
+      </c>
+      <c r="G818" s="1"/>
+      <c r="H818" t="s">
+        <v>252</v>
+      </c>
+      <c r="I818" s="1">
+        <v>816</v>
+      </c>
+      <c r="J818" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10">
+      <c r="A819" s="1">
+        <v>5</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C819" s="7">
+        <v>43545</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F819" s="1">
+        <v>5</v>
+      </c>
+      <c r="G819" s="1"/>
+      <c r="H819" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I819" s="1">
+        <v>817</v>
+      </c>
+      <c r="J819" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10">
+      <c r="A820" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C820" s="7">
+        <v>43546</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F820" s="1">
+        <v>5</v>
+      </c>
+      <c r="G820" s="1"/>
+      <c r="H820" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I820" s="1">
+        <v>818</v>
+      </c>
+      <c r="J820" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10">
+      <c r="A821" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C821" s="7">
+        <v>43547</v>
+      </c>
+      <c r="D821" t="s">
+        <v>782</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F821" s="1">
+        <v>5</v>
+      </c>
+      <c r="G821" s="1"/>
+      <c r="H821" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I821" s="1">
+        <v>819</v>
+      </c>
+      <c r="J821" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10">
+      <c r="A822" s="1">
+        <v>8</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C822" s="7">
+        <v>43548</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F822" s="1">
+        <v>5</v>
+      </c>
+      <c r="G822" s="1"/>
+      <c r="H822" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I822" s="1">
+        <v>820</v>
+      </c>
+      <c r="J822" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10">
+      <c r="A823" s="1">
+        <v>8</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C823" s="7">
+        <v>43549</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F823" s="1">
+        <v>5</v>
+      </c>
+      <c r="G823" s="1"/>
+      <c r="H823" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I823" s="1">
+        <v>821</v>
+      </c>
+      <c r="J823" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10">
+      <c r="A824" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C824" s="7">
+        <v>43550</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F824" s="1">
+        <v>5</v>
+      </c>
+      <c r="G824" s="1"/>
+      <c r="H824" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I824" s="1">
+        <v>822</v>
+      </c>
+      <c r="J824" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10">
+      <c r="A825" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C825" s="7">
+        <v>43550</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F825" s="1">
+        <v>5</v>
+      </c>
+      <c r="G825" s="1"/>
+      <c r="H825" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I825" s="1">
+        <v>823</v>
+      </c>
+      <c r="J825" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10">
+      <c r="A826" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C826" s="7">
+        <v>43550</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F826" s="1">
+        <v>5</v>
+      </c>
+      <c r="G826" s="1"/>
+      <c r="H826" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I826" s="1">
+        <v>824</v>
+      </c>
+      <c r="J826" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10">
+      <c r="A827" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C827" s="7">
+        <v>43550</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F827" s="1">
+        <v>5</v>
+      </c>
+      <c r="G827" s="1"/>
+      <c r="H827" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I827" s="1">
+        <v>825</v>
+      </c>
+      <c r="J827" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10">
+      <c r="A828" s="1">
+        <v>4</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C828" s="7">
+        <v>43550</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F828" s="1">
+        <v>5</v>
+      </c>
+      <c r="G828" s="1"/>
+      <c r="H828" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I828" s="1">
+        <v>826</v>
+      </c>
+      <c r="J828" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10">
+      <c r="A829" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C829" s="7">
+        <v>43551</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F829" s="1">
+        <v>4</v>
+      </c>
+      <c r="G829" s="1"/>
+      <c r="H829" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I829" s="1">
+        <v>827</v>
+      </c>
+      <c r="J829" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10">
+      <c r="A830" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C830" s="7">
+        <v>43551</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F830" s="1">
+        <v>4</v>
+      </c>
+      <c r="G830" s="1"/>
+      <c r="H830" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I830" s="1">
+        <v>828</v>
+      </c>
+      <c r="J830" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10">
+      <c r="A831" s="1">
+        <v>53.93</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C831" s="7">
+        <v>43551</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F831" s="1">
+        <v>5</v>
+      </c>
+      <c r="G831" s="1"/>
+      <c r="H831" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I831" s="1">
+        <v>829</v>
+      </c>
+      <c r="J831" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="794">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2393,6 +2393,9 @@
   </si>
   <si>
     <t>Chalkidiki</t>
+  </si>
+  <si>
+    <t>εισητήριο National express για Southampton</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2547,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J831" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J832" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2846,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L831"/>
+  <dimension ref="A1:L832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="J822" sqref="J822"/>
+    <sheetView tabSelected="1" topLeftCell="B821" workbookViewId="0">
+      <selection activeCell="H833" sqref="H833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27144,6 +27147,36 @@
         <v>648</v>
       </c>
     </row>
+    <row r="832" spans="1:10">
+      <c r="A832" s="1">
+        <v>15.59</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C832" s="7">
+        <v>43553</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F832" s="1">
+        <v>4</v>
+      </c>
+      <c r="G832" s="1"/>
+      <c r="H832" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I832" s="1">
+        <v>830</v>
+      </c>
+      <c r="J832" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="796">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2396,6 +2396,12 @@
   </si>
   <si>
     <t>εισητήριο National express για Southampton</t>
+  </si>
+  <si>
+    <t>καφέ με Αναστασάκη (+ Μιχάλη)</t>
+  </si>
+  <si>
+    <t>παγωτό τσίχλες (+ coca cola Μανούλας)</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2553,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J832" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J835" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2849,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L832"/>
+  <dimension ref="A1:L835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B821" workbookViewId="0">
-      <selection activeCell="H833" sqref="H833"/>
+    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
+      <selection activeCell="A835" sqref="A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27177,6 +27183,78 @@
         <v>648</v>
       </c>
     </row>
+    <row r="833" spans="1:10">
+      <c r="A833" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C833" s="7">
+        <v>43553</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F833" s="1">
+        <v>5</v>
+      </c>
+      <c r="G833" s="1"/>
+      <c r="H833" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I833" s="1">
+        <v>831</v>
+      </c>
+      <c r="J833" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10">
+      <c r="A834" s="1">
+        <v>4</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C834" s="7">
+        <v>43553</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F834" s="1">
+        <v>4</v>
+      </c>
+      <c r="G834" s="1"/>
+      <c r="H834" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I834" s="1">
+        <v>832</v>
+      </c>
+      <c r="J834" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10">
+      <c r="A835" s="1"/>
+      <c r="B835" s="1"/>
+      <c r="C835" s="1"/>
+      <c r="D835" s="1"/>
+      <c r="E835" s="1"/>
+      <c r="F835" s="1"/>
+      <c r="G835" s="1"/>
+      <c r="H835" s="1"/>
+      <c r="I835" s="1"/>
+      <c r="J835" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="797">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2402,6 +2402,9 @@
   </si>
   <si>
     <t>παγωτό τσίχλες (+ coca cola Μανούλας)</t>
+  </si>
+  <si>
+    <t>κουλούρι με ελιά και ντομάτα και σπανακόπιτα</t>
   </si>
 </sst>
 </file>
@@ -2857,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
-      <selection activeCell="A835" sqref="A835"/>
+    <sheetView tabSelected="1" topLeftCell="B828" workbookViewId="0">
+      <selection activeCell="H836" sqref="H836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27244,16 +27247,34 @@
       </c>
     </row>
     <row r="835" spans="1:10">
-      <c r="A835" s="1"/>
-      <c r="B835" s="1"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="1"/>
-      <c r="E835" s="1"/>
-      <c r="F835" s="1"/>
+      <c r="A835" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C835" s="7">
+        <v>43555</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F835" s="1">
+        <v>5</v>
+      </c>
       <c r="G835" s="1"/>
-      <c r="H835" s="1"/>
-      <c r="I835" s="1"/>
-      <c r="J835" s="1"/>
+      <c r="H835" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I835" s="1">
+        <v>833</v>
+      </c>
+      <c r="J835" s="1" t="s">
+        <v>641</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="798">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2405,6 +2405,9 @@
   </si>
   <si>
     <t>κουλούρι με ελιά και ντομάτα και σπανακόπιτα</t>
+  </si>
+  <si>
+    <t>κρουασάν σοκολάτας</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2559,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J835" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J838" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2858,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L835"/>
+  <dimension ref="A1:L838"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B828" workbookViewId="0">
-      <selection activeCell="H836" sqref="H836"/>
+    <sheetView tabSelected="1" topLeftCell="G833" workbookViewId="0">
+      <selection activeCell="J839" sqref="J839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27276,6 +27279,96 @@
         <v>641</v>
       </c>
     </row>
+    <row r="836" spans="1:10">
+      <c r="A836" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C836" s="7">
+        <v>43558</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F836" s="1">
+        <v>5</v>
+      </c>
+      <c r="G836" s="1"/>
+      <c r="H836" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I836" s="1">
+        <v>834</v>
+      </c>
+      <c r="J836" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10">
+      <c r="A837" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C837" s="7">
+        <v>43559</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F837" s="1">
+        <v>5</v>
+      </c>
+      <c r="G837" s="1"/>
+      <c r="H837" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I837" s="1">
+        <v>835</v>
+      </c>
+      <c r="J837" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10">
+      <c r="A838" s="1">
+        <v>1</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C838" s="7">
+        <v>43559</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F838" s="1">
+        <v>5</v>
+      </c>
+      <c r="G838" s="1"/>
+      <c r="H838" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I838" s="1">
+        <v>836</v>
+      </c>
+      <c r="J838" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="799">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2408,6 +2408,9 @@
   </si>
   <si>
     <t>κρουασάν σοκολάτας</t>
+  </si>
+  <si>
+    <t>2 Σκεπαστές νηστήσιμες</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2562,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J838" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J841" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2861,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L838"/>
+  <dimension ref="A1:L841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G833" workbookViewId="0">
-      <selection activeCell="J839" sqref="J839"/>
+    <sheetView tabSelected="1" topLeftCell="B833" workbookViewId="0">
+      <selection activeCell="J842" sqref="J842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27317,7 +27320,7 @@
         <v>207</v>
       </c>
       <c r="C837" s="7">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>692</v>
@@ -27347,7 +27350,7 @@
         <v>207</v>
       </c>
       <c r="C838" s="7">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>797</v>
@@ -27367,6 +27370,96 @@
       </c>
       <c r="J838" s="1" t="s">
         <v>639</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10">
+      <c r="A839" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C839" s="7">
+        <v>43559</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F839" s="1">
+        <v>5</v>
+      </c>
+      <c r="G839" s="1"/>
+      <c r="H839" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I839" s="1">
+        <v>837</v>
+      </c>
+      <c r="J839" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10">
+      <c r="A840" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C840" s="7">
+        <v>43559</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F840" s="1">
+        <v>5</v>
+      </c>
+      <c r="G840" s="1"/>
+      <c r="H840" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I840" s="1">
+        <v>838</v>
+      </c>
+      <c r="J840" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10">
+      <c r="A841" s="1">
+        <v>9</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C841" s="7">
+        <v>43560</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F841" s="1">
+        <v>5</v>
+      </c>
+      <c r="G841" s="1"/>
+      <c r="H841" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I841" s="1">
+        <v>839</v>
+      </c>
+      <c r="J841" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="803">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2411,6 +2411,18 @@
   </si>
   <si>
     <t>2 Σκεπαστές νηστήσιμες</t>
+  </si>
+  <si>
+    <t>1μηνη κάρτα ΜΜΜ</t>
+  </si>
+  <si>
+    <t>(+ παγωτό Κατερίνας)</t>
+  </si>
+  <si>
+    <t>(+ 2 σουβλάκια μανούλας)</t>
+  </si>
+  <si>
+    <t>καφές στο Κωλονάκι με Κατερίνα</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2574,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J841" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J845" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2864,9 +2876,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L841"/>
+  <dimension ref="A1:L845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B833" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B837" workbookViewId="0">
       <selection activeCell="J842" sqref="J842"/>
     </sheetView>
   </sheetViews>
@@ -27462,6 +27474,125 @@
         <v>648</v>
       </c>
     </row>
+    <row r="842" spans="1:10">
+      <c r="A842">
+        <v>15</v>
+      </c>
+      <c r="B842" t="s">
+        <v>322</v>
+      </c>
+      <c r="C842" s="7">
+        <v>43562</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F842" s="1">
+        <v>4</v>
+      </c>
+      <c r="G842" s="1"/>
+      <c r="H842" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I842" s="1">
+        <v>840</v>
+      </c>
+      <c r="J842" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10">
+      <c r="A843" s="1">
+        <v>3</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C843" s="7">
+        <v>43562</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F843" s="1">
+        <v>5</v>
+      </c>
+      <c r="G843" s="1"/>
+      <c r="H843" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I843" s="1">
+        <v>841</v>
+      </c>
+      <c r="J843" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10">
+      <c r="A844" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C844" s="7">
+        <v>43562</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F844" s="1">
+        <v>5</v>
+      </c>
+      <c r="G844" s="1"/>
+      <c r="H844" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I844" s="1">
+        <v>842</v>
+      </c>
+      <c r="J844" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10">
+      <c r="A845" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C845" s="7">
+        <v>43562</v>
+      </c>
+      <c r="D845" t="s">
+        <v>801</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F845">
+        <v>5</v>
+      </c>
+      <c r="H845" t="s">
+        <v>224</v>
+      </c>
+      <c r="I845" s="1">
+        <v>843</v>
+      </c>
+      <c r="J845" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="804">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2423,6 +2423,9 @@
   </si>
   <si>
     <t>καφές στο Κωλονάκι με Κατερίνα</t>
+  </si>
+  <si>
+    <t>big choco πατατάκια με ρίγανι και σοκοφρέτα</t>
   </si>
 </sst>
 </file>
@@ -2574,7 +2577,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J845" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J846" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2876,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L845"/>
+  <dimension ref="A1:L846"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B837" workbookViewId="0">
-      <selection activeCell="J842" sqref="J842"/>
+      <selection activeCell="C847" sqref="C847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27593,6 +27596,36 @@
         <v>641</v>
       </c>
     </row>
+    <row r="846" spans="1:10">
+      <c r="A846" s="1">
+        <v>3</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C846" s="7">
+        <v>43564</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F846" s="1">
+        <v>5</v>
+      </c>
+      <c r="G846" s="1"/>
+      <c r="H846" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I846" s="1">
+        <v>844</v>
+      </c>
+      <c r="J846" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="805">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2426,6 +2426,9 @@
   </si>
   <si>
     <t>big choco πατατάκια με ρίγανι και σοκοφρέτα</t>
+  </si>
+  <si>
+    <t>vegan pizza και fredouccino</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2580,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J846" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J847" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2879,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L846"/>
+  <dimension ref="A1:L847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B837" workbookViewId="0">
-      <selection activeCell="C847" sqref="C847"/>
+    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
+      <selection activeCell="B847" sqref="B847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27626,6 +27629,36 @@
         <v>639</v>
       </c>
     </row>
+    <row r="847" spans="1:10">
+      <c r="A847" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C847" s="7">
+        <v>43564</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F847" s="1">
+        <v>5</v>
+      </c>
+      <c r="G847" s="1"/>
+      <c r="H847" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I847" s="1">
+        <v>845</v>
+      </c>
+      <c r="J847" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="805">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2580,7 +2580,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J847" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J848" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2882,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L847"/>
+  <dimension ref="A1:L848"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
-      <selection activeCell="B847" sqref="B847"/>
+    <sheetView tabSelected="1" topLeftCell="B834" workbookViewId="0">
+      <selection activeCell="I849" sqref="I849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27659,6 +27659,36 @@
         <v>641</v>
       </c>
     </row>
+    <row r="848" spans="1:10">
+      <c r="A848" s="1">
+        <v>15</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C848" s="7">
+        <v>43565</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F848" s="1">
+        <v>5</v>
+      </c>
+      <c r="G848" s="1"/>
+      <c r="H848" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I848" s="1">
+        <v>846</v>
+      </c>
+      <c r="J848" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="805">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2580,7 +2580,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J848" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J849" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2882,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L848"/>
+  <dimension ref="A1:L849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B834" workbookViewId="0">
-      <selection activeCell="I849" sqref="I849"/>
+    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
+      <selection activeCell="A850" sqref="A850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27689,6 +27689,36 @@
         <v>639</v>
       </c>
     </row>
+    <row r="849" spans="1:10">
+      <c r="A849" s="1">
+        <v>10</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C849" s="7">
+        <v>43568</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F849" s="1">
+        <v>5</v>
+      </c>
+      <c r="G849" s="1"/>
+      <c r="H849" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I849" s="1">
+        <v>847</v>
+      </c>
+      <c r="J849" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="809">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2429,6 +2429,18 @@
   </si>
   <si>
     <t>vegan pizza και fredouccino</t>
+  </si>
+  <si>
+    <t>κουλούρι με ελιά και ντομάτα και ταχινόπιτα</t>
+  </si>
+  <si>
+    <t>ρακόμελα με γεωργία, σοφάνη, ρουβά, σαρρή και μαρία</t>
+  </si>
+  <si>
+    <t>2 σουβλάκια με μπιφτέκι λαχανικών στο σπίτι της Νίκας</t>
+  </si>
+  <si>
+    <t>1 κουλούρι (+ κουλούρι Πηνελόπης και + καφέ Σαρρής)</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2592,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J849" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J853" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2882,10 +2894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L849"/>
+  <dimension ref="A1:L853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
-      <selection activeCell="A850" sqref="A850"/>
+    <sheetView tabSelected="1" topLeftCell="B834" workbookViewId="0">
+      <selection activeCell="I848" sqref="I848:I853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27719,6 +27731,126 @@
         <v>639</v>
       </c>
     </row>
+    <row r="850" spans="1:10">
+      <c r="A850" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C850" s="7">
+        <v>43569</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F850" s="1">
+        <v>5</v>
+      </c>
+      <c r="G850" s="1"/>
+      <c r="H850" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I850" s="1">
+        <v>848</v>
+      </c>
+      <c r="J850" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10">
+      <c r="A851" s="1">
+        <v>10</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C851" s="7">
+        <v>43569</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F851" s="1">
+        <v>5</v>
+      </c>
+      <c r="G851" s="1"/>
+      <c r="H851" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I851" s="1">
+        <v>849</v>
+      </c>
+      <c r="J851" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10">
+      <c r="A852" s="1">
+        <v>5</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C852" s="7">
+        <v>43570</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F852" s="1">
+        <v>5</v>
+      </c>
+      <c r="G852" s="1"/>
+      <c r="H852" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I852" s="1">
+        <v>850</v>
+      </c>
+      <c r="J852" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10">
+      <c r="A853" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C853" s="7">
+        <v>43570</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F853" s="1">
+        <v>5</v>
+      </c>
+      <c r="G853" s="1"/>
+      <c r="H853" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I853" s="1">
+        <v>851</v>
+      </c>
+      <c r="J853" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="810">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>1 κουλούρι (+ κουλούρι Πηνελόπης και + καφέ Σαρρής)</t>
+  </si>
+  <si>
+    <t>αεροπορικά από Κέρκυρα για αθήνα</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J853" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J855" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2894,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L853"/>
+  <dimension ref="A1:L855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B834" workbookViewId="0">
-      <selection activeCell="I848" sqref="I848:I853"/>
+      <selection activeCell="I856" sqref="I856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27851,6 +27854,66 @@
         <v>641</v>
       </c>
     </row>
+    <row r="854" spans="1:10">
+      <c r="A854" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C854" s="7">
+        <v>43571</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F854" s="1">
+        <v>5</v>
+      </c>
+      <c r="G854" s="1"/>
+      <c r="H854" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I854" s="1">
+        <v>852</v>
+      </c>
+      <c r="J854" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10">
+      <c r="A855" s="1">
+        <v>41.19</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C855" s="7">
+        <v>43572</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F855" s="1">
+        <v>5</v>
+      </c>
+      <c r="G855" s="1"/>
+      <c r="H855" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I855" s="1">
+        <v>853</v>
+      </c>
+      <c r="J855" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="811">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2444,6 +2444,9 @@
   </si>
   <si>
     <t>αεροπορικά από Κέρκυρα για αθήνα</t>
+  </si>
+  <si>
+    <t>σαγκουίνι εψα με Αγίλαρα</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2598,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J855" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J856" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2897,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L855"/>
+  <dimension ref="A1:L856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B834" workbookViewId="0">
-      <selection activeCell="I856" sqref="I856"/>
+    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
+      <selection activeCell="A857" sqref="A857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27914,6 +27917,36 @@
         <v>648</v>
       </c>
     </row>
+    <row r="856" spans="1:10">
+      <c r="A856" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C856" s="7">
+        <v>43574</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F856" s="1">
+        <v>4</v>
+      </c>
+      <c r="G856" s="1"/>
+      <c r="H856" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I856" s="1">
+        <v>854</v>
+      </c>
+      <c r="J856" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="813">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2447,6 +2447,12 @@
   </si>
   <si>
     <t>σαγκουίνι εψα με Αγίλαρα</t>
+  </si>
+  <si>
+    <t>ζελεδάκια και πατατάκια από τον Σκλαβενίτη</t>
+  </si>
+  <si>
+    <t>αεροπορικά εισητήρια από Southampton για Ενδιβούργο</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J856" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J858" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2900,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L856"/>
+  <dimension ref="A1:L858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
-      <selection activeCell="A857" sqref="A857"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="A859" sqref="A859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27947,6 +27953,66 @@
         <v>641</v>
       </c>
     </row>
+    <row r="857" spans="1:10">
+      <c r="A857" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C857" s="7">
+        <v>43575</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F857" s="1">
+        <v>4</v>
+      </c>
+      <c r="G857" s="1"/>
+      <c r="H857" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I857" s="1">
+        <v>855</v>
+      </c>
+      <c r="J857" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10">
+      <c r="A858" s="1">
+        <v>63.54</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C858" s="7">
+        <v>43575</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F858" s="1">
+        <v>4</v>
+      </c>
+      <c r="G858" s="1"/>
+      <c r="H858" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I858" s="1">
+        <v>856</v>
+      </c>
+      <c r="J858" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="814">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>αεροπορικά εισητήρια από Southampton για Ενδιβούργο</t>
+  </si>
+  <si>
+    <t>κουλούρι με ντομάτα και ελιά</t>
   </si>
 </sst>
 </file>
@@ -2604,7 +2607,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J858" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J859" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2906,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L858"/>
+  <dimension ref="A1:L859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="A859" sqref="A859"/>
+    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
+      <selection activeCell="A860" sqref="A860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28013,6 +28016,36 @@
         <v>648</v>
       </c>
     </row>
+    <row r="859" spans="1:10">
+      <c r="A859" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C859" s="7">
+        <v>43576</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F859" s="1">
+        <v>4</v>
+      </c>
+      <c r="G859" s="1"/>
+      <c r="H859" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I859" s="1">
+        <v>857</v>
+      </c>
+      <c r="J859" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="816">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2459,6 +2459,9 @@
   </si>
   <si>
     <t>Tzitzifies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pancake με σοκολάτα στο apolis με Κώστα Κούρο Σπύρο και Σοφιανό </t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2613,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J860" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J861" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2912,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L860"/>
+  <dimension ref="A1:L861"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B840" workbookViewId="0">
-      <selection activeCell="H860" sqref="H860"/>
+      <selection activeCell="I862" sqref="I862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28079,6 +28082,36 @@
         <v>640</v>
       </c>
     </row>
+    <row r="861" spans="1:10">
+      <c r="A861" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C861" s="7">
+        <v>43576</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F861" s="1">
+        <v>5</v>
+      </c>
+      <c r="G861" s="1"/>
+      <c r="H861" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I861" s="1">
+        <v>859</v>
+      </c>
+      <c r="J861" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="818">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2462,6 +2462,12 @@
   </si>
   <si>
     <t xml:space="preserve">pancake με σοκολάτα στο apolis με Κώστα Κούρο Σπύρο και Σοφιανό </t>
+  </si>
+  <si>
+    <t>ζελεδάκια και pizzetti με ντομάτα</t>
+  </si>
+  <si>
+    <t>coca cola light</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2619,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J861" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J863" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2915,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L861"/>
+  <dimension ref="A1:L863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B840" workbookViewId="0">
-      <selection activeCell="I862" sqref="I862"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28112,6 +28118,66 @@
         <v>640</v>
       </c>
     </row>
+    <row r="862" spans="1:10">
+      <c r="A862" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C862" s="7">
+        <v>43579</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F862" s="1">
+        <v>5</v>
+      </c>
+      <c r="G862" s="1"/>
+      <c r="H862" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I862" s="1">
+        <v>860</v>
+      </c>
+      <c r="J862" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10">
+      <c r="A863" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C863" s="7">
+        <v>43579</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F863" s="1">
+        <v>5</v>
+      </c>
+      <c r="G863" s="1"/>
+      <c r="H863" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I863" s="1">
+        <v>861</v>
+      </c>
+      <c r="J863" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4341" uniqueCount="819">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2468,6 +2468,9 @@
   </si>
   <si>
     <t>coca cola light</t>
+  </si>
+  <si>
+    <t>hell και pizzetti</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2622,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J863" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J866" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2921,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L863"/>
+  <dimension ref="A1:L866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
-      <selection activeCell="A864" sqref="A864"/>
+    <sheetView tabSelected="1" topLeftCell="B844" workbookViewId="0">
+      <selection activeCell="J867" sqref="J867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28178,6 +28181,96 @@
         <v>638</v>
       </c>
     </row>
+    <row r="864" spans="1:10">
+      <c r="A864" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C864" s="7">
+        <v>43580</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F864" s="1">
+        <v>5</v>
+      </c>
+      <c r="G864" s="1"/>
+      <c r="H864" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I864" s="1">
+        <v>862</v>
+      </c>
+      <c r="J864" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10">
+      <c r="A865" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C865" s="7">
+        <v>43580</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F865" s="1">
+        <v>5</v>
+      </c>
+      <c r="G865" s="1"/>
+      <c r="H865" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I865" s="1">
+        <v>863</v>
+      </c>
+      <c r="J865" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10">
+      <c r="A866" s="1">
+        <v>1</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C866" s="7">
+        <v>43580</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F866" s="1">
+        <v>5</v>
+      </c>
+      <c r="G866" s="1"/>
+      <c r="H866" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I866" s="1">
+        <v>864</v>
+      </c>
+      <c r="J866" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4341" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="819">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J866" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J867" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2924,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L866"/>
+  <dimension ref="A1:L867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B844" workbookViewId="0">
-      <selection activeCell="J867" sqref="J867"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="A868" sqref="A868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28271,6 +28271,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="867" spans="1:10">
+      <c r="A867" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C867" s="7">
+        <v>43586</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F867" s="1">
+        <v>5</v>
+      </c>
+      <c r="G867" s="1"/>
+      <c r="H867" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I867" s="1">
+        <v>865</v>
+      </c>
+      <c r="J867" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="820">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2471,6 +2471,9 @@
   </si>
   <si>
     <t>hell και pizzetti</t>
+  </si>
+  <si>
+    <t>2 κουλούρια με ντομάτα και ελιά</t>
   </si>
 </sst>
 </file>
@@ -2622,7 +2625,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J867" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J868" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2924,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L867"/>
+  <dimension ref="A1:L868"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="A868" sqref="A868"/>
+      <selection activeCell="A869" sqref="A869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28301,6 +28304,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="868" spans="1:10">
+      <c r="A868" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C868" s="7">
+        <v>43587</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F868" s="1">
+        <v>5</v>
+      </c>
+      <c r="G868" s="1"/>
+      <c r="H868" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I868" s="1">
+        <v>866</v>
+      </c>
+      <c r="J868" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="825">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2440,9 +2440,6 @@
     <t>1 κουλούρι (+ κουλούρι Πηνελόπης και + καφέ Σαρρής)</t>
   </si>
   <si>
-    <t>αεροπορικά από Κέρκυρα για αθήνα</t>
-  </si>
-  <si>
     <t>σαγκουίνι εψα με Αγίλαρα</t>
   </si>
   <si>
@@ -2474,6 +2471,24 @@
   </si>
   <si>
     <t>2 κουλούρια με ντομάτα και ελιά</t>
+  </si>
+  <si>
+    <t>96,kati</t>
+  </si>
+  <si>
+    <t>αεροπορικά εισητήρια από Ενδιβούργο Κέρκυρα</t>
+  </si>
+  <si>
+    <t>αεροπορικά εισητήρια από Κέρκυρα για Αθήνα</t>
+  </si>
+  <si>
+    <t>νερό στο Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>monster, σοκοφρέτα και τσίχλα</t>
+  </si>
+  <si>
+    <t>Agios Kosmas</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J868" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J872" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2927,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L868"/>
+  <dimension ref="A1:L872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="A869" sqref="A869"/>
+    <sheetView tabSelected="1" topLeftCell="B852" workbookViewId="0">
+      <selection activeCell="J873" sqref="J873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6839,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I134">
         <v>132</v>
@@ -8840,7 +8855,7 @@
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I203">
         <v>201</v>
@@ -8869,7 +8884,7 @@
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I204">
         <v>202</v>
@@ -17695,7 +17710,7 @@
         <v>5</v>
       </c>
       <c r="H508" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I508">
         <v>506</v>
@@ -18773,7 +18788,7 @@
       </c>
       <c r="G545" s="1"/>
       <c r="H545" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I545">
         <v>543</v>
@@ -18803,7 +18818,7 @@
       </c>
       <c r="G546" s="1"/>
       <c r="H546" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I546">
         <v>544</v>
@@ -22968,7 +22983,7 @@
       </c>
       <c r="G689" s="1"/>
       <c r="H689" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I689" s="1">
         <v>687</v>
@@ -23538,7 +23553,7 @@
       </c>
       <c r="G708" s="1"/>
       <c r="H708" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I708" s="1">
         <v>706</v>
@@ -24317,7 +24332,7 @@
       </c>
       <c r="G734" s="1"/>
       <c r="H734" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I734" s="1">
         <v>732</v>
@@ -27336,7 +27351,7 @@
       </c>
       <c r="G835" s="1"/>
       <c r="H835" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I835" s="1">
         <v>833</v>
@@ -27785,7 +27800,7 @@
       </c>
       <c r="G850" s="1"/>
       <c r="H850" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I850" s="1">
         <v>848</v>
@@ -27925,7 +27940,7 @@
         <v>43572</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E855" s="1" t="s">
         <v>221</v>
@@ -27955,7 +27970,7 @@
         <v>43574</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>221</v>
@@ -27985,7 +28000,7 @@
         <v>43575</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>221</v>
@@ -28015,7 +28030,7 @@
         <v>43575</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>221</v>
@@ -28045,7 +28060,7 @@
         <v>43576</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>221</v>
@@ -28055,7 +28070,7 @@
       </c>
       <c r="G859" s="1"/>
       <c r="H859" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I859" s="1">
         <v>857</v>
@@ -28075,7 +28090,7 @@
         <v>43576</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>221</v>
@@ -28085,7 +28100,7 @@
       </c>
       <c r="G860" s="1"/>
       <c r="H860" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I860" s="1">
         <v>858</v>
@@ -28105,7 +28120,7 @@
         <v>43576</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E861" s="1" t="s">
         <v>221</v>
@@ -28135,7 +28150,7 @@
         <v>43579</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>221</v>
@@ -28165,7 +28180,7 @@
         <v>43579</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>221</v>
@@ -28205,7 +28220,7 @@
       </c>
       <c r="G864" s="1"/>
       <c r="H864" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I864" s="1">
         <v>862</v>
@@ -28225,7 +28240,7 @@
         <v>43580</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E865" s="1" t="s">
         <v>221</v>
@@ -28235,7 +28250,7 @@
       </c>
       <c r="G865" s="1"/>
       <c r="H865" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I865" s="1">
         <v>863</v>
@@ -28315,7 +28330,7 @@
         <v>43587</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E868" s="1" t="s">
         <v>221</v>
@@ -28325,12 +28340,132 @@
       </c>
       <c r="G868" s="1"/>
       <c r="H868" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I868" s="1">
         <v>866</v>
       </c>
       <c r="J868" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10">
+      <c r="A869" s="1">
+        <v>2</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C869" s="7">
+        <v>43587</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F869" s="1">
+        <v>5</v>
+      </c>
+      <c r="G869" s="1"/>
+      <c r="H869" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I869" s="1">
+        <v>867</v>
+      </c>
+      <c r="J869" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10">
+      <c r="A870">
+        <v>0.5</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C870" s="7">
+        <v>43589</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F870" s="1">
+        <v>5</v>
+      </c>
+      <c r="G870" s="1"/>
+      <c r="H870" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I870" s="1">
+        <v>868</v>
+      </c>
+      <c r="J870" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10">
+      <c r="A871" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C871" s="7">
+        <v>43589</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F871" s="1">
+        <v>4</v>
+      </c>
+      <c r="G871" s="1"/>
+      <c r="H871" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I871" s="1">
+        <v>869</v>
+      </c>
+      <c r="J871" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10">
+      <c r="A872" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C872" s="7">
+        <v>43590</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F872" s="1">
+        <v>4</v>
+      </c>
+      <c r="G872" s="1"/>
+      <c r="H872" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="I872" s="1">
+        <v>870</v>
+      </c>
+      <c r="J872" s="1" t="s">
         <v>638</v>
       </c>
     </row>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="827">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2489,6 +2489,12 @@
   </si>
   <si>
     <t>Agios Kosmas</t>
+  </si>
+  <si>
+    <t>τυροκούλουρο και λουκουμά</t>
+  </si>
+  <si>
+    <t>monster και coca cola light</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2646,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J872" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J874" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2942,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L872"/>
+  <dimension ref="A1:L874"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B852" workbookViewId="0">
-      <selection activeCell="J873" sqref="J873"/>
+      <selection activeCell="J875" sqref="J875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28469,6 +28475,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="873" spans="1:10">
+      <c r="A873" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C873" s="7">
+        <v>43592</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F873" s="1">
+        <v>5</v>
+      </c>
+      <c r="G873" s="1"/>
+      <c r="H873" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I873" s="1">
+        <v>871</v>
+      </c>
+      <c r="J873" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10">
+      <c r="A874" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C874" s="7">
+        <v>43592</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F874" s="1">
+        <v>5</v>
+      </c>
+      <c r="G874" s="1"/>
+      <c r="H874" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I874" s="1">
+        <v>872</v>
+      </c>
+      <c r="J874" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="827">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2473,9 +2473,6 @@
     <t>2 κουλούρια με ντομάτα και ελιά</t>
   </si>
   <si>
-    <t>96,kati</t>
-  </si>
-  <si>
     <t>αεροπορικά εισητήρια από Ενδιβούργο Κέρκυρα</t>
   </si>
   <si>
@@ -2495,6 +2492,9 @@
   </si>
   <si>
     <t>monster και coca cola light</t>
+  </si>
+  <si>
+    <t>pizzetti με σκόρδο και ελιά</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2646,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J874" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J877" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2948,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L874"/>
+  <dimension ref="A1:L877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B852" workbookViewId="0">
-      <selection activeCell="J875" sqref="J875"/>
+    <sheetView tabSelected="1" topLeftCell="B854" workbookViewId="0">
+      <selection activeCell="J878" sqref="J878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27946,7 +27946,7 @@
         <v>43572</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E855" s="1" t="s">
         <v>221</v>
@@ -28396,7 +28396,7 @@
         <v>43589</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E870" s="1" t="s">
         <v>221</v>
@@ -28416,8 +28416,8 @@
       </c>
     </row>
     <row r="871" spans="1:10">
-      <c r="A871" s="1" t="s">
-        <v>819</v>
+      <c r="A871" s="1">
+        <v>94</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>329</v>
@@ -28426,7 +28426,7 @@
         <v>43589</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>221</v>
@@ -28456,7 +28456,7 @@
         <v>43590</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>221</v>
@@ -28466,7 +28466,7 @@
       </c>
       <c r="G872" s="1"/>
       <c r="H872" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I872" s="1">
         <v>870</v>
@@ -28486,7 +28486,7 @@
         <v>43592</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>221</v>
@@ -28516,7 +28516,7 @@
         <v>43592</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E874" s="1" t="s">
         <v>221</v>
@@ -28533,6 +28533,96 @@
       </c>
       <c r="J874" s="1" t="s">
         <v>638</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10">
+      <c r="A875" s="1">
+        <v>1</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C875" s="7">
+        <v>43594</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F875" s="1">
+        <v>5</v>
+      </c>
+      <c r="G875" s="1"/>
+      <c r="H875" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I875" s="1">
+        <v>873</v>
+      </c>
+      <c r="J875" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10">
+      <c r="A876" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C876" s="7">
+        <v>43595</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F876" s="1">
+        <v>4</v>
+      </c>
+      <c r="G876" s="1"/>
+      <c r="H876" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I876" s="1">
+        <v>874</v>
+      </c>
+      <c r="J876" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10">
+      <c r="A877" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C877" s="7">
+        <v>43595</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F877" s="1">
+        <v>4</v>
+      </c>
+      <c r="G877" s="1"/>
+      <c r="H877" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I877" s="1">
+        <v>875</v>
+      </c>
+      <c r="J877" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="829">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2495,6 +2495,12 @@
   </si>
   <si>
     <t>pizzetti με σκόρδο και ελιά</t>
+  </si>
+  <si>
+    <t>(+ realtime και μπλεκ πατέρα)</t>
+  </si>
+  <si>
+    <t>μπύρα amstel (+ χυμό ροδάκινο του Αντώνη)</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2652,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J877" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J880" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2948,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L877"/>
+  <dimension ref="A1:L880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B854" workbookViewId="0">
-      <selection activeCell="J878" sqref="J878"/>
+    <sheetView tabSelected="1" topLeftCell="B857" workbookViewId="0">
+      <selection activeCell="I876" sqref="I876:I880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2959,7 +2965,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -28625,6 +28631,96 @@
         <v>640</v>
       </c>
     </row>
+    <row r="878" spans="1:10">
+      <c r="A878" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C878" s="7">
+        <v>43596</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F878" s="1">
+        <v>5</v>
+      </c>
+      <c r="G878" s="1"/>
+      <c r="H878" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I878" s="1">
+        <v>876</v>
+      </c>
+      <c r="J878" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10">
+      <c r="A879" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C879" s="7">
+        <v>43597</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F879" s="1">
+        <v>5</v>
+      </c>
+      <c r="G879" s="1"/>
+      <c r="H879" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I879" s="1">
+        <v>877</v>
+      </c>
+      <c r="J879" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10">
+      <c r="A880" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C880" s="7">
+        <v>43597</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F880" s="1">
+        <v>5</v>
+      </c>
+      <c r="G880" s="1"/>
+      <c r="H880" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I880" s="1">
+        <v>878</v>
+      </c>
+      <c r="J880" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="829">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J880" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J881" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2954,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L880"/>
+  <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B857" workbookViewId="0">
-      <selection activeCell="I876" sqref="I876:I880"/>
+    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
+      <selection activeCell="A882" sqref="A882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28721,6 +28721,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="881" spans="1:10">
+      <c r="A881" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C881" s="7">
+        <v>43598</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F881" s="1">
+        <v>5</v>
+      </c>
+      <c r="G881" s="1"/>
+      <c r="H881" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I881" s="1">
+        <v>879</v>
+      </c>
+      <c r="J881" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="830">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2501,6 +2501,9 @@
   </si>
   <si>
     <t>μπύρα amstel (+ χυμό ροδάκινο του Αντώνη)</t>
+  </si>
+  <si>
+    <t>pringgles</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2655,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J881" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J884" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2954,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L881"/>
+  <dimension ref="A1:L884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
-      <selection activeCell="A882" sqref="A882"/>
+    <sheetView tabSelected="1" topLeftCell="B862" workbookViewId="0">
+      <selection activeCell="J885" sqref="J885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28751,6 +28754,96 @@
         <v>638</v>
       </c>
     </row>
+    <row r="882" spans="1:10">
+      <c r="A882" s="1">
+        <v>2</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C882" s="7">
+        <v>43602</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F882" s="1">
+        <v>5</v>
+      </c>
+      <c r="G882" s="1"/>
+      <c r="H882" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I882" s="1">
+        <v>880</v>
+      </c>
+      <c r="J882" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="A883" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C883" s="7">
+        <v>43602</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F883" s="1">
+        <v>5</v>
+      </c>
+      <c r="G883" s="1"/>
+      <c r="H883" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I883" s="1">
+        <v>881</v>
+      </c>
+      <c r="J883" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="A884" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C884" s="7">
+        <v>43602</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F884" s="1">
+        <v>5</v>
+      </c>
+      <c r="G884" s="1"/>
+      <c r="H884" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I884" s="1">
+        <v>882</v>
+      </c>
+      <c r="J884" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="832">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2504,6 +2504,12 @@
   </si>
   <si>
     <t>pringgles</t>
+  </si>
+  <si>
+    <t>νερό (+ Μιχάλη)</t>
+  </si>
+  <si>
+    <t>(+ βενζίνη Μιχάλη)</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2661,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J884" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J886" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2957,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L884"/>
+  <dimension ref="A1:L886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B862" workbookViewId="0">
-      <selection activeCell="J885" sqref="J885"/>
+    <sheetView tabSelected="1" topLeftCell="B863" workbookViewId="0">
+      <selection activeCell="J887" sqref="J887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28844,6 +28850,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="885" spans="1:10">
+      <c r="A885" s="1">
+        <v>1</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C885" s="7">
+        <v>43603</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F885" s="1">
+        <v>5</v>
+      </c>
+      <c r="G885" s="1"/>
+      <c r="H885" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I885" s="1">
+        <v>883</v>
+      </c>
+      <c r="J885" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10">
+      <c r="A886" s="1">
+        <v>9</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C886" s="7">
+        <v>43603</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F886" s="1">
+        <v>5</v>
+      </c>
+      <c r="G886" s="1"/>
+      <c r="H886" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I886" s="1">
+        <v>884</v>
+      </c>
+      <c r="J886" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="834">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2510,6 +2510,12 @@
   </si>
   <si>
     <t>(+ βενζίνη Μιχάλη)</t>
+  </si>
+  <si>
+    <t>μπύρα heiniken</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα (+ νερό σούπερ Καρβουνίδη)</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2667,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J886" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J888" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2963,10 +2969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L886"/>
+  <dimension ref="A1:L888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B863" workbookViewId="0">
-      <selection activeCell="J887" sqref="J887"/>
+    <sheetView tabSelected="1" topLeftCell="B867" workbookViewId="0">
+      <selection activeCell="D889" sqref="D889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28910,6 +28916,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="887" spans="1:10">
+      <c r="A887" s="1">
+        <v>5</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C887" s="7">
+        <v>43603</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F887" s="1">
+        <v>5</v>
+      </c>
+      <c r="G887" s="1"/>
+      <c r="H887" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I887" s="1">
+        <v>885</v>
+      </c>
+      <c r="J887" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="A888" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C888" s="7">
+        <v>43604</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F888" s="1">
+        <v>5</v>
+      </c>
+      <c r="G888" s="1"/>
+      <c r="H888" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I888" s="1">
+        <v>886</v>
+      </c>
+      <c r="J888" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="836">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2516,6 +2516,12 @@
   </si>
   <si>
     <t>σπανακόπιτα (+ νερό σούπερ Καρβουνίδη)</t>
+  </si>
+  <si>
+    <t>big choco</t>
+  </si>
+  <si>
+    <t>amaretti ζελεδάκια και παγωτό</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J888" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J892" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2969,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L888"/>
+  <dimension ref="A1:L892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B867" workbookViewId="0">
-      <selection activeCell="D889" sqref="D889"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="A893" sqref="A893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28976,6 +28982,126 @@
         <v>638</v>
       </c>
     </row>
+    <row r="889" spans="1:10">
+      <c r="A889" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C889" s="7">
+        <v>43604</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F889" s="1">
+        <v>5</v>
+      </c>
+      <c r="G889" s="1"/>
+      <c r="H889" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I889" s="1">
+        <v>887</v>
+      </c>
+      <c r="J889" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="A890" s="1">
+        <v>5</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C890" s="7">
+        <v>43605</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F890" s="1">
+        <v>5</v>
+      </c>
+      <c r="G890" s="1"/>
+      <c r="H890" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I890" s="1">
+        <v>888</v>
+      </c>
+      <c r="J890" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="A891" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C891" s="7">
+        <v>43606</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F891" s="1">
+        <v>5</v>
+      </c>
+      <c r="G891" s="1"/>
+      <c r="H891" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I891" s="1">
+        <v>889</v>
+      </c>
+      <c r="J891" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="A892" s="1">
+        <v>2</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C892" s="7">
+        <v>43606</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F892" s="1">
+        <v>5</v>
+      </c>
+      <c r="G892" s="1"/>
+      <c r="H892" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I892" s="1">
+        <v>890</v>
+      </c>
+      <c r="J892" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="838">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2522,6 +2522,12 @@
   </si>
   <si>
     <t>amaretti ζελεδάκια και παγωτό</t>
+  </si>
+  <si>
+    <t>ομελέτα και φυσικός χυμός στο Καφέ του πανελληνίου</t>
+  </si>
+  <si>
+    <t>kyq</t>
   </si>
 </sst>
 </file>
@@ -2673,7 +2679,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J892" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J893" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2975,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L892"/>
+  <dimension ref="A1:L893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
-      <selection activeCell="A893" sqref="A893"/>
+    <sheetView tabSelected="1" topLeftCell="B871" workbookViewId="0">
+      <selection activeCell="H894" sqref="H894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29102,6 +29108,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="893" spans="1:10">
+      <c r="A893" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C893" s="7">
+        <v>43607</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F893" s="1">
+        <v>4</v>
+      </c>
+      <c r="G893" s="1"/>
+      <c r="H893" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="I893" s="1">
+        <v>891</v>
+      </c>
+      <c r="J893" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="841">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2527,7 +2527,16 @@
     <t>ομελέτα και φυσικός χυμός στο Καφέ του πανελληνίου</t>
   </si>
   <si>
-    <t>kyq</t>
+    <t>σοκοφρέτα (+ powerade Μιχάλη)</t>
+  </si>
+  <si>
+    <t>τσίχλα</t>
+  </si>
+  <si>
+    <t>Καφέ (+ Ασημίνας)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerade (+ Μιχάλη) </t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2688,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J893" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J899" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2981,10 +2990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L893"/>
+  <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B871" workbookViewId="0">
-      <selection activeCell="H894" sqref="H894"/>
+    <sheetView tabSelected="1" topLeftCell="B876" workbookViewId="0">
+      <selection activeCell="J900" sqref="J900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29129,12 +29138,192 @@
       </c>
       <c r="G893" s="1"/>
       <c r="H893" s="1" t="s">
-        <v>837</v>
+        <v>231</v>
       </c>
       <c r="I893" s="1">
         <v>891</v>
       </c>
       <c r="J893" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10">
+      <c r="A894" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C894" s="7">
+        <v>43607</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F894" s="1">
+        <v>4</v>
+      </c>
+      <c r="G894" s="1"/>
+      <c r="H894" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I894" s="1">
+        <v>892</v>
+      </c>
+      <c r="J894" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10">
+      <c r="A895" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C895" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F895" s="1">
+        <v>4</v>
+      </c>
+      <c r="G895" s="1"/>
+      <c r="H895" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I895" s="1">
+        <v>893</v>
+      </c>
+      <c r="J895" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10">
+      <c r="A896" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C896" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F896" s="1">
+        <v>5</v>
+      </c>
+      <c r="G896" s="1"/>
+      <c r="H896" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I896" s="1">
+        <v>894</v>
+      </c>
+      <c r="J896" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10">
+      <c r="A897" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C897" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F897" s="1">
+        <v>5</v>
+      </c>
+      <c r="G897" s="1"/>
+      <c r="H897" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I897" s="1">
+        <v>895</v>
+      </c>
+      <c r="J897" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10">
+      <c r="A898" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C898" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F898" s="1">
+        <v>5</v>
+      </c>
+      <c r="G898" s="1"/>
+      <c r="H898" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I898" s="1">
+        <v>896</v>
+      </c>
+      <c r="J898" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10">
+      <c r="A899" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C899" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F899" s="1">
+        <v>5</v>
+      </c>
+      <c r="G899" s="1"/>
+      <c r="H899" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I899" s="1">
+        <v>897</v>
+      </c>
+      <c r="J899" s="1" t="s">
         <v>638</v>
       </c>
     </row>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="845">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2537,6 +2537,18 @@
   </si>
   <si>
     <t xml:space="preserve">Powerade (+ Μιχάλη) </t>
+  </si>
+  <si>
+    <t>πατατάκια</t>
+  </si>
+  <si>
+    <t>bakerolls (+ hell του Μίτσου)</t>
+  </si>
+  <si>
+    <t>γραβιερόπιτα με coca-cola</t>
+  </si>
+  <si>
+    <t>ταξί από Δέγλερη προς Αιμιλίου Βεάκη</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J899" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J904" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2990,10 +3002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L899"/>
+  <dimension ref="A1:L904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B876" workbookViewId="0">
-      <selection activeCell="J900" sqref="J900"/>
+    <sheetView tabSelected="1" topLeftCell="B881" workbookViewId="0">
+      <selection activeCell="J905" sqref="J905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29327,6 +29339,156 @@
         <v>638</v>
       </c>
     </row>
+    <row r="900" spans="1:10">
+      <c r="A900" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C900" s="7">
+        <v>43609</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F900" s="1">
+        <v>5</v>
+      </c>
+      <c r="G900" s="1"/>
+      <c r="H900" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I900" s="1">
+        <v>898</v>
+      </c>
+      <c r="J900" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10">
+      <c r="A901" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C901" s="7">
+        <v>43609</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F901" s="1">
+        <v>5</v>
+      </c>
+      <c r="G901" s="1"/>
+      <c r="H901" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I901" s="1">
+        <v>899</v>
+      </c>
+      <c r="J901" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10">
+      <c r="A902" s="1">
+        <v>3</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C902" s="7">
+        <v>43610</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F902" s="1">
+        <v>5</v>
+      </c>
+      <c r="G902" s="1"/>
+      <c r="H902" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I902" s="1">
+        <v>900</v>
+      </c>
+      <c r="J902" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10">
+      <c r="A903" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C903" s="7">
+        <v>43610</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F903" s="1">
+        <v>5</v>
+      </c>
+      <c r="G903" s="1"/>
+      <c r="H903" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I903" s="1">
+        <v>901</v>
+      </c>
+      <c r="J903" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10">
+      <c r="A904" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C904" s="7">
+        <v>43610</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F904" s="1">
+        <v>5</v>
+      </c>
+      <c r="G904" s="1"/>
+      <c r="H904" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I904" s="1">
+        <v>902</v>
+      </c>
+      <c r="J904" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="846">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2549,6 +2549,9 @@
   </si>
   <si>
     <t>ταξί από Δέγλερη προς Αιμιλίου Βεάκη</t>
+  </si>
+  <si>
+    <t>bakerolls</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2703,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J904" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J906" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3002,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L904"/>
+  <dimension ref="A1:L906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B881" workbookViewId="0">
-      <selection activeCell="J905" sqref="J905"/>
+    <sheetView tabSelected="1" topLeftCell="B883" workbookViewId="0">
+      <selection activeCell="J907" sqref="J907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29489,6 +29492,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="905" spans="1:10">
+      <c r="A905" s="1">
+        <v>10</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C905" s="7">
+        <v>43611</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F905" s="1">
+        <v>5</v>
+      </c>
+      <c r="G905" s="1"/>
+      <c r="H905" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I905" s="1">
+        <v>903</v>
+      </c>
+      <c r="J905" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10">
+      <c r="A906" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C906" s="7">
+        <v>43612</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F906" s="1">
+        <v>5</v>
+      </c>
+      <c r="G906" s="1"/>
+      <c r="H906" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I906" s="1">
+        <v>904</v>
+      </c>
+      <c r="J906" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="848">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2552,6 +2552,12 @@
   </si>
   <si>
     <t>bakerolls</t>
+  </si>
+  <si>
+    <t>parking στο penaroubia</t>
+  </si>
+  <si>
+    <t>strawberri smoothie</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +2709,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J906" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J908" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3005,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L906"/>
+  <dimension ref="A1:L908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B883" workbookViewId="0">
-      <selection activeCell="J907" sqref="J907"/>
+    <sheetView tabSelected="1" topLeftCell="B885" workbookViewId="0">
+      <selection activeCell="J909" sqref="J909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29552,6 +29558,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="907" spans="1:10">
+      <c r="A907" s="1">
+        <v>6</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C907" s="7">
+        <v>43613</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F907" s="1">
+        <v>5</v>
+      </c>
+      <c r="G907" s="1"/>
+      <c r="H907" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I907" s="1">
+        <v>905</v>
+      </c>
+      <c r="J907" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10">
+      <c r="A908" s="1">
+        <v>5</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C908" s="7">
+        <v>43613</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F908" s="1">
+        <v>5</v>
+      </c>
+      <c r="G908" s="1"/>
+      <c r="H908" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I908" s="1">
+        <v>906</v>
+      </c>
+      <c r="J908" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="850">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2558,6 +2558,12 @@
   </si>
   <si>
     <t>strawberri smoothie</t>
+  </si>
+  <si>
+    <t>Coffee Island (+ Βαγγελιώς, + Ασημίνας)</t>
+  </si>
+  <si>
+    <t>μαμά Ντίνα</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2715,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J908" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J911" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3011,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L908"/>
+  <dimension ref="A1:L911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B885" workbookViewId="0">
-      <selection activeCell="J909" sqref="J909"/>
+    <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
+      <selection activeCell="J912" sqref="J912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29618,6 +29624,96 @@
         <v>638</v>
       </c>
     </row>
+    <row r="909" spans="1:10">
+      <c r="A909" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C909" s="7">
+        <v>43614</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F909" s="1">
+        <v>5</v>
+      </c>
+      <c r="G909" s="1"/>
+      <c r="H909" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I909" s="1">
+        <v>907</v>
+      </c>
+      <c r="J909" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10">
+      <c r="A910" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C910" s="7">
+        <v>43614</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F910" s="1">
+        <v>5</v>
+      </c>
+      <c r="G910" s="1"/>
+      <c r="H910" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I910" s="1">
+        <v>908</v>
+      </c>
+      <c r="J910" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10">
+      <c r="A911" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C911" s="7">
+        <v>43614</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F911" s="1">
+        <v>5</v>
+      </c>
+      <c r="G911" s="1"/>
+      <c r="H911" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I911" s="1">
+        <v>909</v>
+      </c>
+      <c r="J911" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="851">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2564,6 +2564,9 @@
   </si>
   <si>
     <t>μαμά Ντίνα</t>
+  </si>
+  <si>
+    <t>Πεϊνιρλί μαργαρίτα</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2718,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J911" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J913" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3017,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L911"/>
+  <dimension ref="A1:L913"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
-      <selection activeCell="J912" sqref="J912"/>
+      <selection activeCell="J914" sqref="J914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29714,6 +29717,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="912" spans="1:10">
+      <c r="A912" s="1">
+        <v>2</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C912" s="7">
+        <v>43615</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F912" s="1">
+        <v>5</v>
+      </c>
+      <c r="G912" s="1"/>
+      <c r="H912" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I912" s="1">
+        <v>910</v>
+      </c>
+      <c r="J912" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10">
+      <c r="A913" s="1">
+        <v>2</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C913" s="7">
+        <v>43615</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F913" s="1">
+        <v>5</v>
+      </c>
+      <c r="G913" s="1"/>
+      <c r="H913" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I913" s="1">
+        <v>911</v>
+      </c>
+      <c r="J913" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="852">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2567,6 +2567,9 @@
   </si>
   <si>
     <t>Πεϊνιρλί μαργαρίτα</t>
+  </si>
+  <si>
+    <t>βενζίνη shell V power racing</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2721,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J913" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J914" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3020,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L913"/>
+  <dimension ref="A1:L914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
-      <selection activeCell="J914" sqref="J914"/>
+      <selection activeCell="C915" sqref="C915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29777,6 +29780,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="914" spans="1:10">
+      <c r="A914" s="1">
+        <v>20</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C914" s="7">
+        <v>43616</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F914" s="1">
+        <v>4</v>
+      </c>
+      <c r="G914" s="1"/>
+      <c r="H914" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I914" s="1">
+        <v>912</v>
+      </c>
+      <c r="J914" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="853">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2570,6 +2570,9 @@
   </si>
   <si>
     <t>βενζίνη shell V power racing</t>
+  </si>
+  <si>
+    <t>νερό και hell</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2724,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J914" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J915" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3023,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L914"/>
+  <dimension ref="A1:L915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
-      <selection activeCell="C915" sqref="C915"/>
+    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
+      <selection activeCell="A916" sqref="A916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29810,6 +29813,36 @@
         <v>638</v>
       </c>
     </row>
+    <row r="915" spans="1:10">
+      <c r="A915" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C915" s="7">
+        <v>43619</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F915" s="1">
+        <v>4</v>
+      </c>
+      <c r="G915" s="1"/>
+      <c r="H915" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I915" s="1">
+        <v>913</v>
+      </c>
+      <c r="J915" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="855">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2573,6 +2573,12 @@
   </si>
   <si>
     <t>νερό και hell</t>
+  </si>
+  <si>
+    <t>4 τσίχλες</t>
+  </si>
+  <si>
+    <t>νερό (+ κατερίνας)</t>
   </si>
 </sst>
 </file>
@@ -2724,7 +2730,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J915" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J918" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3026,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L915"/>
+  <dimension ref="A1:L918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
-      <selection activeCell="A916" sqref="A916"/>
+    <sheetView tabSelected="1" topLeftCell="B899" workbookViewId="0">
+      <selection activeCell="J919" sqref="J919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29843,6 +29849,95 @@
         <v>638</v>
       </c>
     </row>
+    <row r="916" spans="1:10">
+      <c r="A916">
+        <v>0.4</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C916" s="7">
+        <v>43620</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F916" s="1">
+        <v>4</v>
+      </c>
+      <c r="G916" s="1"/>
+      <c r="H916" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I916" s="1">
+        <v>914</v>
+      </c>
+      <c r="J916" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10">
+      <c r="A917" s="1">
+        <v>1</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C917" s="7">
+        <v>43621</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F917" s="1">
+        <v>4</v>
+      </c>
+      <c r="G917" s="1"/>
+      <c r="H917" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I917" s="1">
+        <v>915</v>
+      </c>
+      <c r="J917" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10">
+      <c r="A918" s="1">
+        <v>4</v>
+      </c>
+      <c r="B918" t="s">
+        <v>207</v>
+      </c>
+      <c r="C918" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D918" t="s">
+        <v>111</v>
+      </c>
+      <c r="E918" t="s">
+        <v>221</v>
+      </c>
+      <c r="F918">
+        <v>4</v>
+      </c>
+      <c r="H918" t="s">
+        <v>231</v>
+      </c>
+      <c r="I918" s="1">
+        <v>916</v>
+      </c>
+      <c r="J918" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="857">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2579,6 +2579,12 @@
   </si>
   <si>
     <t>νερό (+ κατερίνας)</t>
+  </si>
+  <si>
+    <t>σπιτική σοκολάτα με γεύση φουντούκι με Μήτση</t>
+  </si>
+  <si>
+    <t>serenatta</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J918" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J920" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3032,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L918"/>
+  <dimension ref="A1:L920"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B899" workbookViewId="0">
-      <selection activeCell="J919" sqref="J919"/>
+      <selection activeCell="J920" sqref="J920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29938,6 +29944,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="919" spans="1:10">
+      <c r="A919" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C919" s="7">
+        <v>43623</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F919" s="1">
+        <v>4</v>
+      </c>
+      <c r="G919" s="1"/>
+      <c r="H919" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I919" s="1">
+        <v>917</v>
+      </c>
+      <c r="J919" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10">
+      <c r="A920" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C920" s="7">
+        <v>43623</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F920" s="1">
+        <v>4</v>
+      </c>
+      <c r="G920" s="1"/>
+      <c r="H920" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I920" s="1">
+        <v>918</v>
+      </c>
+      <c r="J920" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="859">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2585,6 +2585,12 @@
   </si>
   <si>
     <t>serenatta</t>
+  </si>
+  <si>
+    <t>μπουκαλάκι νερό</t>
+  </si>
+  <si>
+    <t>2 φαλάφελ με Κώστα και Κωσταντίνα</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2742,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J920" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J923" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3038,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L920"/>
+  <dimension ref="A1:L923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B899" workbookViewId="0">
-      <selection activeCell="J920" sqref="J920"/>
+    <sheetView tabSelected="1" topLeftCell="B900" workbookViewId="0">
+      <selection activeCell="J924" sqref="J924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30004,6 +30010,96 @@
         <v>638</v>
       </c>
     </row>
+    <row r="921" spans="1:10">
+      <c r="A921" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C921" s="7">
+        <v>43624</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F921" s="1">
+        <v>4</v>
+      </c>
+      <c r="G921" s="1"/>
+      <c r="H921" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I921" s="1">
+        <v>919</v>
+      </c>
+      <c r="J921" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10">
+      <c r="A922" s="1">
+        <v>15</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C922" s="7">
+        <v>43624</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F922" s="1">
+        <v>4</v>
+      </c>
+      <c r="G922" s="1"/>
+      <c r="H922" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I922" s="1">
+        <v>920</v>
+      </c>
+      <c r="J922" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10">
+      <c r="A923" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C923" s="7">
+        <v>43625</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F923" s="1">
+        <v>5</v>
+      </c>
+      <c r="G923" s="1"/>
+      <c r="H923" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I923" s="1">
+        <v>921</v>
+      </c>
+      <c r="J923" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="860">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>2 φαλάφελ με Κώστα και Κωσταντίνα</t>
+  </si>
+  <si>
+    <t>φυσικός χυμός από το κυλικείο της σχολής</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2745,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J923" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J925" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3044,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L923"/>
+  <dimension ref="A1:L925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B900" workbookViewId="0">
-      <selection activeCell="J924" sqref="J924"/>
+    <sheetView tabSelected="1" topLeftCell="B901" workbookViewId="0">
+      <selection activeCell="J923" sqref="J923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30100,6 +30103,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="924" spans="1:10">
+      <c r="A924" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C924" s="7">
+        <v>43626</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F924" s="1">
+        <v>5</v>
+      </c>
+      <c r="G924" s="1"/>
+      <c r="H924" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I924" s="1">
+        <v>922</v>
+      </c>
+      <c r="J924" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10">
+      <c r="A925" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C925" s="7">
+        <v>43626</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F925" s="1">
+        <v>5</v>
+      </c>
+      <c r="G925" s="1"/>
+      <c r="H925" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I925" s="1">
+        <v>923</v>
+      </c>
+      <c r="J925" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="862">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2594,6 +2594,12 @@
   </si>
   <si>
     <t>φυσικός χυμός από το κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>fruse tea και πεϊνιρλί από την Βικτώρια</t>
+  </si>
+  <si>
+    <t>freddo espresso μέτριο από τον Γρηγόρη</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J925" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J927" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3047,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L925"/>
+  <dimension ref="A1:L927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B901" workbookViewId="0">
-      <selection activeCell="J923" sqref="J923"/>
+    <sheetView tabSelected="1" topLeftCell="A912" workbookViewId="0">
+      <selection activeCell="A928" sqref="A928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30163,6 +30169,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="926" spans="1:10">
+      <c r="A926" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C926" s="7">
+        <v>43627</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F926" s="1">
+        <v>5</v>
+      </c>
+      <c r="G926" s="1"/>
+      <c r="H926" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I926" s="1">
+        <v>924</v>
+      </c>
+      <c r="J926" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10">
+      <c r="A927" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C927" s="7">
+        <v>43627</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F927" s="1">
+        <v>5</v>
+      </c>
+      <c r="G927" s="1"/>
+      <c r="H927" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I927" s="1">
+        <v>925</v>
+      </c>
+      <c r="J927" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="864">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2600,6 +2600,12 @@
   </si>
   <si>
     <t>freddo espresso μέτριο από τον Γρηγόρη</t>
+  </si>
+  <si>
+    <t>vegan σκεπαστή</t>
+  </si>
+  <si>
+    <t>amaretti ζελεδάκια</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2757,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J927" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J929" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3053,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L927"/>
+  <dimension ref="A1:L929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A912" workbookViewId="0">
-      <selection activeCell="A928" sqref="A928"/>
+    <sheetView tabSelected="1" topLeftCell="B912" workbookViewId="0">
+      <selection activeCell="J930" sqref="J930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30229,6 +30235,66 @@
         <v>638</v>
       </c>
     </row>
+    <row r="928" spans="1:10">
+      <c r="A928" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C928" s="7">
+        <v>43628</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F928" s="1">
+        <v>5</v>
+      </c>
+      <c r="G928" s="1"/>
+      <c r="H928" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I928" s="1">
+        <v>926</v>
+      </c>
+      <c r="J928" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10">
+      <c r="A929" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C929" s="7">
+        <v>43628</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F929" s="1">
+        <v>5</v>
+      </c>
+      <c r="G929" s="1"/>
+      <c r="H929" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I929" s="1">
+        <v>927</v>
+      </c>
+      <c r="J929" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="868">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2606,6 +2606,18 @@
   </si>
   <si>
     <t>amaretti ζελεδάκια</t>
+  </si>
+  <si>
+    <t>εισητήριο για Θεσσαλονίκη με τρένο</t>
+  </si>
+  <si>
+    <t>μπύρες (+ Γεωργίας)</t>
+  </si>
+  <si>
+    <t>καυτερή πίτσα με Βαγγελιώ, Πόπη, Γεωργία και Ρουβά</t>
+  </si>
+  <si>
+    <t>Attiki</t>
   </si>
 </sst>
 </file>
@@ -2733,15 +2745,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2757,9 +2769,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J929" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J933" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
-    <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="10"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
     <tableColumn id="2" name="date" totalsRowDxfId="7"/>
     <tableColumn id="4" name="description" totalsRowDxfId="6"/>
@@ -3059,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L929"/>
+  <dimension ref="A1:L933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B912" workbookViewId="0">
-      <selection activeCell="J930" sqref="J930"/>
+    <sheetView tabSelected="1" topLeftCell="A915" workbookViewId="0">
+      <selection activeCell="A934" sqref="A934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30295,6 +30307,126 @@
         <v>638</v>
       </c>
     </row>
+    <row r="930" spans="1:10">
+      <c r="A930" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C930" s="7">
+        <v>43629</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F930" s="1">
+        <v>5</v>
+      </c>
+      <c r="G930" s="1"/>
+      <c r="H930" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I930" s="1">
+        <v>928</v>
+      </c>
+      <c r="J930" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10">
+      <c r="A931" s="1">
+        <v>2</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C931" s="7">
+        <v>43629</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F931" s="1">
+        <v>5</v>
+      </c>
+      <c r="G931" s="1"/>
+      <c r="H931" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I931" s="1">
+        <v>929</v>
+      </c>
+      <c r="J931" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10">
+      <c r="A932" s="1">
+        <v>7</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C932" s="7">
+        <v>43629</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F932" s="1">
+        <v>5</v>
+      </c>
+      <c r="G932" s="1"/>
+      <c r="H932" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I932" s="1">
+        <v>930</v>
+      </c>
+      <c r="J932" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10">
+      <c r="A933" s="1">
+        <v>6</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C933" s="7">
+        <v>43629</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F933" s="1">
+        <v>5</v>
+      </c>
+      <c r="G933" s="1"/>
+      <c r="H933" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I933" s="1">
+        <v>931</v>
+      </c>
+      <c r="J933" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="875">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2618,6 +2618,27 @@
   </si>
   <si>
     <t>Attiki</t>
+  </si>
+  <si>
+    <t>ταξί από το σπίτι προς Ανθούπολη</t>
+  </si>
+  <si>
+    <t>τσίχλες στο τρένο</t>
+  </si>
+  <si>
+    <t>σαλάτα χανιώτικη από το Κρητικό περιβόλι</t>
+  </si>
+  <si>
+    <t>2 κομμάτα πίτσα</t>
+  </si>
+  <si>
+    <t>hell και μπουκαλάκι νερό</t>
+  </si>
+  <si>
+    <t>πίτσες και sprite στο Cosmos με Μποτσκαρίοφ team</t>
+  </si>
+  <si>
+    <t>3 μεγάλα νερά και 1 sprite</t>
   </si>
 </sst>
 </file>
@@ -2745,15 +2766,15 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2769,9 +2790,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J933" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J940" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
-    <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="10"/>
+    <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
     <tableColumn id="2" name="date" totalsRowDxfId="7"/>
     <tableColumn id="4" name="description" totalsRowDxfId="6"/>
@@ -3071,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L933"/>
+  <dimension ref="A1:L940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A915" workbookViewId="0">
-      <selection activeCell="A934" sqref="A934"/>
+    <sheetView tabSelected="1" topLeftCell="B930" workbookViewId="0">
+      <selection activeCell="I941" sqref="I941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30427,6 +30448,216 @@
         <v>640</v>
       </c>
     </row>
+    <row r="934" spans="1:10">
+      <c r="A934" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C934" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F934" s="1">
+        <v>5</v>
+      </c>
+      <c r="G934" s="1"/>
+      <c r="H934" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I934" s="1">
+        <v>932</v>
+      </c>
+      <c r="J934" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10">
+      <c r="A935" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C935" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F935" s="1">
+        <v>5</v>
+      </c>
+      <c r="G935" s="1"/>
+      <c r="H935" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I935" s="1">
+        <v>933</v>
+      </c>
+      <c r="J935" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10">
+      <c r="A936" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C936" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F936" s="1">
+        <v>5</v>
+      </c>
+      <c r="G936" s="1"/>
+      <c r="H936" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I936" s="1">
+        <v>934</v>
+      </c>
+      <c r="J936" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10">
+      <c r="A937" s="1">
+        <v>2</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C937" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F937" s="1">
+        <v>5</v>
+      </c>
+      <c r="G937" s="1"/>
+      <c r="H937" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I937" s="1">
+        <v>935</v>
+      </c>
+      <c r="J937" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10">
+      <c r="A938" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C938" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F938" s="1">
+        <v>5</v>
+      </c>
+      <c r="G938" s="1"/>
+      <c r="H938" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I938" s="1">
+        <v>936</v>
+      </c>
+      <c r="J938" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10">
+      <c r="A939" s="1">
+        <v>10</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C939" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F939" s="1">
+        <v>5</v>
+      </c>
+      <c r="G939" s="1"/>
+      <c r="H939" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I939" s="1">
+        <v>937</v>
+      </c>
+      <c r="J939" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10">
+      <c r="A940" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C940" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F940" s="1">
+        <v>5</v>
+      </c>
+      <c r="G940" s="1"/>
+      <c r="H940" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I940" s="1">
+        <v>938</v>
+      </c>
+      <c r="J940" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4716" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="881">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2642,6 +2642,21 @@
   </si>
   <si>
     <t>Larissa</t>
+  </si>
+  <si>
+    <t>χόρτα πατάτες και τυροκαυτερή</t>
+  </si>
+  <si>
+    <t>παγωτό oreo</t>
+  </si>
+  <si>
+    <t>κρασιά (+ Κώστα)</t>
+  </si>
+  <si>
+    <t>ταξί</t>
+  </si>
+  <si>
+    <t>παγωτό και ζελεδάκια</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2808,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J941" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J948" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3095,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L941"/>
+  <dimension ref="A1:L948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="B935" workbookViewId="0">
+      <selection activeCell="J949" sqref="J949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30691,6 +30706,216 @@
         <v>637</v>
       </c>
     </row>
+    <row r="942" spans="1:10">
+      <c r="A942" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C942" s="7">
+        <v>43632</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F942" s="1">
+        <v>5</v>
+      </c>
+      <c r="G942" s="1"/>
+      <c r="H942" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I942" s="1">
+        <v>940</v>
+      </c>
+      <c r="J942" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10">
+      <c r="A943" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C943" s="7">
+        <v>43632</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F943" s="1">
+        <v>5</v>
+      </c>
+      <c r="G943" s="1"/>
+      <c r="H943" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I943" s="1">
+        <v>941</v>
+      </c>
+      <c r="J943" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10">
+      <c r="A944" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C944" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F944" s="1">
+        <v>5</v>
+      </c>
+      <c r="G944" s="1"/>
+      <c r="H944" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I944" s="1">
+        <v>942</v>
+      </c>
+      <c r="J944" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10">
+      <c r="A945" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C945" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F945" s="1">
+        <v>4</v>
+      </c>
+      <c r="G945" s="1"/>
+      <c r="H945" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I945" s="1">
+        <v>943</v>
+      </c>
+      <c r="J945" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10">
+      <c r="A946" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C946" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F946" s="1">
+        <v>3</v>
+      </c>
+      <c r="G946" s="1"/>
+      <c r="H946" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I946" s="1">
+        <v>944</v>
+      </c>
+      <c r="J946" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10">
+      <c r="A947" s="1">
+        <v>44.95</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C947" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F947" s="1">
+        <v>5</v>
+      </c>
+      <c r="G947" s="1"/>
+      <c r="H947" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I947" s="1">
+        <v>945</v>
+      </c>
+      <c r="J947" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10">
+      <c r="A948" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C948" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F948" s="1">
+        <v>5</v>
+      </c>
+      <c r="G948" s="1"/>
+      <c r="H948" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I948" s="1">
+        <v>946</v>
+      </c>
+      <c r="J948" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="882">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2657,6 +2657,9 @@
   </si>
   <si>
     <t>παγωτό και ζελεδάκια</t>
+  </si>
+  <si>
+    <t>fredduccino με Κονη και Φωτεινή</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +2811,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J948" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J952" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3110,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L948"/>
+  <dimension ref="A1:L952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B935" workbookViewId="0">
-      <selection activeCell="J949" sqref="J949"/>
+    <sheetView tabSelected="1" topLeftCell="B931" workbookViewId="0">
+      <selection activeCell="J953" sqref="J953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30916,6 +30919,126 @@
         <v>637</v>
       </c>
     </row>
+    <row r="949" spans="1:10">
+      <c r="A949" s="1">
+        <v>2</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C949" s="7">
+        <v>43634</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F949" s="1">
+        <v>5</v>
+      </c>
+      <c r="G949" s="1"/>
+      <c r="H949" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I949" s="1">
+        <v>947</v>
+      </c>
+      <c r="J949" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10">
+      <c r="A950" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C950" s="7">
+        <v>43634</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F950" s="1">
+        <v>4</v>
+      </c>
+      <c r="G950" s="1"/>
+      <c r="H950" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I950" s="1">
+        <v>948</v>
+      </c>
+      <c r="J950" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
+      <c r="A951" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C951" s="7">
+        <v>43634</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F951" s="1">
+        <v>5</v>
+      </c>
+      <c r="G951" s="1"/>
+      <c r="H951" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I951" s="1">
+        <v>949</v>
+      </c>
+      <c r="J951" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10">
+      <c r="A952" s="1">
+        <v>7</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C952" s="7">
+        <v>43634</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F952" s="1">
+        <v>5</v>
+      </c>
+      <c r="G952" s="1"/>
+      <c r="H952" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I952" s="1">
+        <v>950</v>
+      </c>
+      <c r="J952" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -3115,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B931" workbookViewId="0">
-      <selection activeCell="J953" sqref="J953"/>
+    <sheetView tabSelected="1" topLeftCell="B487" workbookViewId="0">
+      <selection activeCell="J487" sqref="J487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17770,7 +17770,7 @@
         <v>502</v>
       </c>
       <c r="J504" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -17800,7 +17800,7 @@
         <v>503</v>
       </c>
       <c r="J505" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -17829,7 +17829,7 @@
         <v>504</v>
       </c>
       <c r="J506" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="507" spans="1:10">
@@ -17858,7 +17858,7 @@
         <v>505</v>
       </c>
       <c r="J507" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -17887,7 +17887,7 @@
         <v>506</v>
       </c>
       <c r="J508" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="509" spans="1:10">
@@ -17916,7 +17916,7 @@
         <v>507</v>
       </c>
       <c r="J509" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="510" spans="1:10">
@@ -17945,7 +17945,7 @@
         <v>508</v>
       </c>
       <c r="J510" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="511" spans="1:10">
@@ -17975,7 +17975,7 @@
         <v>509</v>
       </c>
       <c r="J511" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="512" spans="1:10">
@@ -18004,7 +18004,7 @@
         <v>510</v>
       </c>
       <c r="J512" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="513" spans="1:10">
@@ -18033,7 +18033,7 @@
         <v>511</v>
       </c>
       <c r="J513" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="514" spans="1:10">
@@ -18062,7 +18062,7 @@
         <v>512</v>
       </c>
       <c r="J514" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -18091,7 +18091,7 @@
         <v>513</v>
       </c>
       <c r="J515" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -18120,7 +18120,7 @@
         <v>514</v>
       </c>
       <c r="J516" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -18149,7 +18149,7 @@
         <v>515</v>
       </c>
       <c r="J517" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -18178,7 +18178,7 @@
         <v>516</v>
       </c>
       <c r="J518" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -18207,7 +18207,7 @@
         <v>517</v>
       </c>
       <c r="J519" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="520" spans="1:10">
@@ -18236,7 +18236,7 @@
         <v>518</v>
       </c>
       <c r="J520" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -18265,7 +18265,7 @@
         <v>519</v>
       </c>
       <c r="J521" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -18294,7 +18294,7 @@
         <v>520</v>
       </c>
       <c r="J522" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="523" spans="1:10">
@@ -18323,7 +18323,7 @@
         <v>521</v>
       </c>
       <c r="J523" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="524" spans="1:10">
@@ -18353,7 +18353,7 @@
         <v>522</v>
       </c>
       <c r="J524" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="525" spans="1:10">
@@ -18382,7 +18382,7 @@
         <v>523</v>
       </c>
       <c r="J525" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -18411,7 +18411,7 @@
         <v>524</v>
       </c>
       <c r="J526" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -18440,7 +18440,7 @@
         <v>525</v>
       </c>
       <c r="J527" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -18469,7 +18469,7 @@
         <v>526</v>
       </c>
       <c r="J528" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="529" spans="1:10">
@@ -18498,7 +18498,7 @@
         <v>527</v>
       </c>
       <c r="J529" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -18527,7 +18527,7 @@
         <v>528</v>
       </c>
       <c r="J530" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -18556,7 +18556,7 @@
         <v>529</v>
       </c>
       <c r="J531" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -18585,7 +18585,7 @@
         <v>530</v>
       </c>
       <c r="J532" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="533" spans="1:10">
@@ -18614,7 +18614,7 @@
         <v>531</v>
       </c>
       <c r="J533" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="534" spans="1:10">
@@ -18643,7 +18643,7 @@
         <v>532</v>
       </c>
       <c r="J534" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -18672,7 +18672,7 @@
         <v>533</v>
       </c>
       <c r="J535" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -18701,7 +18701,7 @@
         <v>534</v>
       </c>
       <c r="J536" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -18730,7 +18730,7 @@
         <v>535</v>
       </c>
       <c r="J537" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -18759,7 +18759,7 @@
         <v>536</v>
       </c>
       <c r="J538" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="539" spans="1:10">
@@ -18788,7 +18788,7 @@
         <v>537</v>
       </c>
       <c r="J539" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -18817,7 +18817,7 @@
         <v>538</v>
       </c>
       <c r="J540" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="541" spans="1:10">
@@ -18875,7 +18875,7 @@
         <v>540</v>
       </c>
       <c r="J542" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -18905,7 +18905,7 @@
         <v>541</v>
       </c>
       <c r="J543" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -18935,7 +18935,7 @@
         <v>542</v>
       </c>
       <c r="J544" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -18965,7 +18965,7 @@
         <v>543</v>
       </c>
       <c r="J545" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -18995,7 +18995,7 @@
         <v>544</v>
       </c>
       <c r="J546" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="547" spans="1:10">
@@ -19053,7 +19053,7 @@
         <v>546</v>
       </c>
       <c r="J548" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -19082,7 +19082,7 @@
         <v>547</v>
       </c>
       <c r="J549" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -19111,7 +19111,7 @@
         <v>548</v>
       </c>
       <c r="J550" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -19140,7 +19140,7 @@
         <v>549</v>
       </c>
       <c r="J551" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -19169,7 +19169,7 @@
         <v>550</v>
       </c>
       <c r="J552" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -19198,7 +19198,7 @@
         <v>551</v>
       </c>
       <c r="J553" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -19227,7 +19227,7 @@
         <v>552</v>
       </c>
       <c r="J554" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -19256,7 +19256,7 @@
         <v>553</v>
       </c>
       <c r="J555" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="556" spans="1:10">
@@ -19285,7 +19285,7 @@
         <v>554</v>
       </c>
       <c r="J556" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="557" spans="1:10">
@@ -19314,7 +19314,7 @@
         <v>555</v>
       </c>
       <c r="J557" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="558" spans="1:10">
@@ -19343,7 +19343,7 @@
         <v>556</v>
       </c>
       <c r="J558" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="559" spans="1:10">
@@ -19372,7 +19372,7 @@
         <v>557</v>
       </c>
       <c r="J559" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -19401,7 +19401,7 @@
         <v>558</v>
       </c>
       <c r="J560" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="561" spans="1:10">
@@ -19430,7 +19430,7 @@
         <v>559</v>
       </c>
       <c r="J561" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="562" spans="1:10">
@@ -19459,7 +19459,7 @@
         <v>560</v>
       </c>
       <c r="J562" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="563" spans="1:10">
@@ -19488,7 +19488,7 @@
         <v>561</v>
       </c>
       <c r="J563" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="564" spans="1:10">
@@ -19517,7 +19517,7 @@
         <v>562</v>
       </c>
       <c r="J564" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -19546,7 +19546,7 @@
         <v>563</v>
       </c>
       <c r="J565" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -19575,7 +19575,7 @@
         <v>564</v>
       </c>
       <c r="J566" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -19604,7 +19604,7 @@
         <v>565</v>
       </c>
       <c r="J567" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -19633,7 +19633,7 @@
         <v>566</v>
       </c>
       <c r="J568" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -19662,7 +19662,7 @@
         <v>567</v>
       </c>
       <c r="J569" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="570" spans="1:10">
@@ -19691,7 +19691,7 @@
         <v>568</v>
       </c>
       <c r="J570" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="571" spans="1:10">
@@ -19720,7 +19720,7 @@
         <v>569</v>
       </c>
       <c r="J571" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="572" spans="1:10">
@@ -19749,7 +19749,7 @@
         <v>570</v>
       </c>
       <c r="J572" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="573" spans="1:10">
@@ -19778,7 +19778,7 @@
         <v>571</v>
       </c>
       <c r="J573" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -19807,7 +19807,7 @@
         <v>572</v>
       </c>
       <c r="J574" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -19836,7 +19836,7 @@
         <v>573</v>
       </c>
       <c r="J575" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -19865,7 +19865,7 @@
         <v>574</v>
       </c>
       <c r="J576" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="577" spans="1:10">
@@ -19894,7 +19894,7 @@
         <v>575</v>
       </c>
       <c r="J577" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="578" spans="1:10">

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="886">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2660,6 +2660,18 @@
   </si>
   <si>
     <t>fredduccino με Κονη και Φωτεινή</t>
+  </si>
+  <si>
+    <t>(+ powerade Μπαρλή, + νερό  Μιχαλη)</t>
+  </si>
+  <si>
+    <t>2 οικολογικά σουβλάκια</t>
+  </si>
+  <si>
+    <t>γρανίτα καρπούζι και νερό</t>
+  </si>
+  <si>
+    <t>Kavouri</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2823,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J952" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J956" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3113,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L952"/>
+  <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B487" workbookViewId="0">
-      <selection activeCell="J487" sqref="J487"/>
+    <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
+      <selection activeCell="A957" sqref="A957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31011,13 +31023,13 @@
     </row>
     <row r="952" spans="1:10">
       <c r="A952" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C952" s="7">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>766</v>
@@ -31036,6 +31048,126 @@
         <v>950</v>
       </c>
       <c r="J952" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10">
+      <c r="A953" s="1">
+        <v>3</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C953" s="7">
+        <v>43635</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F953" s="1">
+        <v>4</v>
+      </c>
+      <c r="G953" s="1"/>
+      <c r="H953" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I953" s="1">
+        <v>951</v>
+      </c>
+      <c r="J953" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10">
+      <c r="A954" s="1">
+        <v>3</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C954" s="7">
+        <v>43637</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F954" s="1">
+        <v>3</v>
+      </c>
+      <c r="G954" s="1"/>
+      <c r="H954" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I954" s="1">
+        <v>952</v>
+      </c>
+      <c r="J954" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10">
+      <c r="A955" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C955" s="7">
+        <v>43638</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F955" s="1">
+        <v>5</v>
+      </c>
+      <c r="G955" s="1"/>
+      <c r="H955" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I955" s="1">
+        <v>953</v>
+      </c>
+      <c r="J955" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956" s="1">
+        <v>5</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C956" s="7">
+        <v>43639</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F956" s="1">
+        <v>4</v>
+      </c>
+      <c r="G956" s="1"/>
+      <c r="H956" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="I956" s="1">
+        <v>954</v>
+      </c>
+      <c r="J956" s="1" t="s">
         <v>637</v>
       </c>
     </row>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="887">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2672,6 +2672,9 @@
   </si>
   <si>
     <t>Kavouri</t>
+  </si>
+  <si>
+    <t>μπύρα, πατατάκια και τσίχλα</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2826,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J956" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J958" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3125,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L956"/>
+  <dimension ref="A1:L958"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
-      <selection activeCell="A957" sqref="A957"/>
+      <selection activeCell="A959" sqref="A959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31171,6 +31174,66 @@
         <v>637</v>
       </c>
     </row>
+    <row r="957" spans="1:10">
+      <c r="A957" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C957" s="7">
+        <v>43639</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F957" s="1">
+        <v>3</v>
+      </c>
+      <c r="G957" s="1"/>
+      <c r="H957" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I957" s="1">
+        <v>955</v>
+      </c>
+      <c r="J957" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C958" s="7">
+        <v>43639</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F958" s="1">
+        <v>4</v>
+      </c>
+      <c r="G958" s="1"/>
+      <c r="H958" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I958" s="1">
+        <v>956</v>
+      </c>
+      <c r="J958" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="892">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2675,6 +2675,21 @@
   </si>
   <si>
     <t>μπύρα, πατατάκια και τσίχλα</t>
+  </si>
+  <si>
+    <t>μπύρα radler (+ fredo espresso Κατερίνας)</t>
+  </si>
+  <si>
+    <t>coffee island</t>
+  </si>
+  <si>
+    <t>cd για την εργασία</t>
+  </si>
+  <si>
+    <t>κουλούρια</t>
+  </si>
+  <si>
+    <t>κρύα σοκολάτα</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2841,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J958" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J964" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3128,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L958"/>
+  <dimension ref="A1:L964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
-      <selection activeCell="A959" sqref="A959"/>
+    <sheetView tabSelected="1" topLeftCell="B942" workbookViewId="0">
+      <selection activeCell="J965" sqref="J965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31234,6 +31249,186 @@
         <v>637</v>
       </c>
     </row>
+    <row r="959" spans="1:10">
+      <c r="A959" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C959" s="7">
+        <v>43640</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F959" s="1">
+        <v>4</v>
+      </c>
+      <c r="G959" s="1"/>
+      <c r="H959" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I959" s="1">
+        <v>957</v>
+      </c>
+      <c r="J959" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10">
+      <c r="A960" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C960" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F960" s="1">
+        <v>5</v>
+      </c>
+      <c r="G960" s="1"/>
+      <c r="H960" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I960" s="1">
+        <v>958</v>
+      </c>
+      <c r="J960" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C961" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F961" s="1">
+        <v>4</v>
+      </c>
+      <c r="G961" s="1"/>
+      <c r="H961" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I961" s="1">
+        <v>959</v>
+      </c>
+      <c r="J961" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C962" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F962" s="1">
+        <v>4</v>
+      </c>
+      <c r="G962" s="1"/>
+      <c r="H962" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I962" s="1">
+        <v>960</v>
+      </c>
+      <c r="J962" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963" s="1">
+        <v>2</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C963" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F963" s="1">
+        <v>4</v>
+      </c>
+      <c r="G963" s="1"/>
+      <c r="H963" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I963" s="1">
+        <v>961</v>
+      </c>
+      <c r="J963" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C964" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F964" s="1">
+        <v>5</v>
+      </c>
+      <c r="G964" s="1"/>
+      <c r="H964" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I964" s="1">
+        <v>962</v>
+      </c>
+      <c r="J964" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="897">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2689,7 +2689,22 @@
     <t>κουλούρια</t>
   </si>
   <si>
-    <t>κρύα σοκολάτα</t>
+    <t>κρύα σοκολάτα πατατάκια και osphee (+  freddo και νερό σασαρη)</t>
+  </si>
+  <si>
+    <t>bowling με Σασαρη και Μιχάλη</t>
+  </si>
+  <si>
+    <t>pancake Jojo στο Μπουρνάζι</t>
+  </si>
+  <si>
+    <t>ζελεδάκια κρουασαν champion και pizzetti</t>
+  </si>
+  <si>
+    <t>μισό μισό Osphee</t>
+  </si>
+  <si>
+    <t>παγωτό sadwich</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2856,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J964" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J972" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3143,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L964"/>
+  <dimension ref="A1:L972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B942" workbookViewId="0">
-      <selection activeCell="J965" sqref="J965"/>
+    <sheetView tabSelected="1" topLeftCell="B954" workbookViewId="0">
+      <selection activeCell="J973" sqref="J973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31401,7 +31416,7 @@
     </row>
     <row r="964" spans="1:10">
       <c r="A964" s="1">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>207</v>
@@ -31427,6 +31442,246 @@
       </c>
       <c r="J964" s="1" t="s">
         <v>639</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
+      <c r="A965" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C965" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F965" s="1">
+        <v>5</v>
+      </c>
+      <c r="G965" s="1"/>
+      <c r="H965" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I965" s="1">
+        <v>963</v>
+      </c>
+      <c r="J965" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
+      <c r="A966" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C966" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F966" s="1">
+        <v>5</v>
+      </c>
+      <c r="G966" s="1"/>
+      <c r="H966" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I966" s="1">
+        <v>964</v>
+      </c>
+      <c r="J966" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967" s="1">
+        <v>9</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C967" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F967" s="1">
+        <v>5</v>
+      </c>
+      <c r="G967" s="1"/>
+      <c r="H967" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I967" s="1">
+        <v>965</v>
+      </c>
+      <c r="J967" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
+      <c r="A968" s="1">
+        <v>7</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C968" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F968" s="1">
+        <v>5</v>
+      </c>
+      <c r="G968" s="1"/>
+      <c r="H968" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I968" s="1">
+        <v>966</v>
+      </c>
+      <c r="J968" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
+      <c r="A969" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C969" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F969" s="1">
+        <v>5</v>
+      </c>
+      <c r="G969" s="1"/>
+      <c r="H969" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I969" s="1">
+        <v>967</v>
+      </c>
+      <c r="J969" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
+      <c r="A970" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C970" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F970" s="1">
+        <v>5</v>
+      </c>
+      <c r="G970" s="1"/>
+      <c r="H970" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I970" s="1">
+        <v>968</v>
+      </c>
+      <c r="J970" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
+      <c r="A971" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C971" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F971" s="1">
+        <v>5</v>
+      </c>
+      <c r="G971" s="1"/>
+      <c r="H971" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I971" s="1">
+        <v>969</v>
+      </c>
+      <c r="J971" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
+      <c r="A972" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C972" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F972" s="1">
+        <v>5</v>
+      </c>
+      <c r="G972" s="1"/>
+      <c r="H972" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I972" s="1">
+        <v>970</v>
+      </c>
+      <c r="J972" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4936" uniqueCount="907">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2705,6 +2705,36 @@
   </si>
   <si>
     <t>παγωτό sadwich</t>
+  </si>
+  <si>
+    <t>μιλφέι με Κώστα στο Αττικόν</t>
+  </si>
+  <si>
+    <t>(+ αραβική με κοτόπουλο Μιχάλη)</t>
+  </si>
+  <si>
+    <t>πρωϊνό στο Αττικόν</t>
+  </si>
+  <si>
+    <t>2 hell</t>
+  </si>
+  <si>
+    <t>Meteora</t>
+  </si>
+  <si>
+    <t>καφέ και Capice</t>
+  </si>
+  <si>
+    <t>πατατάκια και amaretti</t>
+  </si>
+  <si>
+    <t>βυσινάδα</t>
+  </si>
+  <si>
+    <t>πρωϊνό από το Σεραϊκόν στον Άλιμο ( + Κωνσταντίνας)</t>
+  </si>
+  <si>
+    <t>Alimos</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2886,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J972" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J985" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3158,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L972"/>
+  <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B954" workbookViewId="0">
-      <selection activeCell="J973" sqref="J973"/>
+    <sheetView tabSelected="1" topLeftCell="B982" workbookViewId="0">
+      <selection activeCell="J986" sqref="J986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31684,6 +31714,394 @@
         <v>637</v>
       </c>
     </row>
+    <row r="973" spans="1:10">
+      <c r="A973" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C973" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F973" s="1">
+        <v>5</v>
+      </c>
+      <c r="G973" s="1"/>
+      <c r="H973" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I973" s="1">
+        <v>971</v>
+      </c>
+      <c r="J973" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974" s="1">
+        <v>10</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C974" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F974" s="1">
+        <v>5</v>
+      </c>
+      <c r="G974" s="1"/>
+      <c r="H974" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I974" s="1">
+        <v>972</v>
+      </c>
+      <c r="J974" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C975" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F975" s="1">
+        <v>5</v>
+      </c>
+      <c r="G975" s="1"/>
+      <c r="H975" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I975" s="1">
+        <v>973</v>
+      </c>
+      <c r="J975" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976">
+        <v>2</v>
+      </c>
+      <c r="B976" t="s">
+        <v>207</v>
+      </c>
+      <c r="C976" s="2">
+        <v>43646</v>
+      </c>
+      <c r="D976" t="s">
+        <v>900</v>
+      </c>
+      <c r="E976" t="s">
+        <v>220</v>
+      </c>
+      <c r="F976">
+        <v>5</v>
+      </c>
+      <c r="H976" t="s">
+        <v>875</v>
+      </c>
+      <c r="I976" s="1">
+        <v>974</v>
+      </c>
+      <c r="J976" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10">
+      <c r="A977" s="1">
+        <v>9</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C977" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F977" s="1">
+        <v>5</v>
+      </c>
+      <c r="G977" s="1"/>
+      <c r="H977" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I977" s="1">
+        <v>975</v>
+      </c>
+      <c r="J977" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10">
+      <c r="A978" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C978" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F978" s="1">
+        <v>5</v>
+      </c>
+      <c r="G978" s="1"/>
+      <c r="H978" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="I978" s="1">
+        <v>976</v>
+      </c>
+      <c r="J978" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10">
+      <c r="A979" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C979" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F979" s="1">
+        <v>5</v>
+      </c>
+      <c r="G979" s="1"/>
+      <c r="H979" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="I979" s="1">
+        <v>977</v>
+      </c>
+      <c r="J979" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10">
+      <c r="A980" s="1">
+        <v>10</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C980" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F980" s="1">
+        <v>5</v>
+      </c>
+      <c r="G980" s="1"/>
+      <c r="H980" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="I980" s="1">
+        <v>978</v>
+      </c>
+      <c r="J980" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10">
+      <c r="A981" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C981" s="7">
+        <v>43648</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F981" s="1">
+        <v>5</v>
+      </c>
+      <c r="G981" s="1"/>
+      <c r="H981" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="I981" s="1">
+        <v>979</v>
+      </c>
+      <c r="J981" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10">
+      <c r="A982">
+        <v>3.2</v>
+      </c>
+      <c r="B982" t="s">
+        <v>207</v>
+      </c>
+      <c r="C982" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D982" t="s">
+        <v>903</v>
+      </c>
+      <c r="E982" t="s">
+        <v>220</v>
+      </c>
+      <c r="F982">
+        <v>5</v>
+      </c>
+      <c r="H982" t="s">
+        <v>901</v>
+      </c>
+      <c r="I982" s="1">
+        <v>980</v>
+      </c>
+      <c r="J982" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="983" spans="1:10">
+      <c r="A983" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C983" s="7">
+        <v>43649</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F983" s="1">
+        <v>5</v>
+      </c>
+      <c r="G983" s="1"/>
+      <c r="H983" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I983" s="1">
+        <v>981</v>
+      </c>
+      <c r="J983" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="984" spans="1:10">
+      <c r="A984" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C984" s="7">
+        <v>43649</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F984" s="1">
+        <v>5</v>
+      </c>
+      <c r="G984" s="1"/>
+      <c r="H984" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I984" s="1">
+        <v>982</v>
+      </c>
+      <c r="J984" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="985" spans="1:10">
+      <c r="A985" s="1">
+        <v>5</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C985" s="7">
+        <v>43650</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F985" s="1">
+        <v>5</v>
+      </c>
+      <c r="G985" s="1"/>
+      <c r="H985" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="I985" s="1">
+        <v>983</v>
+      </c>
+      <c r="J985" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4936" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="924">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2735,6 +2735,57 @@
   </si>
   <si>
     <t>Alimos</t>
+  </si>
+  <si>
+    <t>στρίφωμα για το παντελόνι που μου πήρε η Μανούλα</t>
+  </si>
+  <si>
+    <t>ASC colostrum</t>
+  </si>
+  <si>
+    <t>φασόλια κονσέρβα str8 και ice tea φακελάκια</t>
+  </si>
+  <si>
+    <t>τυρόπιτα και κρουασάν σοκολάτας στο Απολλώνιον</t>
+  </si>
+  <si>
+    <t>6αδα νερά από τον Κρητικό</t>
+  </si>
+  <si>
+    <t>μπύρα με Καλλιοτζίδια στον καφενέ</t>
+  </si>
+  <si>
+    <t>amarretti από την Δέγλερη</t>
+  </si>
+  <si>
+    <t>κουλούρι με ελία και ντομάτα</t>
+  </si>
+  <si>
+    <t>coca-cola</t>
+  </si>
+  <si>
+    <t>σερμπετόσπιτο με Καρβουνίδη</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea και πεϊνιρλί </t>
+  </si>
+  <si>
+    <t>vegan burger με καλλιοτζιδια στα simply</t>
+  </si>
+  <si>
+    <t>διόδια για να πάω στην Καρβουνίδη</t>
+  </si>
+  <si>
+    <t>μπύρες πατατάκια caprice (+ καρβουνίδη)</t>
+  </si>
+  <si>
+    <t>Dionyssos</t>
+  </si>
+  <si>
+    <t>φρουτοσαλάτα με παγωτό στο Άλσος με Αντώνη</t>
+  </si>
+  <si>
+    <t>ζελεδάκια</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +2937,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J985" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1005" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3188,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L985"/>
+  <dimension ref="A1:L1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B982" workbookViewId="0">
-      <selection activeCell="J986" sqref="J986"/>
+    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="A1006" sqref="A1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32102,6 +32153,532 @@
         <v>637</v>
       </c>
     </row>
+    <row r="986" spans="1:10">
+      <c r="A986" s="1">
+        <v>5</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C986" s="7">
+        <v>43651</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F986" s="1">
+        <v>5</v>
+      </c>
+      <c r="G986" s="1"/>
+      <c r="H986" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I986" s="1"/>
+      <c r="J986" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="987" spans="1:10">
+      <c r="A987">
+        <v>71.98</v>
+      </c>
+      <c r="B987" t="s">
+        <v>322</v>
+      </c>
+      <c r="C987" s="2">
+        <v>43652</v>
+      </c>
+      <c r="D987" t="s">
+        <v>908</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F987">
+        <v>5</v>
+      </c>
+      <c r="H987" t="s">
+        <v>224</v>
+      </c>
+      <c r="J987" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="988" spans="1:10">
+      <c r="A988">
+        <v>5.95</v>
+      </c>
+      <c r="B988" t="s">
+        <v>207</v>
+      </c>
+      <c r="C988" s="2">
+        <v>43652</v>
+      </c>
+      <c r="D988" t="s">
+        <v>909</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F988">
+        <v>5</v>
+      </c>
+      <c r="H988" t="s">
+        <v>224</v>
+      </c>
+      <c r="J988" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="989" spans="1:10">
+      <c r="A989">
+        <v>0.99</v>
+      </c>
+      <c r="B989" t="s">
+        <v>207</v>
+      </c>
+      <c r="C989" s="2">
+        <v>43652</v>
+      </c>
+      <c r="D989" t="s">
+        <v>911</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F989">
+        <v>4</v>
+      </c>
+      <c r="H989" t="s">
+        <v>224</v>
+      </c>
+      <c r="J989" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10">
+      <c r="A990">
+        <v>3.4</v>
+      </c>
+      <c r="B990" t="s">
+        <v>207</v>
+      </c>
+      <c r="C990" s="2"/>
+      <c r="D990" t="s">
+        <v>910</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F990">
+        <v>5</v>
+      </c>
+      <c r="H990" t="s">
+        <v>371</v>
+      </c>
+      <c r="J990" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="991" spans="1:10">
+      <c r="A991">
+        <v>3</v>
+      </c>
+      <c r="B991" t="s">
+        <v>207</v>
+      </c>
+      <c r="C991" s="2">
+        <v>43653</v>
+      </c>
+      <c r="D991" t="s">
+        <v>912</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F991">
+        <v>5</v>
+      </c>
+      <c r="H991" t="s">
+        <v>399</v>
+      </c>
+      <c r="J991" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="992" spans="1:10">
+      <c r="A992">
+        <v>1.5</v>
+      </c>
+      <c r="B992" t="s">
+        <v>207</v>
+      </c>
+      <c r="C992" s="2">
+        <v>43653</v>
+      </c>
+      <c r="D992" t="s">
+        <v>913</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F992">
+        <v>5</v>
+      </c>
+      <c r="H992" t="s">
+        <v>224</v>
+      </c>
+      <c r="J992" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10">
+      <c r="A993">
+        <v>1.8</v>
+      </c>
+      <c r="B993" t="s">
+        <v>207</v>
+      </c>
+      <c r="C993" s="2">
+        <v>43654</v>
+      </c>
+      <c r="D993" t="s">
+        <v>914</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F993">
+        <v>4</v>
+      </c>
+      <c r="H993" t="s">
+        <v>231</v>
+      </c>
+      <c r="J993" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10">
+      <c r="A994">
+        <v>1.2</v>
+      </c>
+      <c r="B994" t="s">
+        <v>207</v>
+      </c>
+      <c r="C994" s="2">
+        <v>43654</v>
+      </c>
+      <c r="D994" t="s">
+        <v>915</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F994">
+        <v>4</v>
+      </c>
+      <c r="H994" t="s">
+        <v>231</v>
+      </c>
+      <c r="J994" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="995" spans="1:10">
+      <c r="A995">
+        <v>7</v>
+      </c>
+      <c r="B995" t="s">
+        <v>207</v>
+      </c>
+      <c r="C995" s="2">
+        <v>43654</v>
+      </c>
+      <c r="D995" t="s">
+        <v>916</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F995">
+        <v>5</v>
+      </c>
+      <c r="H995" t="s">
+        <v>229</v>
+      </c>
+      <c r="J995" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10">
+      <c r="A996">
+        <v>45.13</v>
+      </c>
+      <c r="B996" t="s">
+        <v>328</v>
+      </c>
+      <c r="C996" s="2">
+        <v>43655</v>
+      </c>
+      <c r="D996" t="s">
+        <v>772</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F996">
+        <v>5</v>
+      </c>
+      <c r="H996" t="s">
+        <v>224</v>
+      </c>
+      <c r="J996" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10">
+      <c r="A997">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B997" t="s">
+        <v>207</v>
+      </c>
+      <c r="C997" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D997" t="s">
+        <v>917</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F997">
+        <v>5</v>
+      </c>
+      <c r="H997" t="s">
+        <v>231</v>
+      </c>
+      <c r="J997" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10">
+      <c r="A998">
+        <v>1</v>
+      </c>
+      <c r="B998" t="s">
+        <v>207</v>
+      </c>
+      <c r="C998" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D998" t="s">
+        <v>337</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F998">
+        <v>5</v>
+      </c>
+      <c r="H998" t="s">
+        <v>231</v>
+      </c>
+      <c r="J998" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10">
+      <c r="A999">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B999" t="s">
+        <v>207</v>
+      </c>
+      <c r="C999" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D999" t="s">
+        <v>918</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F999">
+        <v>5</v>
+      </c>
+      <c r="H999" t="s">
+        <v>255</v>
+      </c>
+      <c r="J999" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10">
+      <c r="A1000">
+        <v>3.5</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1000">
+        <v>5</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10">
+      <c r="A1001">
+        <v>10</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1001">
+        <v>5</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10">
+      <c r="A1002">
+        <v>2.8</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1002" s="2">
+        <v>43659</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>919</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1002">
+        <v>5</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10">
+      <c r="A1003" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1003" s="2">
+        <v>43659</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10">
+      <c r="A1004" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1004" s="2">
+        <v>43660</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1004" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10">
+      <c r="A1005" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1005" s="7">
+        <v>43660</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="927">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2786,6 +2786,15 @@
   </si>
   <si>
     <t>ζελεδάκια</t>
+  </si>
+  <si>
+    <t>pancake με σοκολάτα στο apolis με Μιχάλη και Χαρά</t>
+  </si>
+  <si>
+    <t>vegeterian burger και νερό</t>
+  </si>
+  <si>
+    <t>`18/7/2019</t>
   </si>
 </sst>
 </file>
@@ -2937,7 +2946,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1005" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1012" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3239,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1005"/>
+  <dimension ref="A1:L1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1006" sqref="A1006"/>
+    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
+      <selection activeCell="A1013" sqref="A1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32176,7 +32185,9 @@
       <c r="H986" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I986" s="1"/>
+      <c r="I986" s="1">
+        <v>984</v>
+      </c>
       <c r="J986" s="1" t="s">
         <v>639</v>
       </c>
@@ -32203,6 +32214,9 @@
       <c r="H987" t="s">
         <v>224</v>
       </c>
+      <c r="I987" s="1">
+        <v>985</v>
+      </c>
       <c r="J987" t="s">
         <v>639</v>
       </c>
@@ -32229,6 +32243,9 @@
       <c r="H988" t="s">
         <v>224</v>
       </c>
+      <c r="I988" s="1">
+        <v>986</v>
+      </c>
       <c r="J988" t="s">
         <v>639</v>
       </c>
@@ -32255,6 +32272,9 @@
       <c r="H989" t="s">
         <v>224</v>
       </c>
+      <c r="I989" s="1">
+        <v>987</v>
+      </c>
       <c r="J989" t="s">
         <v>639</v>
       </c>
@@ -32279,6 +32299,9 @@
       <c r="H990" t="s">
         <v>371</v>
       </c>
+      <c r="I990" s="1">
+        <v>988</v>
+      </c>
       <c r="J990" t="s">
         <v>639</v>
       </c>
@@ -32305,6 +32328,9 @@
       <c r="H991" t="s">
         <v>399</v>
       </c>
+      <c r="I991" s="1">
+        <v>989</v>
+      </c>
       <c r="J991" t="s">
         <v>637</v>
       </c>
@@ -32331,6 +32357,9 @@
       <c r="H992" t="s">
         <v>224</v>
       </c>
+      <c r="I992" s="1">
+        <v>990</v>
+      </c>
       <c r="J992" t="s">
         <v>637</v>
       </c>
@@ -32357,6 +32386,9 @@
       <c r="H993" t="s">
         <v>231</v>
       </c>
+      <c r="I993" s="1">
+        <v>991</v>
+      </c>
       <c r="J993" t="s">
         <v>637</v>
       </c>
@@ -32383,6 +32415,9 @@
       <c r="H994" t="s">
         <v>231</v>
       </c>
+      <c r="I994" s="1">
+        <v>992</v>
+      </c>
       <c r="J994" t="s">
         <v>637</v>
       </c>
@@ -32409,6 +32444,9 @@
       <c r="H995" t="s">
         <v>229</v>
       </c>
+      <c r="I995" s="1">
+        <v>993</v>
+      </c>
       <c r="J995" t="s">
         <v>637</v>
       </c>
@@ -32435,6 +32473,9 @@
       <c r="H996" t="s">
         <v>224</v>
       </c>
+      <c r="I996" s="1">
+        <v>994</v>
+      </c>
       <c r="J996" t="s">
         <v>646</v>
       </c>
@@ -32461,6 +32502,9 @@
       <c r="H997" t="s">
         <v>231</v>
       </c>
+      <c r="I997" s="1">
+        <v>995</v>
+      </c>
       <c r="J997" t="s">
         <v>637</v>
       </c>
@@ -32487,6 +32531,9 @@
       <c r="H998" t="s">
         <v>231</v>
       </c>
+      <c r="I998" s="1">
+        <v>996</v>
+      </c>
       <c r="J998" t="s">
         <v>637</v>
       </c>
@@ -32513,6 +32560,9 @@
       <c r="H999" t="s">
         <v>255</v>
       </c>
+      <c r="I999" s="1">
+        <v>997</v>
+      </c>
       <c r="J999" t="s">
         <v>637</v>
       </c>
@@ -32539,6 +32589,9 @@
       <c r="H1000" t="s">
         <v>224</v>
       </c>
+      <c r="I1000" s="1">
+        <v>998</v>
+      </c>
       <c r="J1000" t="s">
         <v>637</v>
       </c>
@@ -32565,6 +32618,9 @@
       <c r="H1001" t="s">
         <v>224</v>
       </c>
+      <c r="I1001" s="1">
+        <v>999</v>
+      </c>
       <c r="J1001" t="s">
         <v>637</v>
       </c>
@@ -32591,6 +32647,9 @@
       <c r="H1002" t="s">
         <v>227</v>
       </c>
+      <c r="I1002" s="1">
+        <v>1000</v>
+      </c>
       <c r="J1002" t="s">
         <v>637</v>
       </c>
@@ -32618,7 +32677,9 @@
       <c r="H1003" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="I1003" s="1"/>
+      <c r="I1003" s="1">
+        <v>1001</v>
+      </c>
       <c r="J1003" s="1" t="s">
         <v>637</v>
       </c>
@@ -32646,7 +32707,9 @@
       <c r="H1004" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1004" s="1"/>
+      <c r="I1004" s="1">
+        <v>1002</v>
+      </c>
       <c r="J1004" s="1" t="s">
         <v>637</v>
       </c>
@@ -32674,9 +32737,215 @@
       <c r="H1005" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1005" s="1"/>
+      <c r="I1005" s="1">
+        <v>1003</v>
+      </c>
       <c r="J1005" s="1" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10">
+      <c r="A1006" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1006" s="7">
+        <v>43661</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1006" s="1">
+        <v>1004</v>
+      </c>
+      <c r="J1006" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10">
+      <c r="A1007">
+        <v>6.7</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1007">
+        <v>4</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1007" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10">
+      <c r="A1008">
+        <v>2.5</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1008" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1008">
+        <v>4</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1008" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10">
+      <c r="A1009">
+        <v>0.1</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1009" s="2">
+        <v>43663</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1009">
+        <v>4</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1009" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10">
+      <c r="A1010">
+        <v>1</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1010" s="2">
+        <v>43664</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1010">
+        <v>4</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1010" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10">
+      <c r="A1011">
+        <v>1.9</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1011">
+        <v>4</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1011" s="1">
+        <v>1009</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:10">
+      <c r="A1012">
+        <v>15</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1012" s="2">
+        <v>43665</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1012">
+        <v>4</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1012" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="933">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2795,6 +2795,24 @@
   </si>
   <si>
     <t>`18/7/2019</t>
+  </si>
+  <si>
+    <t>πρόστιμο για εισητήρο ΜΜΜ</t>
+  </si>
+  <si>
+    <t>sandwich vegeterian με μπιφτέκι λαχανικών και κουλούρι με σοκολάτα</t>
+  </si>
+  <si>
+    <t>2 βίκος αναψυκτικά</t>
+  </si>
+  <si>
+    <t>hell (+ νερό Μιχάλη)</t>
+  </si>
+  <si>
+    <t>σάλτσα πέστο και τορτελίνια</t>
+  </si>
+  <si>
+    <t>gorilla pod για GoPro</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2964,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1012" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1019" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3248,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1012"/>
+  <dimension ref="A1:L1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
-      <selection activeCell="A1013" sqref="A1013"/>
+    <sheetView tabSelected="1" topLeftCell="B1010" workbookViewId="0">
+      <selection activeCell="J1020" sqref="J1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32948,6 +32966,216 @@
         <v>646</v>
       </c>
     </row>
+    <row r="1013" spans="1:10">
+      <c r="A1013" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1013" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1013" s="1"/>
+      <c r="H1013" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1013" s="1">
+        <v>1011</v>
+      </c>
+      <c r="J1013" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:10">
+      <c r="A1014" s="1">
+        <v>18</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1014" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1014" s="1">
+        <v>1012</v>
+      </c>
+      <c r="J1014" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:10">
+      <c r="A1015" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1015" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1015" s="1">
+        <v>1013</v>
+      </c>
+      <c r="J1015" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:10">
+      <c r="A1016" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1016" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1016" s="1">
+        <v>1014</v>
+      </c>
+      <c r="J1016" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10">
+      <c r="A1017" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1017" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1017" s="1">
+        <v>1015</v>
+      </c>
+      <c r="J1017" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10">
+      <c r="A1018" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1018" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1018" s="1">
+        <v>1016</v>
+      </c>
+      <c r="J1018" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10">
+      <c r="A1019" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1019" s="7">
+        <v>43666</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1019" s="1">
+        <v>1017</v>
+      </c>
+      <c r="J1019" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -3268,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1010" workbookViewId="0">
-      <selection activeCell="J1020" sqref="J1020"/>
+    <sheetView tabSelected="1" topLeftCell="B997" workbookViewId="0">
+      <selection activeCell="I1020" sqref="I1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32094,36 +32094,33 @@
       <c r="A983" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B983" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C983" s="7">
+      <c r="B983" t="s">
+        <v>207</v>
+      </c>
+      <c r="C983" s="2">
         <v>43649</v>
       </c>
-      <c r="D983" s="1" t="s">
-        <v>904</v>
+      <c r="D983" t="s">
+        <v>910</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F983" s="1">
-        <v>5</v>
-      </c>
-      <c r="G983" s="1"/>
-      <c r="H983" s="1" t="s">
-        <v>231</v>
+      <c r="F983">
+        <v>5</v>
+      </c>
+      <c r="H983" t="s">
+        <v>371</v>
       </c>
       <c r="I983" s="1">
         <v>981</v>
       </c>
-      <c r="J983" s="1" t="s">
-        <v>637</v>
+      <c r="J983" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="984" spans="1:10">
-      <c r="A984" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A984" s="1"/>
       <c r="B984" s="1" t="s">
         <v>207</v>
       </c>
@@ -32131,7 +32128,7 @@
         <v>43649</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>76</v>
+        <v>904</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>220</v>
@@ -32152,16 +32149,16 @@
     </row>
     <row r="985" spans="1:10">
       <c r="A985" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C985" s="7">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>905</v>
+        <v>76</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>220</v>
@@ -32171,7 +32168,7 @@
       </c>
       <c r="G985" s="1"/>
       <c r="H985" s="1" t="s">
-        <v>906</v>
+        <v>231</v>
       </c>
       <c r="I985" s="1">
         <v>983</v>
@@ -32185,13 +32182,13 @@
         <v>5</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="C986" s="7">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E986" s="1" t="s">
         <v>220</v>
@@ -32201,56 +32198,57 @@
       </c>
       <c r="G986" s="1"/>
       <c r="H986" s="1" t="s">
-        <v>224</v>
+        <v>906</v>
       </c>
       <c r="I986" s="1">
         <v>984</v>
       </c>
       <c r="J986" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="987" spans="1:10">
-      <c r="A987">
-        <v>71.98</v>
-      </c>
-      <c r="B987" t="s">
-        <v>322</v>
-      </c>
-      <c r="C987" s="2">
-        <v>43652</v>
-      </c>
-      <c r="D987" t="s">
-        <v>908</v>
+      <c r="A987" s="1">
+        <v>5</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C987" s="7">
+        <v>43651</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>907</v>
       </c>
       <c r="E987" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F987">
-        <v>5</v>
-      </c>
-      <c r="H987" t="s">
+      <c r="F987" s="1">
+        <v>5</v>
+      </c>
+      <c r="G987" s="1"/>
+      <c r="H987" s="1" t="s">
         <v>224</v>
       </c>
       <c r="I987" s="1">
         <v>985</v>
       </c>
-      <c r="J987" t="s">
+      <c r="J987" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="988" spans="1:10">
       <c r="A988">
-        <v>5.95</v>
+        <v>71.98</v>
       </c>
       <c r="B988" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="C988" s="2">
         <v>43652</v>
       </c>
       <c r="D988" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E988" s="1" t="s">
         <v>220</v>
@@ -32270,7 +32268,7 @@
     </row>
     <row r="989" spans="1:10">
       <c r="A989">
-        <v>0.99</v>
+        <v>5.95</v>
       </c>
       <c r="B989" t="s">
         <v>207</v>
@@ -32279,13 +32277,13 @@
         <v>43652</v>
       </c>
       <c r="D989" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E989" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F989">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H989" t="s">
         <v>224</v>
@@ -32299,23 +32297,25 @@
     </row>
     <row r="990" spans="1:10">
       <c r="A990">
-        <v>3.4</v>
+        <v>0.99</v>
       </c>
       <c r="B990" t="s">
         <v>207</v>
       </c>
-      <c r="C990" s="2"/>
+      <c r="C990" s="2">
+        <v>43652</v>
+      </c>
       <c r="D990" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F990">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H990" t="s">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="I990" s="1">
         <v>988</v>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="942">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2554,9 +2554,6 @@
     <t>parking στο penaroubia</t>
   </si>
   <si>
-    <t>strawberri smoothie</t>
-  </si>
-  <si>
     <t>Coffee Island (+ Βαγγελιώς, + Ασημίνας)</t>
   </si>
   <si>
@@ -2813,6 +2810,36 @@
   </si>
   <si>
     <t>gorilla pod για GoPro</t>
+  </si>
+  <si>
+    <t>τρένο για Tottenham hall</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>εισητήριο για το μετρό</t>
+  </si>
+  <si>
+    <t>βραχιόλι με το σήμα της Αγγλίας</t>
+  </si>
+  <si>
+    <t>φύλαξη της βαλίτσας για 2 ώρες</t>
+  </si>
+  <si>
+    <t>ένα νερό και ένα ice tea</t>
+  </si>
+  <si>
+    <t>parking στο Πανεπηστήμιο</t>
+  </si>
+  <si>
+    <t>μπύρα sol (+ coca-cola Αλίκης)</t>
+  </si>
+  <si>
+    <t>strawberry mohito (+ escpresso mohito Ματίνας)</t>
+  </si>
+  <si>
+    <t>strawberry smoothie</t>
   </si>
 </sst>
 </file>
@@ -2964,7 +2991,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1019" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1027" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3266,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1019"/>
+  <dimension ref="A1:L1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B997" workbookViewId="0">
-      <selection activeCell="I1020" sqref="I1020"/>
+    <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
+      <selection activeCell="D908" sqref="D908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4797,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -4826,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I53">
         <v>51</v>
@@ -4855,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I54">
         <v>52</v>
@@ -4884,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I55">
         <v>53</v>
@@ -4914,7 +4941,7 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I56">
         <v>54</v>
@@ -4943,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I57">
         <v>55</v>
@@ -4972,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I58">
         <v>56</v>
@@ -5030,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I60">
         <v>58</v>
@@ -5059,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I61">
         <v>59</v>
@@ -5088,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I62">
         <v>60</v>
@@ -5117,7 +5144,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I63">
         <v>61</v>
@@ -5146,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I64">
         <v>62</v>
@@ -5175,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I65">
         <v>63</v>
@@ -5204,7 +5231,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I66">
         <v>64</v>
@@ -13036,7 +13063,7 @@
         <v>5</v>
       </c>
       <c r="H336" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I336">
         <v>334</v>
@@ -13065,7 +13092,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I337">
         <v>335</v>
@@ -13094,7 +13121,7 @@
         <v>5</v>
       </c>
       <c r="H338" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I338">
         <v>336</v>
@@ -13123,7 +13150,7 @@
         <v>5</v>
       </c>
       <c r="H339" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I339">
         <v>337</v>
@@ -29824,7 +29851,7 @@
         <v>43613</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>846</v>
+        <v>941</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>222</v>
@@ -29884,7 +29911,7 @@
         <v>43614</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>222</v>
@@ -29914,7 +29941,7 @@
         <v>43614</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>222</v>
@@ -29974,7 +30001,7 @@
         <v>43615</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>222</v>
@@ -30034,7 +30061,7 @@
         <v>43616</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>222</v>
@@ -30064,7 +30091,7 @@
         <v>43619</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>221</v>
@@ -30094,7 +30121,7 @@
         <v>43620</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>221</v>
@@ -30124,7 +30151,7 @@
         <v>43621</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>221</v>
@@ -30183,7 +30210,7 @@
         <v>43623</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>221</v>
@@ -30213,7 +30240,7 @@
         <v>43623</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>221</v>
@@ -30243,7 +30270,7 @@
         <v>43624</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E921" s="1" t="s">
         <v>221</v>
@@ -30303,7 +30330,7 @@
         <v>43625</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E923" s="1" t="s">
         <v>221</v>
@@ -30333,7 +30360,7 @@
         <v>43626</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>221</v>
@@ -30393,7 +30420,7 @@
         <v>43627</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>221</v>
@@ -30423,7 +30450,7 @@
         <v>43627</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>221</v>
@@ -30453,7 +30480,7 @@
         <v>43628</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E928" s="1" t="s">
         <v>221</v>
@@ -30483,7 +30510,7 @@
         <v>43628</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E929" s="1" t="s">
         <v>221</v>
@@ -30513,7 +30540,7 @@
         <v>43629</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E930" s="1" t="s">
         <v>221</v>
@@ -30523,7 +30550,7 @@
       </c>
       <c r="G930" s="1"/>
       <c r="H930" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I930" s="1">
         <v>928</v>
@@ -30573,7 +30600,7 @@
         <v>43629</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>221</v>
@@ -30603,7 +30630,7 @@
         <v>43629</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E933" s="1" t="s">
         <v>221</v>
@@ -30633,7 +30660,7 @@
         <v>43631</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E934" s="1" t="s">
         <v>221</v>
@@ -30663,7 +30690,7 @@
         <v>43631</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E935" s="1" t="s">
         <v>221</v>
@@ -30673,7 +30700,7 @@
       </c>
       <c r="G935" s="1"/>
       <c r="H935" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I935" s="1">
         <v>933</v>
@@ -30693,7 +30720,7 @@
         <v>43631</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>221</v>
@@ -30723,7 +30750,7 @@
         <v>43631</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E937" s="1" t="s">
         <v>221</v>
@@ -30753,7 +30780,7 @@
         <v>43631</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>221</v>
@@ -30783,7 +30810,7 @@
         <v>43631</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E939" s="1" t="s">
         <v>221</v>
@@ -30813,7 +30840,7 @@
         <v>43631</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E940" s="1" t="s">
         <v>221</v>
@@ -30843,7 +30870,7 @@
         <v>43632</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E941" s="1" t="s">
         <v>221</v>
@@ -30853,7 +30880,7 @@
       </c>
       <c r="G941" s="1"/>
       <c r="H941" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I941" s="1">
         <v>939</v>
@@ -30873,7 +30900,7 @@
         <v>43632</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E942" s="1" t="s">
         <v>221</v>
@@ -30883,7 +30910,7 @@
       </c>
       <c r="G942" s="1"/>
       <c r="H942" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I942" s="1">
         <v>940</v>
@@ -30903,7 +30930,7 @@
         <v>43632</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>221</v>
@@ -30913,7 +30940,7 @@
       </c>
       <c r="G943" s="1"/>
       <c r="H943" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I943" s="1">
         <v>941</v>
@@ -30933,7 +30960,7 @@
         <v>43633</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>221</v>
@@ -30943,7 +30970,7 @@
       </c>
       <c r="G944" s="1"/>
       <c r="H944" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I944" s="1">
         <v>942</v>
@@ -30963,7 +30990,7 @@
         <v>43633</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E945" s="1" t="s">
         <v>221</v>
@@ -30973,7 +31000,7 @@
       </c>
       <c r="G945" s="1"/>
       <c r="H945" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I945" s="1">
         <v>943</v>
@@ -31003,7 +31030,7 @@
       </c>
       <c r="G946" s="1"/>
       <c r="H946" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I946" s="1">
         <v>944</v>
@@ -31053,7 +31080,7 @@
         <v>43633</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E948" s="1" t="s">
         <v>221</v>
@@ -31083,7 +31110,7 @@
         <v>43634</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>221</v>
@@ -31143,7 +31170,7 @@
         <v>43634</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E951" s="1" t="s">
         <v>221</v>
@@ -31203,7 +31230,7 @@
         <v>43635</v>
       </c>
       <c r="D953" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E953" s="1" t="s">
         <v>221</v>
@@ -31233,7 +31260,7 @@
         <v>43637</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E954" s="1" t="s">
         <v>221</v>
@@ -31293,7 +31320,7 @@
         <v>43639</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E956" s="1" t="s">
         <v>221</v>
@@ -31303,7 +31330,7 @@
       </c>
       <c r="G956" s="1"/>
       <c r="H956" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I956" s="1">
         <v>954</v>
@@ -31323,7 +31350,7 @@
         <v>43639</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E957" s="1" t="s">
         <v>221</v>
@@ -31383,7 +31410,7 @@
         <v>43640</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>221</v>
@@ -31413,7 +31440,7 @@
         <v>43641</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>220</v>
@@ -31473,7 +31500,7 @@
         <v>43642</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>220</v>
@@ -31503,7 +31530,7 @@
         <v>43642</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>220</v>
@@ -31533,7 +31560,7 @@
         <v>43642</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>220</v>
@@ -31593,7 +31620,7 @@
         <v>43643</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>220</v>
@@ -31623,7 +31650,7 @@
         <v>43643</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E967" s="1" t="s">
         <v>220</v>
@@ -31653,7 +31680,7 @@
         <v>43643</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>220</v>
@@ -31683,7 +31710,7 @@
         <v>43644</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E969" s="1" t="s">
         <v>220</v>
@@ -31693,7 +31720,7 @@
       </c>
       <c r="G969" s="1"/>
       <c r="H969" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I969" s="1">
         <v>967</v>
@@ -31713,7 +31740,7 @@
         <v>43644</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>220</v>
@@ -31723,7 +31750,7 @@
       </c>
       <c r="G970" s="1"/>
       <c r="H970" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I970" s="1">
         <v>968</v>
@@ -31743,7 +31770,7 @@
         <v>43644</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E971" s="1" t="s">
         <v>220</v>
@@ -31753,7 +31780,7 @@
       </c>
       <c r="G971" s="1"/>
       <c r="H971" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I971" s="1">
         <v>969</v>
@@ -31783,7 +31810,7 @@
       </c>
       <c r="G972" s="1"/>
       <c r="H972" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I972" s="1">
         <v>970</v>
@@ -31803,7 +31830,7 @@
         <v>43646</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>220</v>
@@ -31813,7 +31840,7 @@
       </c>
       <c r="G973" s="1"/>
       <c r="H973" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I973" s="1">
         <v>971</v>
@@ -31843,7 +31870,7 @@
       </c>
       <c r="G974" s="1"/>
       <c r="H974" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I974" s="1">
         <v>972</v>
@@ -31863,7 +31890,7 @@
         <v>43646</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E975" s="1" t="s">
         <v>220</v>
@@ -31873,7 +31900,7 @@
       </c>
       <c r="G975" s="1"/>
       <c r="H975" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I975" s="1">
         <v>973</v>
@@ -31893,7 +31920,7 @@
         <v>43646</v>
       </c>
       <c r="D976" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E976" t="s">
         <v>220</v>
@@ -31902,7 +31929,7 @@
         <v>5</v>
       </c>
       <c r="H976" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I976" s="1">
         <v>974</v>
@@ -31922,7 +31949,7 @@
         <v>43646</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E977" s="1" t="s">
         <v>220</v>
@@ -31932,7 +31959,7 @@
       </c>
       <c r="G977" s="1"/>
       <c r="H977" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I977" s="1">
         <v>975</v>
@@ -31952,7 +31979,7 @@
         <v>43647</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E978" s="1" t="s">
         <v>220</v>
@@ -31962,7 +31989,7 @@
       </c>
       <c r="G978" s="1"/>
       <c r="H978" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I978" s="1">
         <v>976</v>
@@ -31992,7 +32019,7 @@
       </c>
       <c r="G979" s="1"/>
       <c r="H979" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I979" s="1">
         <v>977</v>
@@ -32022,7 +32049,7 @@
       </c>
       <c r="G980" s="1"/>
       <c r="H980" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I980" s="1">
         <v>978</v>
@@ -32042,7 +32069,7 @@
         <v>43648</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E981" s="1" t="s">
         <v>220</v>
@@ -32052,7 +32079,7 @@
       </c>
       <c r="G981" s="1"/>
       <c r="H981" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I981" s="1">
         <v>979</v>
@@ -32072,7 +32099,7 @@
         <v>43648</v>
       </c>
       <c r="D982" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E982" t="s">
         <v>220</v>
@@ -32081,7 +32108,7 @@
         <v>5</v>
       </c>
       <c r="H982" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I982" s="1">
         <v>980</v>
@@ -32101,7 +32128,7 @@
         <v>43649</v>
       </c>
       <c r="D983" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>220</v>
@@ -32128,7 +32155,7 @@
         <v>43649</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>220</v>
@@ -32188,7 +32215,7 @@
         <v>43650</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E986" s="1" t="s">
         <v>220</v>
@@ -32198,7 +32225,7 @@
       </c>
       <c r="G986" s="1"/>
       <c r="H986" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I986" s="1">
         <v>984</v>
@@ -32218,7 +32245,7 @@
         <v>43651</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E987" s="1" t="s">
         <v>220</v>
@@ -32248,7 +32275,7 @@
         <v>43652</v>
       </c>
       <c r="D988" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E988" s="1" t="s">
         <v>220</v>
@@ -32277,7 +32304,7 @@
         <v>43652</v>
       </c>
       <c r="D989" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E989" s="1" t="s">
         <v>220</v>
@@ -32306,7 +32333,7 @@
         <v>43652</v>
       </c>
       <c r="D990" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>220</v>
@@ -32335,7 +32362,7 @@
         <v>43653</v>
       </c>
       <c r="D991" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E991" s="1" t="s">
         <v>220</v>
@@ -32364,7 +32391,7 @@
         <v>43653</v>
       </c>
       <c r="D992" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E992" s="1" t="s">
         <v>220</v>
@@ -32393,7 +32420,7 @@
         <v>43654</v>
       </c>
       <c r="D993" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E993" s="1" t="s">
         <v>220</v>
@@ -32422,7 +32449,7 @@
         <v>43654</v>
       </c>
       <c r="D994" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E994" s="1" t="s">
         <v>220</v>
@@ -32451,7 +32478,7 @@
         <v>43654</v>
       </c>
       <c r="D995" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E995" s="1" t="s">
         <v>220</v>
@@ -32509,7 +32536,7 @@
         <v>43656</v>
       </c>
       <c r="D997" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E997" s="1" t="s">
         <v>220</v>
@@ -32567,7 +32594,7 @@
         <v>43656</v>
       </c>
       <c r="D999" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E999" s="1" t="s">
         <v>220</v>
@@ -32654,7 +32681,7 @@
         <v>43659</v>
       </c>
       <c r="D1002" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E1002" s="1" t="s">
         <v>220</v>
@@ -32683,7 +32710,7 @@
         <v>43659</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>220</v>
@@ -32693,7 +32720,7 @@
       </c>
       <c r="G1003" s="1"/>
       <c r="H1003" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I1003" s="1">
         <v>1001</v>
@@ -32713,7 +32740,7 @@
         <v>43660</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>220</v>
@@ -32743,7 +32770,7 @@
         <v>43660</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E1005" s="1" t="s">
         <v>220</v>
@@ -32773,7 +32800,7 @@
         <v>43661</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>220</v>
@@ -32803,7 +32830,7 @@
         <v>43662</v>
       </c>
       <c r="D1007" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E1007" t="s">
         <v>220</v>
@@ -32916,10 +32943,10 @@
         <v>207</v>
       </c>
       <c r="C1011" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1011" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E1011" t="s">
         <v>220</v>
@@ -33007,7 +33034,7 @@
         <v>43665</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E1014" s="1" t="s">
         <v>220</v>
@@ -33037,7 +33064,7 @@
         <v>43665</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E1015" s="1" t="s">
         <v>220</v>
@@ -33067,7 +33094,7 @@
         <v>43665</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E1016" s="1" t="s">
         <v>220</v>
@@ -33097,7 +33124,7 @@
         <v>43665</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E1017" s="1" t="s">
         <v>220</v>
@@ -33127,7 +33154,7 @@
         <v>43665</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E1018" s="1" t="s">
         <v>220</v>
@@ -33148,7 +33175,7 @@
     </row>
     <row r="1019" spans="1:10">
       <c r="A1019" s="1">
-        <v>24.99</v>
+        <v>34.99</v>
       </c>
       <c r="B1019" s="1" t="s">
         <v>321</v>
@@ -33157,7 +33184,7 @@
         <v>43666</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E1019" s="1" t="s">
         <v>221</v>
@@ -33174,6 +33201,246 @@
       </c>
       <c r="J1019" s="1" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10">
+      <c r="A1020" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1020" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1020" s="1">
+        <v>1018</v>
+      </c>
+      <c r="J1020" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:10">
+      <c r="A1021" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1021" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1021" s="1">
+        <v>1019</v>
+      </c>
+      <c r="J1021" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:10">
+      <c r="A1022" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1022" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1022" s="1">
+        <v>1020</v>
+      </c>
+      <c r="J1022" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:10">
+      <c r="A1023" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1023" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1023" s="1">
+        <v>1021</v>
+      </c>
+      <c r="J1023" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:10">
+      <c r="A1024" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1024" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1024" s="1">
+        <v>1022</v>
+      </c>
+      <c r="J1024" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:10">
+      <c r="A1025" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1025" s="7">
+        <v>43669</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1025" s="1">
+        <v>1023</v>
+      </c>
+      <c r="J1025" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:10">
+      <c r="A1026" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1026" s="7">
+        <v>43669</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1026" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J1026" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:10">
+      <c r="A1027" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1027" s="7">
+        <v>43669</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1027" s="1">
+        <v>1025</v>
+      </c>
+      <c r="J1027" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5237" uniqueCount="962">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2840,6 +2840,66 @@
   </si>
   <si>
     <t>strawberry smoothie</t>
+  </si>
+  <si>
+    <t>πρωινό και αναψυκτικό με μάνγκο</t>
+  </si>
+  <si>
+    <t>γαμω βαλίτσα</t>
+  </si>
+  <si>
+    <t>λεωφορείο για πόλη Ενδυβούργου</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Σουβενίρ από Σκωτία</t>
+  </si>
+  <si>
+    <t>2,2.</t>
+  </si>
+  <si>
+    <t>για την λευχαιμία</t>
+  </si>
+  <si>
+    <t>2 veggie falafel και strawberry νερό</t>
+  </si>
+  <si>
+    <t>βαλίτσα στην Ryanair</t>
+  </si>
+  <si>
+    <t>ταξί από Αεροδρόμιο Κέρκυρας στο κέντρο</t>
+  </si>
+  <si>
+    <t>Corfu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μπλούζα jordan συλλεκτική </t>
+  </si>
+  <si>
+    <t>μπύρα (+ νερό παπάτζα)</t>
+  </si>
+  <si>
+    <t>μπύρα με Κωνσταντίνο και Γιάννη</t>
+  </si>
+  <si>
+    <t>πατατάκια στο αεροδρόμιο της Κέρκυρας</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα κασερόπιτα και νερό</t>
+  </si>
+  <si>
+    <t>εισητήριο για αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>sprite από το Περίπτερο</t>
+  </si>
+  <si>
+    <t>εισητήριο μετρό για 1 διαδρομή</t>
+  </si>
+  <si>
+    <t>(+ ταξί Νικολόπουλου)</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +3051,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1027" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1045" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3293,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1027"/>
+  <dimension ref="A1:L1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
-      <selection activeCell="D908" sqref="D908"/>
+    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
+      <selection activeCell="D1046" sqref="D1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33443,6 +33503,504 @@
         <v>639</v>
       </c>
     </row>
+    <row r="1028" spans="1:10">
+      <c r="A1028" s="1">
+        <v>5.4145000000000003</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1028" s="7">
+        <v>43670</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:10">
+      <c r="A1029" s="1">
+        <v>44.55</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1029" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:10">
+      <c r="A1030" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1030" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1030" s="1"/>
+      <c r="H1030" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1030" s="1"/>
+      <c r="J1030" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:10">
+      <c r="A1031" s="1">
+        <v>32.56</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1031" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1031" s="1"/>
+      <c r="H1031" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1031" s="1"/>
+      <c r="J1031" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:10">
+      <c r="A1032" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1032" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1032" s="1"/>
+      <c r="J1032" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:10">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1033" s="1"/>
+      <c r="H1033" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1033" s="1"/>
+      <c r="J1033" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1034" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1034" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1034" s="1"/>
+      <c r="J1034" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10">
+      <c r="A1035" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1035" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1035" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1035" s="1"/>
+      <c r="H1035" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1035" s="1"/>
+      <c r="J1035" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10">
+      <c r="A1036" s="1">
+        <v>22</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1036" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1036" s="1"/>
+      <c r="H1036" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1036" s="1"/>
+      <c r="J1036" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:10">
+      <c r="A1037" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1037" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1037" s="1"/>
+      <c r="H1037" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1037" s="1"/>
+      <c r="J1037" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:10">
+      <c r="A1038" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1038" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1038" s="1"/>
+      <c r="H1038" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1038" s="1"/>
+      <c r="J1038" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:10">
+      <c r="A1039" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1039" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1039" s="1"/>
+      <c r="H1039" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1039" s="1"/>
+      <c r="J1039" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:10">
+      <c r="A1040" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1040" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1040" s="1"/>
+      <c r="H1040" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1040" s="1"/>
+      <c r="J1040" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:10">
+      <c r="A1041" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1041" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1041" s="1"/>
+      <c r="H1041" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1041" s="1"/>
+      <c r="J1041" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:10">
+      <c r="A1042" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1042" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1042" s="1"/>
+      <c r="H1042" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1042" s="1"/>
+      <c r="J1042" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:10">
+      <c r="A1043" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1043" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1043" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1043" s="1"/>
+      <c r="H1043" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1043" s="1"/>
+      <c r="J1043" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:10">
+      <c r="A1044" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1044" s="7">
+        <v>43674</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1044" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1044" s="1"/>
+      <c r="H1044" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1044" s="1"/>
+      <c r="J1044" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:10">
+      <c r="A1045" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1045" s="7">
+        <v>43674</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1045" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1045" s="1"/>
+      <c r="H1045" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1045" s="1"/>
+      <c r="J1045" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5237" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="973">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2857,9 +2857,6 @@
     <t>Σουβενίρ από Σκωτία</t>
   </si>
   <si>
-    <t>2,2.</t>
-  </si>
-  <si>
     <t>για την λευχαιμία</t>
   </si>
   <si>
@@ -2900,6 +2897,42 @@
   </si>
   <si>
     <t>(+ ταξί Νικολόπουλου)</t>
+  </si>
+  <si>
+    <t>(+ νερό Μιχάλη)</t>
+  </si>
+  <si>
+    <t>caprice capuccino και 2 τσαι του βουνού Όλυμπος</t>
+  </si>
+  <si>
+    <t>βενζίνη για το Yaris</t>
+  </si>
+  <si>
+    <t>μπύρες στο Bronco με Κώστα και Κωνσταντίνα</t>
+  </si>
+  <si>
+    <t>tonic water (+ μπύρα Κώστα)</t>
+  </si>
+  <si>
+    <t>εξετάσεις αίματος (+ πατέρα)</t>
+  </si>
+  <si>
+    <t>πεϊνιρλί (+ Μαρίας πουρνάρα)</t>
+  </si>
+  <si>
+    <t>για την τούρτα του Κώστα</t>
+  </si>
+  <si>
+    <t>λουκουμάς σταθμό Λαρίσσης</t>
+  </si>
+  <si>
+    <t>instagram views</t>
+  </si>
+  <si>
+    <t>instagram likes</t>
+  </si>
+  <si>
+    <t>instagram followers and likes</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +3084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1045" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1062" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3353,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1045"/>
+  <dimension ref="A1:L1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
-      <selection activeCell="D1046" sqref="D1046"/>
+    <sheetView tabSelected="1" topLeftCell="B1044" workbookViewId="0">
+      <selection activeCell="J1063" sqref="J1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33616,8 +33649,8 @@
       </c>
     </row>
     <row r="1032" spans="1:10">
-      <c r="A1032" s="1" t="s">
-        <v>947</v>
+      <c r="A1032" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B1032" s="1" t="s">
         <v>549</v>
@@ -33626,7 +33659,7 @@
         <v>43671</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E1032" s="1" t="s">
         <v>221</v>
@@ -33644,13 +33677,17 @@
       </c>
     </row>
     <row r="1033" spans="1:10">
-      <c r="A1033" s="1"/>
-      <c r="B1033" s="1"/>
+      <c r="A1033" s="1">
+        <v>11</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C1033" s="7">
         <v>43671</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E1033" s="1" t="s">
         <v>221</v>
@@ -33668,7 +33705,9 @@
       </c>
     </row>
     <row r="1034" spans="1:10">
-      <c r="A1034" s="1"/>
+      <c r="A1034" s="1">
+        <v>25</v>
+      </c>
       <c r="B1034" s="1" t="s">
         <v>557</v>
       </c>
@@ -33676,7 +33715,7 @@
         <v>43671</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1034" s="1" t="s">
         <v>221</v>
@@ -33704,7 +33743,7 @@
         <v>43671</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>221</v>
@@ -33714,7 +33753,7 @@
       </c>
       <c r="G1035" s="1"/>
       <c r="H1035" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I1035" s="1"/>
       <c r="J1035" s="1" t="s">
@@ -33732,7 +33771,7 @@
         <v>43671</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E1036" s="1" t="s">
         <v>221</v>
@@ -33742,7 +33781,7 @@
       </c>
       <c r="G1036" s="1"/>
       <c r="H1036" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I1036" s="1"/>
       <c r="J1036" s="1" t="s">
@@ -33760,7 +33799,7 @@
         <v>43672</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E1037" s="1" t="s">
         <v>221</v>
@@ -33770,7 +33809,7 @@
       </c>
       <c r="G1037" s="1"/>
       <c r="H1037" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I1037" s="1"/>
       <c r="J1037" s="1" t="s">
@@ -33788,7 +33827,7 @@
         <v>43672</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E1038" s="1" t="s">
         <v>221</v>
@@ -33798,7 +33837,7 @@
       </c>
       <c r="G1038" s="1"/>
       <c r="H1038" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I1038" s="1"/>
       <c r="J1038" s="1" t="s">
@@ -33816,7 +33855,7 @@
         <v>43672</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E1039" s="1" t="s">
         <v>221</v>
@@ -33826,7 +33865,7 @@
       </c>
       <c r="G1039" s="1"/>
       <c r="H1039" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I1039" s="1"/>
       <c r="J1039" s="1" t="s">
@@ -33844,7 +33883,7 @@
         <v>43672</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1040" s="1" t="s">
         <v>221</v>
@@ -33872,7 +33911,7 @@
         <v>43672</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1041" s="1" t="s">
         <v>221</v>
@@ -33900,7 +33939,7 @@
         <v>43672</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E1042" s="1" t="s">
         <v>221</v>
@@ -33928,7 +33967,7 @@
         <v>43672</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E1043" s="1" t="s">
         <v>221</v>
@@ -33984,7 +34023,7 @@
         <v>43674</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E1045" s="1" t="s">
         <v>221</v>
@@ -33999,6 +34038,482 @@
       <c r="I1045" s="1"/>
       <c r="J1045" s="1" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:10">
+      <c r="A1046" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1046" s="7">
+        <v>43674</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1046" s="1"/>
+      <c r="H1046" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1046" s="1"/>
+      <c r="J1046" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:10">
+      <c r="A1047" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1047" s="7">
+        <v>43674</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1047" s="1"/>
+      <c r="H1047" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1047" s="1"/>
+      <c r="J1047" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:10">
+      <c r="A1048" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1048" s="7">
+        <v>43675</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1048" s="1"/>
+      <c r="H1048" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1048" s="1"/>
+      <c r="J1048" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:10">
+      <c r="A1049" s="1">
+        <v>20</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1049" s="7">
+        <v>43675</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1049" s="1"/>
+      <c r="H1049" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1049" s="1"/>
+      <c r="J1049" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:10">
+      <c r="A1050" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1050" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1050" s="1"/>
+      <c r="H1050" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1050" s="1"/>
+      <c r="J1050" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:10">
+      <c r="A1051" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1051" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1051" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1051" s="1"/>
+      <c r="H1051" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1051" s="1"/>
+      <c r="J1051" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:10">
+      <c r="A1052" s="1">
+        <v>20</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1052" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1052" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1052" s="1"/>
+      <c r="H1052" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1052" s="1"/>
+      <c r="J1052" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:10">
+      <c r="A1053" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1053" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1053" s="1"/>
+      <c r="H1053" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1053" s="1"/>
+      <c r="J1053" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:10">
+      <c r="A1054" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1054" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1054" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1054" s="1"/>
+      <c r="H1054" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1054" s="1"/>
+      <c r="J1054" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:10">
+      <c r="A1055" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1055" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1055" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1055" s="1"/>
+      <c r="H1055" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1055" s="1"/>
+      <c r="J1055" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:10">
+      <c r="A1056" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1056" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1056" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1056" s="1"/>
+      <c r="H1056" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1056" s="1"/>
+      <c r="J1056" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10">
+      <c r="A1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1057" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1057" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1057" s="1"/>
+      <c r="H1057" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1057" s="1"/>
+      <c r="J1057" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10">
+      <c r="A1058" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1058" s="7">
+        <v>43679</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1058" s="1"/>
+      <c r="H1058" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1058" s="1"/>
+      <c r="J1058" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10">
+      <c r="A1059" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1059" s="7">
+        <v>43679</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1059" s="1"/>
+      <c r="H1059" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1059" s="1"/>
+      <c r="J1059" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10">
+      <c r="A1060" s="1">
+        <v>26.91</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1060" s="7">
+        <v>43679</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1060" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1060" s="1"/>
+      <c r="H1060" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1060" s="1"/>
+      <c r="J1060" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10">
+      <c r="A1061" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1061" s="7">
+        <v>43682</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1061" s="1"/>
+      <c r="H1061" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1061" s="1"/>
+      <c r="J1061" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10">
+      <c r="A1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>43684</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1062" s="1"/>
+      <c r="H1062" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1062" s="1"/>
+      <c r="J1062" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="983">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2933,6 +2933,36 @@
   </si>
   <si>
     <t>instagram followers and likes</t>
+  </si>
+  <si>
+    <t>caprice καφέ και νερό στο τρένο</t>
+  </si>
+  <si>
+    <t>μπύρα με Τσίρο Καλλιοτζιδια και Νικηφόρο</t>
+  </si>
+  <si>
+    <t>κρέπα αναμεικτη με μπανάνα και μπισκότο</t>
+  </si>
+  <si>
+    <t>spite και bueno με Γκιάτη, Παπαγιάννη, Νικολόπουλο Κώστα και Μαρία</t>
+  </si>
+  <si>
+    <t>2 falafel και 1 οικολογικό στο σπίτι του Αντώνη</t>
+  </si>
+  <si>
+    <t>στον σερβιτόρο γιατι με εκνεύρισε ο Αντώνης</t>
+  </si>
+  <si>
+    <t>γρανίτα λεμόνι Συγγρού φιξ</t>
+  </si>
+  <si>
+    <t>γρανίτα σοκολάτα με Κώστα</t>
+  </si>
+  <si>
+    <t>2 βιβλία και μία σακούλα από τα public</t>
+  </si>
+  <si>
+    <t>2 Εισητήρια για σινεμά για το lion king (+ Κωνσταντίνας)</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3114,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1062" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1075" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3386,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1062"/>
+  <dimension ref="A1:L1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1044" workbookViewId="0">
-      <selection activeCell="J1063" sqref="J1063"/>
+    <sheetView tabSelected="1" topLeftCell="A1054" workbookViewId="0">
+      <selection activeCell="C1076" sqref="C1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34516,6 +34546,370 @@
         <v>646</v>
       </c>
     </row>
+    <row r="1063" spans="1:10">
+      <c r="A1063" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1063" s="7">
+        <v>43686</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1063" s="1"/>
+      <c r="H1063" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I1063" s="1"/>
+      <c r="J1063" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10">
+      <c r="A1064" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1064" s="7">
+        <v>43688</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1064" s="1"/>
+      <c r="H1064" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1064" s="1"/>
+      <c r="J1064" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10">
+      <c r="A1065" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1065" s="7">
+        <v>43688</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1065" s="1"/>
+      <c r="H1065" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1065" s="1"/>
+      <c r="J1065" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10">
+      <c r="A1066" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1066" s="7">
+        <v>43693</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1066" s="1"/>
+      <c r="H1066" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1066" s="1"/>
+      <c r="J1066" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10">
+      <c r="A1067" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1067" s="7">
+        <v>43693</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1067" s="1"/>
+      <c r="H1067" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1067" s="1"/>
+      <c r="J1067" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10">
+      <c r="A1068" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1068" s="7">
+        <v>43694</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1068" s="1"/>
+      <c r="H1068" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1068" s="1"/>
+      <c r="J1068" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10">
+      <c r="A1069" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1069" s="7">
+        <v>43694</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1069" s="1"/>
+      <c r="H1069" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1069" s="1"/>
+      <c r="J1069" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10">
+      <c r="A1070" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1070" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1070" s="1"/>
+      <c r="H1070" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1070" s="1"/>
+      <c r="J1070" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10">
+      <c r="A1071" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1071" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1071" s="1"/>
+      <c r="H1071" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1071" s="1"/>
+      <c r="J1071" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10">
+      <c r="A1072" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1072" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1072" s="1"/>
+      <c r="H1072" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1072" s="1"/>
+      <c r="J1072" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10">
+      <c r="A1073" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1073" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1073" s="1"/>
+      <c r="H1073" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1073" s="1"/>
+      <c r="J1073" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:10">
+      <c r="A1074" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1074" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1074" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1074" s="1"/>
+      <c r="H1074" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1074" s="1"/>
+      <c r="J1074" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10">
+      <c r="A1075" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1075" s="7">
+        <v>43696</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1075" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1075" s="1"/>
+      <c r="H1075" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1075" s="1"/>
+      <c r="J1075" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5432" uniqueCount="991">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2963,6 +2963,30 @@
   </si>
   <si>
     <t>2 Εισητήρια για σινεμά για το lion king (+ Κωνσταντίνας)</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με τυρί και γρανίτα</t>
+  </si>
+  <si>
+    <t>μπαταρίες και 6άδα νερά</t>
+  </si>
+  <si>
+    <t>τυρόπιτα κουρού</t>
+  </si>
+  <si>
+    <t>πατατάκια και κρουασάν</t>
+  </si>
+  <si>
+    <t>κρασιά στο Μπουρνάζι με την παρέα στου Σπύρου</t>
+  </si>
+  <si>
+    <t>ελληνικός διπλός με Καλλιοτζίδια</t>
+  </si>
+  <si>
+    <t>παγωτό και coca-cola με Πέτρο Πολυκράτη</t>
+  </si>
+  <si>
+    <t>(+ σουβλάκι και coca-cola Μανούλας)</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1075" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1084" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3416,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1075"/>
+  <dimension ref="A1:L1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1054" workbookViewId="0">
-      <selection activeCell="C1076" sqref="C1076"/>
+    <sheetView tabSelected="1" topLeftCell="A1061" workbookViewId="0">
+      <selection activeCell="B1085" sqref="B1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33589,7 +33613,9 @@
       <c r="H1028" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I1028" s="1"/>
+      <c r="I1028" s="1">
+        <v>1026</v>
+      </c>
       <c r="J1028" s="1" t="s">
         <v>637</v>
       </c>
@@ -33617,7 +33643,9 @@
       <c r="H1029" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I1029" s="1"/>
+      <c r="I1029" s="1">
+        <v>1027</v>
+      </c>
       <c r="J1029" s="1" t="s">
         <v>639</v>
       </c>
@@ -33645,7 +33673,9 @@
       <c r="H1030" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I1030" s="1"/>
+      <c r="I1030" s="1">
+        <v>1028</v>
+      </c>
       <c r="J1030" s="1" t="s">
         <v>639</v>
       </c>
@@ -33673,7 +33703,9 @@
       <c r="H1031" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I1031" s="1"/>
+      <c r="I1031" s="1">
+        <v>1029</v>
+      </c>
       <c r="J1031" s="1" t="s">
         <v>639</v>
       </c>
@@ -33701,7 +33733,9 @@
       <c r="H1032" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I1032" s="1"/>
+      <c r="I1032" s="1">
+        <v>1030</v>
+      </c>
       <c r="J1032" s="1" t="s">
         <v>637</v>
       </c>
@@ -33729,7 +33763,9 @@
       <c r="H1033" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I1033" s="1"/>
+      <c r="I1033" s="1">
+        <v>1031</v>
+      </c>
       <c r="J1033" s="1" t="s">
         <v>637</v>
       </c>
@@ -33757,7 +33793,9 @@
       <c r="H1034" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I1034" s="1"/>
+      <c r="I1034" s="1">
+        <v>1032</v>
+      </c>
       <c r="J1034" s="1" t="s">
         <v>639</v>
       </c>
@@ -33785,7 +33823,9 @@
       <c r="H1035" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I1035" s="1"/>
+      <c r="I1035" s="1">
+        <v>1033</v>
+      </c>
       <c r="J1035" s="1" t="s">
         <v>637</v>
       </c>
@@ -33813,7 +33853,9 @@
       <c r="H1036" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I1036" s="1"/>
+      <c r="I1036" s="1">
+        <v>1034</v>
+      </c>
       <c r="J1036" s="1" t="s">
         <v>637</v>
       </c>
@@ -33841,7 +33883,9 @@
       <c r="H1037" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I1037" s="1"/>
+      <c r="I1037" s="1">
+        <v>1035</v>
+      </c>
       <c r="J1037" s="1" t="s">
         <v>639</v>
       </c>
@@ -33869,7 +33913,9 @@
       <c r="H1038" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I1038" s="1"/>
+      <c r="I1038" s="1">
+        <v>1036</v>
+      </c>
       <c r="J1038" s="1" t="s">
         <v>637</v>
       </c>
@@ -33897,7 +33943,9 @@
       <c r="H1039" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I1039" s="1"/>
+      <c r="I1039" s="1">
+        <v>1037</v>
+      </c>
       <c r="J1039" s="1" t="s">
         <v>639</v>
       </c>
@@ -33925,7 +33973,9 @@
       <c r="H1040" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I1040" s="1"/>
+      <c r="I1040" s="1">
+        <v>1038</v>
+      </c>
       <c r="J1040" s="1" t="s">
         <v>637</v>
       </c>
@@ -33953,7 +34003,9 @@
       <c r="H1041" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1041" s="1"/>
+      <c r="I1041" s="1">
+        <v>1039</v>
+      </c>
       <c r="J1041" s="1" t="s">
         <v>637</v>
       </c>
@@ -33981,7 +34033,9 @@
       <c r="H1042" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1042" s="1"/>
+      <c r="I1042" s="1">
+        <v>1040</v>
+      </c>
       <c r="J1042" s="1" t="s">
         <v>637</v>
       </c>
@@ -34009,7 +34063,9 @@
       <c r="H1043" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1043" s="1"/>
+      <c r="I1043" s="1">
+        <v>1041</v>
+      </c>
       <c r="J1043" s="1" t="s">
         <v>637</v>
       </c>
@@ -34037,7 +34093,9 @@
       <c r="H1044" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I1044" s="1"/>
+      <c r="I1044" s="1">
+        <v>1042</v>
+      </c>
       <c r="J1044" s="1" t="s">
         <v>639</v>
       </c>
@@ -34065,7 +34123,9 @@
       <c r="H1045" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I1045" s="1"/>
+      <c r="I1045" s="1">
+        <v>1043</v>
+      </c>
       <c r="J1045" s="1" t="s">
         <v>637</v>
       </c>
@@ -34093,7 +34153,9 @@
       <c r="H1046" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I1046" s="1"/>
+      <c r="I1046" s="1">
+        <v>1044</v>
+      </c>
       <c r="J1046" s="1" t="s">
         <v>637</v>
       </c>
@@ -34121,7 +34183,9 @@
       <c r="H1047" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I1047" s="1"/>
+      <c r="I1047" s="1">
+        <v>1045</v>
+      </c>
       <c r="J1047" s="1" t="s">
         <v>637</v>
       </c>
@@ -34149,7 +34213,9 @@
       <c r="H1048" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1048" s="1"/>
+      <c r="I1048" s="1">
+        <v>1046</v>
+      </c>
       <c r="J1048" s="1" t="s">
         <v>639</v>
       </c>
@@ -34177,7 +34243,9 @@
       <c r="H1049" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1049" s="1"/>
+      <c r="I1049" s="1">
+        <v>1047</v>
+      </c>
       <c r="J1049" s="1" t="s">
         <v>639</v>
       </c>
@@ -34205,7 +34273,9 @@
       <c r="H1050" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="I1050" s="1"/>
+      <c r="I1050" s="1">
+        <v>1048</v>
+      </c>
       <c r="J1050" s="1" t="s">
         <v>637</v>
       </c>
@@ -34233,7 +34303,9 @@
       <c r="H1051" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I1051" s="1"/>
+      <c r="I1051" s="1">
+        <v>1049</v>
+      </c>
       <c r="J1051" s="1" t="s">
         <v>639</v>
       </c>
@@ -34261,7 +34333,9 @@
       <c r="H1052" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I1052" s="1"/>
+      <c r="I1052" s="1">
+        <v>1050</v>
+      </c>
       <c r="J1052" s="1" t="s">
         <v>639</v>
       </c>
@@ -34289,7 +34363,9 @@
       <c r="H1053" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I1053" s="1"/>
+      <c r="I1053" s="1">
+        <v>1051</v>
+      </c>
       <c r="J1053" s="1" t="s">
         <v>639</v>
       </c>
@@ -34317,7 +34393,9 @@
       <c r="H1054" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1054" s="1"/>
+      <c r="I1054" s="1">
+        <v>1052</v>
+      </c>
       <c r="J1054" s="1" t="s">
         <v>637</v>
       </c>
@@ -34345,7 +34423,9 @@
       <c r="H1055" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1055" s="1"/>
+      <c r="I1055" s="1">
+        <v>1053</v>
+      </c>
       <c r="J1055" s="1" t="s">
         <v>637</v>
       </c>
@@ -34373,7 +34453,9 @@
       <c r="H1056" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1056" s="1"/>
+      <c r="I1056" s="1">
+        <v>1054</v>
+      </c>
       <c r="J1056" s="1" t="s">
         <v>646</v>
       </c>
@@ -34401,7 +34483,9 @@
       <c r="H1057" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1057" s="1"/>
+      <c r="I1057" s="1">
+        <v>1055</v>
+      </c>
       <c r="J1057" s="1" t="s">
         <v>637</v>
       </c>
@@ -34429,7 +34513,9 @@
       <c r="H1058" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1058" s="1"/>
+      <c r="I1058" s="1">
+        <v>1056</v>
+      </c>
       <c r="J1058" s="1" t="s">
         <v>646</v>
       </c>
@@ -34457,7 +34543,9 @@
       <c r="H1059" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1059" s="1"/>
+      <c r="I1059" s="1">
+        <v>1057</v>
+      </c>
       <c r="J1059" s="1" t="s">
         <v>646</v>
       </c>
@@ -34485,7 +34573,9 @@
       <c r="H1060" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1060" s="1"/>
+      <c r="I1060" s="1">
+        <v>1058</v>
+      </c>
       <c r="J1060" s="1" t="s">
         <v>646</v>
       </c>
@@ -34513,7 +34603,9 @@
       <c r="H1061" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1061" s="1"/>
+      <c r="I1061" s="1">
+        <v>1059</v>
+      </c>
       <c r="J1061" s="1" t="s">
         <v>646</v>
       </c>
@@ -34541,7 +34633,9 @@
       <c r="H1062" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1062" s="1"/>
+      <c r="I1062" s="1">
+        <v>1060</v>
+      </c>
       <c r="J1062" s="1" t="s">
         <v>646</v>
       </c>
@@ -34569,7 +34663,9 @@
       <c r="H1063" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1063" s="1"/>
+      <c r="I1063" s="1">
+        <v>1061</v>
+      </c>
       <c r="J1063" s="1" t="s">
         <v>637</v>
       </c>
@@ -34597,7 +34693,9 @@
       <c r="H1064" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I1064" s="1"/>
+      <c r="I1064" s="1">
+        <v>1062</v>
+      </c>
       <c r="J1064" s="1" t="s">
         <v>637</v>
       </c>
@@ -34625,7 +34723,9 @@
       <c r="H1065" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1065" s="1"/>
+      <c r="I1065" s="1">
+        <v>1063</v>
+      </c>
       <c r="J1065" s="1" t="s">
         <v>637</v>
       </c>
@@ -34653,7 +34753,9 @@
       <c r="H1066" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I1066" s="1"/>
+      <c r="I1066" s="1">
+        <v>1064</v>
+      </c>
       <c r="J1066" s="1" t="s">
         <v>637</v>
       </c>
@@ -34681,7 +34783,9 @@
       <c r="H1067" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I1067" s="1"/>
+      <c r="I1067" s="1">
+        <v>1065</v>
+      </c>
       <c r="J1067" s="1" t="s">
         <v>637</v>
       </c>
@@ -34709,7 +34813,9 @@
       <c r="H1068" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I1068" s="1"/>
+      <c r="I1068" s="1">
+        <v>1066</v>
+      </c>
       <c r="J1068" s="1" t="s">
         <v>637</v>
       </c>
@@ -34737,7 +34843,9 @@
       <c r="H1069" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1069" s="1"/>
+      <c r="I1069" s="1">
+        <v>1067</v>
+      </c>
       <c r="J1069" s="1" t="s">
         <v>637</v>
       </c>
@@ -34765,7 +34873,9 @@
       <c r="H1070" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="I1070" s="1"/>
+      <c r="I1070" s="1">
+        <v>1068</v>
+      </c>
       <c r="J1070" s="1" t="s">
         <v>637</v>
       </c>
@@ -34793,14 +34903,16 @@
       <c r="H1071" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="I1071" s="1"/>
+      <c r="I1071" s="1">
+        <v>1069</v>
+      </c>
       <c r="J1071" s="1" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="1072" spans="1:10">
       <c r="A1072" s="1">
-        <v>15.07</v>
+        <v>17.07</v>
       </c>
       <c r="B1072" s="1" t="s">
         <v>324</v>
@@ -34821,7 +34933,9 @@
       <c r="H1072" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I1072" s="1"/>
+      <c r="I1072" s="1">
+        <v>1070</v>
+      </c>
       <c r="J1072" s="1" t="s">
         <v>637</v>
       </c>
@@ -34849,7 +34963,9 @@
       <c r="H1073" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I1073" s="1"/>
+      <c r="I1073" s="1">
+        <v>1071</v>
+      </c>
       <c r="J1073" s="1" t="s">
         <v>646</v>
       </c>
@@ -34877,7 +34993,9 @@
       <c r="H1074" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="I1074" s="1"/>
+      <c r="I1074" s="1">
+        <v>1072</v>
+      </c>
       <c r="J1074" s="1" t="s">
         <v>646</v>
       </c>
@@ -34905,9 +35023,281 @@
       <c r="H1075" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="I1075" s="1"/>
+      <c r="I1075" s="1">
+        <v>1073</v>
+      </c>
       <c r="J1075" s="1" t="s">
         <v>646</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:10">
+      <c r="A1076" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1076" s="7">
+        <v>43697</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1076" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1076" s="1"/>
+      <c r="H1076" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1076" s="1">
+        <v>1074</v>
+      </c>
+      <c r="J1076" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:10">
+      <c r="A1077" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1077" s="7">
+        <v>43697</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1077" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1077" s="1"/>
+      <c r="H1077" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1077" s="1">
+        <v>1075</v>
+      </c>
+      <c r="J1077" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:10">
+      <c r="A1078" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1078" s="7">
+        <v>43698</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1078" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1078" s="1"/>
+      <c r="H1078" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1078" s="1">
+        <v>1076</v>
+      </c>
+      <c r="J1078" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10">
+      <c r="A1079" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1079" s="7">
+        <v>43698</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1079" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1079" s="1"/>
+      <c r="H1079" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1079" s="1">
+        <v>1077</v>
+      </c>
+      <c r="J1079" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:10">
+      <c r="A1080" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1080" s="7">
+        <v>43698</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1080" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1080" s="1"/>
+      <c r="H1080" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1080" s="1">
+        <v>1078</v>
+      </c>
+      <c r="J1080" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10">
+      <c r="A1081" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1081" s="7">
+        <v>43699</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1081" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1081" s="1"/>
+      <c r="H1081" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1081" s="1">
+        <v>1079</v>
+      </c>
+      <c r="J1081" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:10">
+      <c r="A1082" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1082" s="7">
+        <v>43699</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1082" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1082" s="1"/>
+      <c r="H1082" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1082" s="1">
+        <v>1080</v>
+      </c>
+      <c r="J1082" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:10">
+      <c r="A1083" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1083" s="7">
+        <v>43699</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1083" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1083" s="1"/>
+      <c r="H1083" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1083" s="1">
+        <v>1081</v>
+      </c>
+      <c r="J1083" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:10">
+      <c r="A1084" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1084" s="7">
+        <v>43699</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1084" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1084" s="1"/>
+      <c r="H1084" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1084" s="1">
+        <v>1082</v>
+      </c>
+      <c r="J1084" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5432" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="1004">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2987,6 +2987,45 @@
   </si>
   <si>
     <t>(+ σουβλάκι και coca-cola Μανούλας)</t>
+  </si>
+  <si>
+    <t>2 κρουασάν με σοκολάτα και μία 6άδα νερά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πατατάκια με γεύση κέτσαπ και coca-cola </t>
+  </si>
+  <si>
+    <t>Paiania</t>
+  </si>
+  <si>
+    <t>pizza fan (+ Νικολόπουλου)</t>
+  </si>
+  <si>
+    <t>Loutsa</t>
+  </si>
+  <si>
+    <t>2 μπουκάλια νερό (+ Νικολόπουλου)</t>
+  </si>
+  <si>
+    <t>νερό για ντούς</t>
+  </si>
+  <si>
+    <t>taxi από την Ανθούπολη στο σπίτι</t>
+  </si>
+  <si>
+    <t>Φυσικός χυμός πορτοκάλι</t>
+  </si>
+  <si>
+    <t>Papagou</t>
+  </si>
+  <si>
+    <t>γρανίτα κρύο τσάι ροδι από το ομορφο κορίτσι στο ταμείο</t>
+  </si>
+  <si>
+    <t>κουλούρι με κακάο</t>
+  </si>
+  <si>
+    <t>λεμονίτα</t>
   </si>
 </sst>
 </file>
@@ -3138,7 +3177,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1084" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1095" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3440,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1084"/>
+  <dimension ref="A1:L1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1061" workbookViewId="0">
-      <selection activeCell="B1085" sqref="B1085"/>
+    <sheetView tabSelected="1" topLeftCell="B1073" workbookViewId="0">
+      <selection activeCell="I1083" sqref="I1083:I1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35300,6 +35339,336 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1085" spans="1:10">
+      <c r="A1085" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1085" s="7">
+        <v>43700</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1085" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1085" s="1"/>
+      <c r="H1085" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1085" s="1">
+        <v>1083</v>
+      </c>
+      <c r="J1085" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:10">
+      <c r="A1086" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1086" s="7">
+        <v>43701</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1086" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1086" s="1"/>
+      <c r="H1086" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="I1086" s="1">
+        <v>1084</v>
+      </c>
+      <c r="J1086" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:10">
+      <c r="A1087" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1087" s="7">
+        <v>43701</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1087" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1087" s="1"/>
+      <c r="H1087" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I1087" s="1">
+        <v>1085</v>
+      </c>
+      <c r="J1087" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:10">
+      <c r="A1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1088" s="7">
+        <v>43701</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1088" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1088" s="1"/>
+      <c r="H1088" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I1088" s="1">
+        <v>1086</v>
+      </c>
+      <c r="J1088" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:10">
+      <c r="A1089" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1089" s="7">
+        <v>43702</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1089" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1089" s="1"/>
+      <c r="H1089" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I1089" s="1">
+        <v>1087</v>
+      </c>
+      <c r="J1089" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10">
+      <c r="A1090" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1090" s="7">
+        <v>43702</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1090" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1090" s="1"/>
+      <c r="H1090" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1090" s="1">
+        <v>1088</v>
+      </c>
+      <c r="J1090" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:10">
+      <c r="A1091" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1091" s="7">
+        <v>43702</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1091" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1091" s="1"/>
+      <c r="H1091" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I1091" s="1">
+        <v>1089</v>
+      </c>
+      <c r="J1091" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:10">
+      <c r="A1092" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1092" s="7">
+        <v>43703</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1092" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1092" s="1"/>
+      <c r="H1092" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1092" s="1">
+        <v>1090</v>
+      </c>
+      <c r="J1092" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10">
+      <c r="A1093" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1093" s="7">
+        <v>43703</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1093" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1093" s="1"/>
+      <c r="H1093" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1093" s="1">
+        <v>1091</v>
+      </c>
+      <c r="J1093" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:10">
+      <c r="A1094" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1094" s="7">
+        <v>43703</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1094" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1094" s="1"/>
+      <c r="H1094" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1094" s="1">
+        <v>1092</v>
+      </c>
+      <c r="J1094" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10">
+      <c r="A1095" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1095" s="7">
+        <v>43703</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1095" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1095" s="1"/>
+      <c r="H1095" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1095" s="1">
+        <v>1093</v>
+      </c>
+      <c r="J1095" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="1006">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3026,6 +3026,12 @@
   </si>
   <si>
     <t>λεμονίτα</t>
+  </si>
+  <si>
+    <t>γρανίτα σοκολάτα με Καλλιοτζίδη</t>
+  </si>
+  <si>
+    <t>2 falafel και 1 monster από τον Γρηγόρη Συγγρού</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3183,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1095" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1097" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3479,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1095"/>
+  <dimension ref="A1:L1097"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1073" workbookViewId="0">
-      <selection activeCell="I1083" sqref="I1083:I1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="D1098" sqref="D1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35669,6 +35675,66 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1096" spans="1:10">
+      <c r="A1096" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1096" s="7">
+        <v>43703</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1096" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1096" s="1"/>
+      <c r="H1096" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1096" s="1">
+        <v>1094</v>
+      </c>
+      <c r="J1096" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:10">
+      <c r="A1097" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1097" s="7">
+        <v>43705</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1097" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1097" s="1"/>
+      <c r="H1097" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1097" s="1">
+        <v>1095</v>
+      </c>
+      <c r="J1097" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="1023">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3032,6 +3032,57 @@
   </si>
   <si>
     <t>2 falafel και 1 monster από τον Γρηγόρη Συγγρού</t>
+  </si>
+  <si>
+    <t>(+ coca-cola και τσιγάρα μανούλας)</t>
+  </si>
+  <si>
+    <t>καφές (+ Νίκου)</t>
+  </si>
+  <si>
+    <t>σοκοφρέτα (+ coca-cola Μαρίας)</t>
+  </si>
+  <si>
+    <t>οικολογικό σουβλάκι στο nesta</t>
+  </si>
+  <si>
+    <t>200 followers</t>
+  </si>
+  <si>
+    <t>κουλούρι με σοκολάτα, μπαστούνια τυριού, monster και καφέ από την σχολή</t>
+  </si>
+  <si>
+    <t>καφέ με Ζήση στο μπρίκι</t>
+  </si>
+  <si>
+    <t>τσάι ροδάκινο στην καφετέρια του Πανελληνίου</t>
+  </si>
+  <si>
+    <t>app για το κινητό</t>
+  </si>
+  <si>
+    <t>RFID reader και αδειες κάρτες</t>
+  </si>
+  <si>
+    <t>axe για τον άνδρα</t>
+  </si>
+  <si>
+    <t>τσάι του βουνού</t>
+  </si>
+  <si>
+    <t>καφές στην πλατεία Γεωργίου με Αγίλαρα βαγγελιώ και ξαδερφια</t>
+  </si>
+  <si>
+    <t>μπύρα radler και παγωτό με Νικηφόρο</t>
+  </si>
+  <si>
+    <t>κρουασάν βουτήρου Φουρναριό και τυρόπιτα από το κηλικείο σχολής</t>
+  </si>
+  <si>
+    <t>πατατάκια με πάπρικα</t>
+  </si>
+  <si>
+    <t>αεροπορικά για Βιέννη</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3234,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1097" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1118" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3485,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1097"/>
+  <dimension ref="A1:L1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
-      <selection activeCell="D1098" sqref="D1098"/>
+    <sheetView tabSelected="1" topLeftCell="C1100" workbookViewId="0">
+      <selection activeCell="I1096" sqref="I1096:I1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3496,7 +3547,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -35735,6 +35786,636 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1098" spans="1:10">
+      <c r="A1098" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1098" s="7">
+        <v>43706</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1098" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1098" s="1"/>
+      <c r="H1098" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1098" s="1">
+        <v>1096</v>
+      </c>
+      <c r="J1098" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10">
+      <c r="A1099" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1099" s="7">
+        <v>43707</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1099" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1099" s="1"/>
+      <c r="H1099" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1099" s="1">
+        <v>1097</v>
+      </c>
+      <c r="J1099" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:10">
+      <c r="A1100" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1100" s="7">
+        <v>43707</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1100" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1100" s="1"/>
+      <c r="H1100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1100" s="1">
+        <v>1098</v>
+      </c>
+      <c r="J1100" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:10">
+      <c r="A1101" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1101" s="7">
+        <v>43707</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1101" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1101" s="1"/>
+      <c r="H1101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1101" s="1">
+        <v>1099</v>
+      </c>
+      <c r="J1101" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:10">
+      <c r="A1102" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1102" s="7">
+        <v>43710</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1102" s="1"/>
+      <c r="H1102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1102" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J1102" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10">
+      <c r="A1103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1103" s="7">
+        <v>43710</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1103" s="1"/>
+      <c r="H1103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1103" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J1103" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10">
+      <c r="A1104" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1104" s="7">
+        <v>43710</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1104" s="1"/>
+      <c r="H1104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1104" s="1">
+        <v>1102</v>
+      </c>
+      <c r="J1104" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:10">
+      <c r="A1105" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1105" s="7">
+        <v>43712</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1105" s="1"/>
+      <c r="H1105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1105" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J1105" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10">
+      <c r="A1106" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1106" s="7">
+        <v>43712</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1106" s="1"/>
+      <c r="H1106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1106" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J1106" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:10">
+      <c r="A1107" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1107" s="7">
+        <v>43712</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1107" s="1"/>
+      <c r="H1107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1107" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J1107" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:10">
+      <c r="A1108" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1108" s="7">
+        <v>43713</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1108" s="1"/>
+      <c r="H1108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1108" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J1108" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:10">
+      <c r="A1109" s="1">
+        <v>16</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1109" s="7">
+        <v>43713</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1109" s="1"/>
+      <c r="H1109" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1109" s="1">
+        <v>1107</v>
+      </c>
+      <c r="J1109" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:10">
+      <c r="A1110" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1110" s="7">
+        <v>43713</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1110" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1110" s="1"/>
+      <c r="H1110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1110" s="1">
+        <v>1108</v>
+      </c>
+      <c r="J1110" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:10">
+      <c r="A1111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1111" s="7">
+        <v>43713</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1111" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1111" s="1"/>
+      <c r="H1111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1111" s="1">
+        <v>1109</v>
+      </c>
+      <c r="J1111" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:10">
+      <c r="A1112" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1112" s="7">
+        <v>43713</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1112" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1112" s="1"/>
+      <c r="H1112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1112" s="1">
+        <v>1110</v>
+      </c>
+      <c r="J1112" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:10">
+      <c r="A1113" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1113" s="7">
+        <v>43715</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1113" s="1"/>
+      <c r="H1113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1113" s="1">
+        <v>1111</v>
+      </c>
+      <c r="J1113" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:10">
+      <c r="A1114" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1114" s="7">
+        <v>43716</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1114" s="1"/>
+      <c r="H1114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1114" s="1">
+        <v>1112</v>
+      </c>
+      <c r="J1114" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:10">
+      <c r="A1115" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1115" s="7">
+        <v>43718</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1115" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1115" s="1"/>
+      <c r="H1115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1115" s="1">
+        <v>1113</v>
+      </c>
+      <c r="J1115" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:10">
+      <c r="A1116" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1116" s="7">
+        <v>43718</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1116" s="1"/>
+      <c r="H1116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1116" s="1">
+        <v>1114</v>
+      </c>
+      <c r="J1116" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:10">
+      <c r="A1117" s="1">
+        <v>57</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1117" s="7">
+        <v>43718</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1117" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1117" s="1"/>
+      <c r="H1117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1117" s="1">
+        <v>1115</v>
+      </c>
+      <c r="J1117" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:10">
+      <c r="A1118" s="1">
+        <v>29.98</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1118" s="7">
+        <v>43718</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1118" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1118" s="1"/>
+      <c r="H1118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1118" s="1">
+        <v>1116</v>
+      </c>
+      <c r="J1118" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1035">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3083,6 +3083,42 @@
   </si>
   <si>
     <t>αεροπορικά για Βιέννη</t>
+  </si>
+  <si>
+    <t>διπλός ελληνικός σκέτος με Παπαγιάννη στον Παννελήνιο καφέ</t>
+  </si>
+  <si>
+    <t>McDonalds (+ Τσάβας)</t>
+  </si>
+  <si>
+    <t>σε καποιον αλκοολικό</t>
+  </si>
+  <si>
+    <t>γραβιερόπιτα με κουλούρι μαύρης σοκολάτας από το κηλικείο</t>
+  </si>
+  <si>
+    <t>πεϊιρλί με πέστο και παρμεζάνα</t>
+  </si>
+  <si>
+    <t>powerade και νερό (+Σγδούμπο) στο ΟΑΚΑ</t>
+  </si>
+  <si>
+    <t>ζελεδάκια (+ coca-cola μάνας)</t>
+  </si>
+  <si>
+    <t>τσάι πριν πάει Χωράφα</t>
+  </si>
+  <si>
+    <t>ντάκος με μιχάλη στην καφετέρια του Πανελληνίου</t>
+  </si>
+  <si>
+    <t>ομελέτα με πατάτες και χωριάτικη με Αγιλαρίνι</t>
+  </si>
+  <si>
+    <t>emergency braker</t>
+  </si>
+  <si>
+    <t>μπισκότα</t>
   </si>
 </sst>
 </file>
@@ -3234,7 +3270,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1118" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1136" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3536,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1118"/>
+  <dimension ref="A1:L1136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1100" workbookViewId="0">
-      <selection activeCell="I1096" sqref="I1096:I1118"/>
+    <sheetView tabSelected="1" topLeftCell="H1113" workbookViewId="0">
+      <selection activeCell="J1137" sqref="J1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36416,6 +36452,546 @@
         <v>646</v>
       </c>
     </row>
+    <row r="1119" spans="1:10">
+      <c r="A1119" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1119" s="7">
+        <v>43719</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1119" s="1"/>
+      <c r="H1119" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1119" s="1">
+        <v>1117</v>
+      </c>
+      <c r="J1119" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:10">
+      <c r="A1120" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1120" s="7">
+        <v>43721</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1120" s="1"/>
+      <c r="H1120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1120" s="1">
+        <v>1118</v>
+      </c>
+      <c r="J1120" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:10">
+      <c r="A1121" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1121" s="7">
+        <v>43722</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1121" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1121" s="1"/>
+      <c r="H1121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1121" s="1">
+        <v>1119</v>
+      </c>
+      <c r="J1121" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10">
+      <c r="A1122" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1122" s="7">
+        <v>43723</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1122" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1122" s="1"/>
+      <c r="H1122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1122" s="1">
+        <v>1120</v>
+      </c>
+      <c r="J1122" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:10">
+      <c r="A1123" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1123" s="7">
+        <v>43723</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1123" s="1"/>
+      <c r="H1123" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1123" s="1">
+        <v>1121</v>
+      </c>
+      <c r="J1123" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:10">
+      <c r="A1124" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1124" s="7">
+        <v>43723</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1124" s="1"/>
+      <c r="H1124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1124" s="1">
+        <v>1122</v>
+      </c>
+      <c r="J1124" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:10">
+      <c r="A1125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1125" s="7">
+        <v>43724</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1125" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1125" s="1"/>
+      <c r="H1125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1125" s="1">
+        <v>1123</v>
+      </c>
+      <c r="J1125" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:10">
+      <c r="A1126" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1126" s="7">
+        <v>43724</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1126" s="1"/>
+      <c r="H1126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1126" s="1">
+        <v>1124</v>
+      </c>
+      <c r="J1126" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:10">
+      <c r="A1127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1127" s="7">
+        <v>43724</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1127" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1127" s="1"/>
+      <c r="H1127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1127" s="1">
+        <v>1125</v>
+      </c>
+      <c r="J1127" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:10">
+      <c r="A1128" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1128" s="7">
+        <v>43725</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1128" s="1"/>
+      <c r="H1128" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1128" s="1">
+        <v>1126</v>
+      </c>
+      <c r="J1128" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:10">
+      <c r="A1129" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1129" s="7">
+        <v>43725</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1129" s="1"/>
+      <c r="H1129" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1129" s="1">
+        <v>1127</v>
+      </c>
+      <c r="J1129" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:10">
+      <c r="A1130" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1130" s="7">
+        <v>43725</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1130" s="1"/>
+      <c r="H1130" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1130" s="1">
+        <v>1128</v>
+      </c>
+      <c r="J1130" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:10">
+      <c r="A1131" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1131" s="7">
+        <v>43726</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1131" s="1"/>
+      <c r="H1131" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="J1131" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:10">
+      <c r="A1132" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1132" s="7">
+        <v>43726</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E1132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1132" s="1"/>
+      <c r="H1132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1132" s="1">
+        <v>1130</v>
+      </c>
+      <c r="J1132" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:10">
+      <c r="A1133" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1133" s="7">
+        <v>43728</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1133" s="1"/>
+      <c r="H1133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1133" s="1">
+        <v>1131</v>
+      </c>
+      <c r="J1133" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:10">
+      <c r="A1134" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1134" s="7">
+        <v>43728</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E1134" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1134" s="1"/>
+      <c r="H1134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="J1134" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:10">
+      <c r="A1135" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1135" s="7">
+        <v>43728</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1135" s="1"/>
+      <c r="H1135" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="J1135" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:10">
+      <c r="A1136" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1136" s="7">
+        <v>43729</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1136" s="1"/>
+      <c r="H1136" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="J1136" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="1042">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3119,6 +3119,27 @@
   </si>
   <si>
     <t>μπισκότα</t>
+  </si>
+  <si>
+    <t>σερμπετόσπιτο (+ Σάσαρη) με Μαλταμπε και Μυτρώ</t>
+  </si>
+  <si>
+    <t>2 κουτάκια αμύγδαλα</t>
+  </si>
+  <si>
+    <t>τσίχλες έξω από το Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>κρέπα με Αλίκη και Νίκο στο άλσος Περιστερίου</t>
+  </si>
+  <si>
+    <t>είσοδος στο six dogs με Σάσαρη, Φακίνο, Αγίλαρα, Μαντώ, Καστανά …</t>
+  </si>
+  <si>
+    <t>μπύρα στο six dogs</t>
+  </si>
+  <si>
+    <t>ένα κομμάτι πίτσα μαργαρίτα</t>
   </si>
 </sst>
 </file>
@@ -3270,7 +3291,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1136" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J1138" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -3572,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1136"/>
+  <dimension ref="A1:L1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1113" workbookViewId="0">
-      <selection activeCell="J1137" sqref="J1137"/>
+    <sheetView tabSelected="1" topLeftCell="C1128" workbookViewId="0">
+      <selection activeCell="I1139" sqref="I1139:I1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36992,6 +37013,240 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1137" spans="1:10">
+      <c r="A1137" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1137" s="7">
+        <v>43731</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1137" s="1"/>
+      <c r="H1137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="J1137" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:10">
+      <c r="A1138" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1138" s="7">
+        <v>43731</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E1138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1138" s="1"/>
+      <c r="H1138" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="J1138" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:10">
+      <c r="A1139">
+        <v>13</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1139" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1139">
+        <v>5</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1139">
+        <v>1137</v>
+      </c>
+      <c r="J1139" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:10">
+      <c r="A1140">
+        <v>5.5</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1140" s="2">
+        <v>43735</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1140">
+        <v>5</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1140">
+        <v>1138</v>
+      </c>
+      <c r="J1140" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:10">
+      <c r="A1141">
+        <v>5</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1141" s="2">
+        <v>43737</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1141">
+        <v>5</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1141">
+        <v>1139</v>
+      </c>
+      <c r="J1141" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:10">
+      <c r="A1142">
+        <v>5</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1142" s="2">
+        <v>43737</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1142">
+        <v>5</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1142">
+        <v>1140</v>
+      </c>
+      <c r="J1142" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:10">
+      <c r="A1143">
+        <v>6</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1143" s="2">
+        <v>43737</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1143">
+        <v>5</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1143">
+        <v>1141</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:10">
+      <c r="A1144">
+        <v>3</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1144" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1144">
+        <v>5</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1144">
+        <v>1142</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="1045">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3140,6 +3140,15 @@
   </si>
   <si>
     <t>ένα κομμάτι πίτσα μαργαρίτα</t>
+  </si>
+  <si>
+    <t>likes και 100 αποθηκεύσεις στο instagram</t>
+  </si>
+  <si>
+    <t>νερά στο Ο.Α.Κ.Α (+ 1 νερό στον Γρηγόρη)</t>
+  </si>
+  <si>
+    <t>gopro case από το GearBest</t>
   </si>
 </sst>
 </file>
@@ -3593,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1144"/>
+  <dimension ref="A1:L1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1128" workbookViewId="0">
-      <selection activeCell="I1139" sqref="I1139:I1144"/>
+    <sheetView tabSelected="1" topLeftCell="C1129" workbookViewId="0">
+      <selection activeCell="J1148" sqref="J1148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37247,6 +37256,93 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1145" spans="1:10">
+      <c r="A1145">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1145" s="2">
+        <v>43739</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1145">
+        <v>5</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1145">
+        <v>1143</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:10">
+      <c r="A1146">
+        <v>2</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1146" s="2">
+        <v>43739</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1146">
+        <v>4</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1146">
+        <v>1144</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:10">
+      <c r="A1147">
+        <v>2.83</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1147" s="2">
+        <v>43740</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1147">
+        <v>4</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1147">
+        <v>1145</v>
+      </c>
+      <c r="J1147" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="1051">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3149,6 +3149,24 @@
   </si>
   <si>
     <t>gopro case από το GearBest</t>
+  </si>
+  <si>
+    <t>κρέπα σοκολάτα μπισκότο στην Αττική στην απεργία</t>
+  </si>
+  <si>
+    <t>μπύρα με Σάσαρη και Φικούλα στην Arch</t>
+  </si>
+  <si>
+    <t>καφέ με Τσίρο Τζιβίσκο και Χοχτούλα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pancake με Μαλταμπέ και την παρέα της </t>
+  </si>
+  <si>
+    <t>caprice</t>
+  </si>
+  <si>
+    <t>πίτσα και γραβιερόπιτα από την victoria</t>
   </si>
 </sst>
 </file>
@@ -3602,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1147"/>
+  <dimension ref="A1:L1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1129" workbookViewId="0">
-      <selection activeCell="J1148" sqref="J1148"/>
+    <sheetView tabSelected="1" topLeftCell="C1139" workbookViewId="0">
+      <selection activeCell="H1154" sqref="H1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36604,7 +36622,7 @@
     </row>
     <row r="1123" spans="1:10">
       <c r="A1123" s="1">
-        <v>7.2</v>
+        <v>8.36</v>
       </c>
       <c r="B1123" s="1" t="s">
         <v>207</v>
@@ -37341,6 +37359,180 @@
       </c>
       <c r="J1147" t="s">
         <v>646</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:10">
+      <c r="A1148">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1148" s="2">
+        <v>43741</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1148">
+        <v>4</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1148">
+        <v>1146</v>
+      </c>
+      <c r="J1148" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:10">
+      <c r="A1149">
+        <v>3</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1149" s="2">
+        <v>43741</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1149">
+        <v>4</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1149">
+        <v>1147</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:10">
+      <c r="A1150">
+        <v>4</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1150" s="2">
+        <v>43743</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1150">
+        <v>5</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1150">
+        <v>1148</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:10">
+      <c r="A1151">
+        <v>5.5</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1151" s="2">
+        <v>43743</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1151">
+        <v>5</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1151">
+        <v>1149</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:10">
+      <c r="A1152">
+        <v>1.7</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1152" s="2">
+        <v>43745</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1152">
+        <v>5</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1152">
+        <v>1150</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:10">
+      <c r="A1153">
+        <v>3.8</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1153" s="2">
+        <v>43747</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1153">
+        <v>5</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1153">
+        <v>1151</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="1055">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3167,6 +3167,18 @@
   </si>
   <si>
     <t>πίτσα και γραβιερόπιτα από την victoria</t>
+  </si>
+  <si>
+    <t>παπούτσια άρσης βαρών</t>
+  </si>
+  <si>
+    <t>αμύγδαλα καρύδια και πουράκια caprice με capuchino</t>
+  </si>
+  <si>
+    <t>(+ Σουβλάκια μανούλας)</t>
+  </si>
+  <si>
+    <t>vegeterian burger με ανανά με Νικολόπουλο και Ελίνα</t>
   </si>
 </sst>
 </file>
@@ -3620,10 +3632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1153"/>
+  <dimension ref="A1:L1157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1139" workbookViewId="0">
-      <selection activeCell="H1154" sqref="H1154"/>
+    <sheetView tabSelected="1" topLeftCell="C1149" workbookViewId="0">
+      <selection activeCell="I1152" sqref="I1152:I1157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37535,6 +37547,122 @@
         <v>639</v>
       </c>
     </row>
+    <row r="1154" spans="1:10">
+      <c r="A1154">
+        <v>14.93</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1154" s="2">
+        <v>43750</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1154">
+        <v>5</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1154">
+        <v>1152</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10">
+      <c r="A1155">
+        <v>44.98</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1155" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1155">
+        <v>5</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1155">
+        <v>1153</v>
+      </c>
+      <c r="J1155" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:10">
+      <c r="A1156">
+        <v>10.8</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1156">
+        <v>5</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1156">
+        <v>1154</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:10">
+      <c r="A1157">
+        <v>5</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1157" s="2">
+        <v>43752</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1157">
+        <v>5</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1157">
+        <v>1155</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="1066">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3179,6 +3179,39 @@
   </si>
   <si>
     <t>vegeterian burger με ανανά με Νικολόπουλο και Ελίνα</t>
+  </si>
+  <si>
+    <t>παγωτό με Τσάβα στην παραλία</t>
+  </si>
+  <si>
+    <t>γραβιερόπιτα και στικς από το κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>για 5ήμερη για κάτι παιδιά</t>
+  </si>
+  <si>
+    <t>καφές με Μιχάλη και Ειρήνη στην Μαρίνα Ζέας</t>
+  </si>
+  <si>
+    <t>pringles και 3 τσίχλες</t>
+  </si>
+  <si>
+    <t>δώρο Πηνελόπης</t>
+  </si>
+  <si>
+    <t>2 πακέτα κρουασίνια</t>
+  </si>
+  <si>
+    <t>στην μανούλα για βενζίνη και λοιπά</t>
+  </si>
+  <si>
+    <t>μπύρα με Αγίλαρα</t>
+  </si>
+  <si>
+    <t>1000 followers for Jesters Instagram account</t>
+  </si>
+  <si>
+    <t>κούρεμα (+ το επόμενο)</t>
   </si>
 </sst>
 </file>
@@ -3632,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1157"/>
+  <dimension ref="A1:L1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1149" workbookViewId="0">
-      <selection activeCell="I1152" sqref="I1152:I1157"/>
+    <sheetView tabSelected="1" topLeftCell="C1157" workbookViewId="0">
+      <selection activeCell="D1171" sqref="D1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37663,6 +37696,344 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1158" spans="1:10">
+      <c r="A1158">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1158" s="2">
+        <v>43754</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1158">
+        <v>5</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>905</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:10">
+      <c r="A1159">
+        <v>1.4</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1159" s="2">
+        <v>43754</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1159">
+        <v>5</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:10">
+      <c r="A1160">
+        <v>1</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1160" s="2">
+        <v>43754</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1160">
+        <v>5</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:10">
+      <c r="A1161">
+        <v>3.5</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>43756</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1161">
+        <v>4</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:10">
+      <c r="A1162">
+        <v>1</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>43756</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1162">
+        <v>5</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:10">
+      <c r="A1163">
+        <v>2.5</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>43756</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1163">
+        <v>5</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:10">
+      <c r="A1164">
+        <v>3</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1164" s="2">
+        <v>43756</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1164">
+        <v>5</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:10">
+      <c r="A1165">
+        <v>4</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1165" s="2">
+        <v>43757</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1165">
+        <v>5</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>602</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:10">
+      <c r="A1166">
+        <v>20</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>43758</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1166">
+        <v>5</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:10">
+      <c r="A1167">
+        <v>2.5</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1167" s="2">
+        <v>43759</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1167">
+        <v>5</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:10">
+      <c r="A1168">
+        <v>2</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1168" s="2">
+        <v>43759</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1168">
+        <v>5</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:10">
+      <c r="A1169">
+        <v>12.15</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>43760</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1169">
+        <v>5</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:10">
+      <c r="A1170">
+        <v>20</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1170" s="2">
+        <v>43760</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1170">
+        <v>5</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5922" uniqueCount="1079">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3212,6 +3212,45 @@
   </si>
   <si>
     <t>κούρεμα (+ το επόμενο)</t>
+  </si>
+  <si>
+    <t>τετράδιο γόμα και ξύστρα</t>
+  </si>
+  <si>
+    <t>φωτογραφίες για δελτίο μεταγραφής στον Κάλλιστο</t>
+  </si>
+  <si>
+    <t>hell στο περίπτερο στο Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>4 ώρες παιχνίδι στo internet café με Νικολόπουλο και Κουφόπουλο</t>
+  </si>
+  <si>
+    <t>πίτσα μαργαρίτα στο Mall με Νικολόπουλο και Κουφόπουλο</t>
+  </si>
+  <si>
+    <t>νερό στο O.A.K.A</t>
+  </si>
+  <si>
+    <t>εισητήριο για Καλαμπάκα με ΚΤΕΛ μαζί με Αγιλαρίνι</t>
+  </si>
+  <si>
+    <t>Caprice νερό (+ κριτσίνια νερό Αγίλαρας)</t>
+  </si>
+  <si>
+    <t>τρένο για Τρίκαλα με Γεωργία</t>
+  </si>
+  <si>
+    <t>ουζο με μεζέδες</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ για καλαμπάκα από τρίκαλα</t>
+  </si>
+  <si>
+    <t>Ag.Dimitrios</t>
+  </si>
+  <si>
+    <t>Trikala</t>
   </si>
 </sst>
 </file>
@@ -3665,10 +3704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1170"/>
+  <dimension ref="A1:L1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1157" workbookViewId="0">
-      <selection activeCell="D1171" sqref="D1171"/>
+    <sheetView tabSelected="1" topLeftCell="F1159" workbookViewId="0">
+      <selection activeCell="J1171" sqref="J1171:J1182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37718,6 +37757,9 @@
       <c r="H1158" t="s">
         <v>905</v>
       </c>
+      <c r="I1158">
+        <v>1156</v>
+      </c>
       <c r="J1158" t="s">
         <v>637</v>
       </c>
@@ -37744,6 +37786,9 @@
       <c r="H1159" t="s">
         <v>228</v>
       </c>
+      <c r="I1159">
+        <v>1157</v>
+      </c>
       <c r="J1159" t="s">
         <v>637</v>
       </c>
@@ -37770,6 +37815,9 @@
       <c r="H1160" t="s">
         <v>244</v>
       </c>
+      <c r="I1160">
+        <v>1158</v>
+      </c>
       <c r="J1160" t="s">
         <v>637</v>
       </c>
@@ -37796,6 +37844,9 @@
       <c r="H1161" t="s">
         <v>228</v>
       </c>
+      <c r="I1161">
+        <v>1159</v>
+      </c>
       <c r="J1161" t="s">
         <v>637</v>
       </c>
@@ -37822,6 +37873,9 @@
       <c r="H1162" t="s">
         <v>228</v>
       </c>
+      <c r="I1162">
+        <v>1160</v>
+      </c>
       <c r="J1162" t="s">
         <v>637</v>
       </c>
@@ -37848,6 +37902,9 @@
       <c r="H1163" t="s">
         <v>228</v>
       </c>
+      <c r="I1163">
+        <v>1161</v>
+      </c>
       <c r="J1163" t="s">
         <v>637</v>
       </c>
@@ -37874,6 +37931,9 @@
       <c r="H1164" t="s">
         <v>228</v>
       </c>
+      <c r="I1164">
+        <v>1162</v>
+      </c>
       <c r="J1164" t="s">
         <v>637</v>
       </c>
@@ -37900,6 +37960,9 @@
       <c r="H1165" t="s">
         <v>602</v>
       </c>
+      <c r="I1165">
+        <v>1163</v>
+      </c>
       <c r="J1165" t="s">
         <v>637</v>
       </c>
@@ -37926,6 +37989,9 @@
       <c r="H1166" t="s">
         <v>224</v>
       </c>
+      <c r="I1166">
+        <v>1164</v>
+      </c>
       <c r="J1166" t="s">
         <v>637</v>
       </c>
@@ -37952,6 +38018,9 @@
       <c r="H1167" t="s">
         <v>231</v>
       </c>
+      <c r="I1167">
+        <v>1165</v>
+      </c>
       <c r="J1167" t="s">
         <v>637</v>
       </c>
@@ -37978,6 +38047,9 @@
       <c r="H1168" t="s">
         <v>224</v>
       </c>
+      <c r="I1168">
+        <v>1166</v>
+      </c>
       <c r="J1168" t="s">
         <v>637</v>
       </c>
@@ -38004,6 +38076,9 @@
       <c r="H1169" t="s">
         <v>224</v>
       </c>
+      <c r="I1169">
+        <v>1167</v>
+      </c>
       <c r="J1169" t="s">
         <v>646</v>
       </c>
@@ -38030,9 +38105,363 @@
       <c r="H1170" t="s">
         <v>224</v>
       </c>
+      <c r="I1170">
+        <v>1168</v>
+      </c>
       <c r="J1170" t="s">
         <v>637</v>
       </c>
+    </row>
+    <row r="1171" spans="1:10">
+      <c r="A1171">
+        <v>15</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1171">
+        <v>5</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1171">
+        <v>1169</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:10">
+      <c r="A1172">
+        <v>4</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1172" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1172">
+        <v>5</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1172">
+        <v>1170</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:10">
+      <c r="A1173">
+        <v>5</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1173" s="2">
+        <v>43762</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1173">
+        <v>5</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1173">
+        <v>1171</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:10">
+      <c r="A1174">
+        <v>1</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1174" s="2">
+        <v>43762</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1174">
+        <v>5</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1174">
+        <v>1172</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:10">
+      <c r="A1175">
+        <v>4</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1175" s="2">
+        <v>43763</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1175">
+        <v>5</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1175">
+        <v>1173</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:10">
+      <c r="A1176">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>43763</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1176">
+        <v>5</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1176">
+        <v>1174</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:10">
+      <c r="A1177">
+        <v>1</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1177" s="2">
+        <v>43764</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1177">
+        <v>5</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1177">
+        <v>1175</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:10">
+      <c r="A1178">
+        <v>23.9</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1178" s="2">
+        <v>43764</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1178">
+        <v>5</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1178">
+        <v>1176</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:10">
+      <c r="A1179">
+        <v>3.8</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1179" s="2">
+        <v>43764</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1179">
+        <v>5</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1179">
+        <v>1177</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:10">
+      <c r="A1180">
+        <v>1.4</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1180" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1180">
+        <v>5</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1180">
+        <v>1178</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:10">
+      <c r="A1181">
+        <v>6</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1181" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1181">
+        <v>5</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I1181">
+        <v>1179</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:10">
+      <c r="A1182">
+        <v>1.3</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1182" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1182">
+        <v>5</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I1182">
+        <v>1180</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:10">
+      <c r="C1183" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5922" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="1082">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3251,6 +3251,15 @@
   </si>
   <si>
     <t>Trikala</t>
+  </si>
+  <si>
+    <t>κρουασίνια κρουασάν και coca-cola με στέβια</t>
+  </si>
+  <si>
+    <t>2 κομμάτια πίτσα χωριάτικη</t>
+  </si>
+  <si>
+    <t>2 caprice</t>
   </si>
 </sst>
 </file>
@@ -3704,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1183"/>
+  <dimension ref="A1:L1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1159" workbookViewId="0">
-      <selection activeCell="J1171" sqref="J1171:J1182"/>
+    <sheetView tabSelected="1" topLeftCell="D1170" workbookViewId="0">
+      <selection activeCell="I1181" sqref="I1181:I1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38346,7 +38355,7 @@
     </row>
     <row r="1179" spans="1:10">
       <c r="A1179">
-        <v>3.8</v>
+        <v>3.13</v>
       </c>
       <c r="B1179" t="s">
         <v>207</v>
@@ -38461,7 +38470,149 @@
       </c>
     </row>
     <row r="1183" spans="1:10">
-      <c r="C1183" s="2"/>
+      <c r="A1183">
+        <v>1</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>43767</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1183">
+        <v>5</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1183">
+        <v>1181</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:10">
+      <c r="A1184">
+        <v>1</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1184" s="2">
+        <v>43767</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1184">
+        <v>5</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1184">
+        <v>1182</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10">
+      <c r="A1185">
+        <v>2.8</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1185" s="2">
+        <v>43768</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1185">
+        <v>5</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1185">
+        <v>1183</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:10">
+      <c r="A1186">
+        <v>3.8</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>43768</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1186">
+        <v>5</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1186">
+        <v>1184</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:10">
+      <c r="A1187">
+        <v>5.09</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>43768</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1187">
+        <v>5</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1187">
+        <v>1185</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>637</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="1088">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3260,6 +3260,24 @@
   </si>
   <si>
     <t>2 caprice</t>
+  </si>
+  <si>
+    <t>taxi από Ανθούπολη στο σπίτι</t>
+  </si>
+  <si>
+    <t>ελληνικός καφές με Κούρο για την διαφήμιση</t>
+  </si>
+  <si>
+    <t>Nea Filladelphia</t>
+  </si>
+  <si>
+    <t>κρέμες στιγμής και ταϊλανδέζικο ρύζι</t>
+  </si>
+  <si>
+    <t>Κουλούρι μπάρα και καφέ από τα coffee island</t>
+  </si>
+  <si>
+    <t>Εισητήριο για τον Joker με την Ζωή Πρέντη (+ Ζωής)</t>
   </si>
 </sst>
 </file>
@@ -3713,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1187"/>
+  <dimension ref="A1:L1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1170" workbookViewId="0">
-      <selection activeCell="I1181" sqref="I1181:I1187"/>
+    <sheetView tabSelected="1" topLeftCell="C1185" workbookViewId="0">
+      <selection activeCell="J1194" sqref="J1194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38614,6 +38632,209 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1188" spans="1:10">
+      <c r="A1188">
+        <v>3.5</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1188" s="2">
+        <v>43772</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1188">
+        <v>3</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1188">
+        <v>1186</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10">
+      <c r="A1189">
+        <v>1.6</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1189" s="2">
+        <v>43772</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1189">
+        <v>4</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I1189">
+        <v>1187</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10">
+      <c r="A1190">
+        <v>8.35</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>43773</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1190">
+        <v>5</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1190">
+        <v>1188</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10">
+      <c r="A1191">
+        <v>1</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>43774</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1191">
+        <v>4</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1191">
+        <v>1189</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10">
+      <c r="A1192">
+        <v>4</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1192" s="2">
+        <v>43774</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1192">
+        <v>4</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1192">
+        <v>1190</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10">
+      <c r="A1193">
+        <v>15</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1193" s="2">
+        <v>43774</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1193">
+        <v>5</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1193">
+        <v>1191</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:10">
+      <c r="A1194">
+        <v>7.5</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1194" s="2">
+        <v>43774</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1194">
+        <v>5</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1194">
+        <v>1192</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="1090">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3278,6 +3278,12 @@
   </si>
   <si>
     <t>Εισητήριο για τον Joker με την Ζωή Πρέντη (+ Ζωής)</t>
+  </si>
+  <si>
+    <t>κουλούρι με ελιά και τυρί, σάντουιτς με χωριάτικη και ντόνατ</t>
+  </si>
+  <si>
+    <t>πατατάκια με μπαρμπεκιου και 2 τσίχλες</t>
   </si>
 </sst>
 </file>
@@ -3731,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1194"/>
+  <dimension ref="A1:L1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1185" workbookViewId="0">
-      <selection activeCell="J1194" sqref="J1194"/>
+    <sheetView tabSelected="1" topLeftCell="A1185" workbookViewId="0">
+      <selection activeCell="C1198" sqref="C1198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38835,6 +38841,93 @@
         <v>646</v>
       </c>
     </row>
+    <row r="1195" spans="1:10">
+      <c r="A1195">
+        <v>4</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>43775</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1195">
+        <v>5</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1195">
+        <v>1193</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:10">
+      <c r="A1196">
+        <v>1.5</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>43775</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1196">
+        <v>5</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1196">
+        <v>1194</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:10">
+      <c r="A1197">
+        <v>1.7</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1197" s="2">
+        <v>43775</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1197">
+        <v>5</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1197">
+        <v>1195</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="1093">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3277,13 +3277,22 @@
     <t>Κουλούρι μπάρα και καφέ από τα coffee island</t>
   </si>
   <si>
-    <t>Εισητήριο για τον Joker με την Ζωή Πρέντη (+ Ζωής)</t>
-  </si>
-  <si>
     <t>κουλούρι με ελιά και τυρί, σάντουιτς με χωριάτικη και ντόνατ</t>
   </si>
   <si>
     <t>πατατάκια με μπαρμπεκιου και 2 τσίχλες</t>
+  </si>
+  <si>
+    <t>Εισητήριο για τον Joker +</t>
+  </si>
+  <si>
+    <t>μπύρα Μύθος με Αντώνη Φρυδερίκη και Νάσια</t>
+  </si>
+  <si>
+    <t>φλοφέρα με φιλαδέλφια και κρουασάν σοκολάτας</t>
+  </si>
+  <si>
+    <t>κασερόπιτα, κρουασανάκια σοκολάτας και capuccino σκέτο</t>
   </si>
 </sst>
 </file>
@@ -3737,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1197"/>
+  <dimension ref="A1:L1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1185" workbookViewId="0">
-      <selection activeCell="C1198" sqref="C1198"/>
+    <sheetView tabSelected="1" topLeftCell="E1185" workbookViewId="0">
+      <selection activeCell="J1201" sqref="J1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38823,7 +38832,7 @@
         <v>43774</v>
       </c>
       <c r="D1194" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E1194" t="s">
         <v>221</v>
@@ -38852,7 +38861,7 @@
         <v>43775</v>
       </c>
       <c r="D1195" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E1195" t="s">
         <v>221</v>
@@ -38881,10 +38890,10 @@
         <v>43775</v>
       </c>
       <c r="D1196" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E1196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1196">
         <v>5</v>
@@ -38913,7 +38922,7 @@
         <v>914</v>
       </c>
       <c r="E1197" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1197">
         <v>5</v>
@@ -38926,6 +38935,93 @@
       </c>
       <c r="J1197" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:10">
+      <c r="A1198">
+        <v>4</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1198" s="2">
+        <v>43778</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1198">
+        <v>5</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1198">
+        <v>1196</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10">
+      <c r="A1199">
+        <v>3.6</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1199" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1199">
+        <v>4</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1199">
+        <v>1197</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10">
+      <c r="A1200">
+        <v>5.65</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1200" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1200">
+        <v>5</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1200">
+        <v>1198</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6082" uniqueCount="1108">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3293,6 +3293,51 @@
   </si>
   <si>
     <t>κασερόπιτα, κρουασανάκια σοκολάτας και capuccino σκέτο</t>
+  </si>
+  <si>
+    <t>goodys με Δέσποινα</t>
+  </si>
+  <si>
+    <t>monster και fruits από 7days</t>
+  </si>
+  <si>
+    <t>Exarcheia</t>
+  </si>
+  <si>
+    <t>Doukisis</t>
+  </si>
+  <si>
+    <t>εισητήριο τρένου από Βιέννη Λινζ</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>sandwich και κρουασάν σοκολάτας από super market</t>
+  </si>
+  <si>
+    <t>wok n grill (+ Σάσαρη)</t>
+  </si>
+  <si>
+    <t>souvenirs από Κρουμλοβ</t>
+  </si>
+  <si>
+    <t>σοκολατάκια</t>
+  </si>
+  <si>
+    <t>πρόστημο για συναλλαγή από ευρώ σε κορώνες</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>εισητήριο τρένου από Λινζ Βιέννη</t>
+  </si>
+  <si>
+    <t>εισητήριο από αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>2 πίτσες μαργαρίτες</t>
   </si>
 </sst>
 </file>
@@ -3746,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1200"/>
+  <dimension ref="A1:L1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1185" workbookViewId="0">
-      <selection activeCell="J1201" sqref="J1201"/>
+    <sheetView tabSelected="1" topLeftCell="C1198" workbookViewId="0">
+      <selection activeCell="J1214" sqref="J1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39024,6 +39069,412 @@
         <v>639</v>
       </c>
     </row>
+    <row r="1201" spans="1:10">
+      <c r="A1201">
+        <v>7.7</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1201">
+        <v>5</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I1201">
+        <v>1199</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10">
+      <c r="A1202">
+        <v>3.2</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1202" s="2">
+        <v>43780</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1202">
+        <v>5</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1202">
+        <v>1200</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10">
+      <c r="A1203">
+        <v>1</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1203" s="2">
+        <v>43780</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1203">
+        <v>5</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1203">
+        <v>1201</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10">
+      <c r="A1204">
+        <v>5</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1204" s="2">
+        <v>43781</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>957</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1204">
+        <v>4</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I1204">
+        <v>1202</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10">
+      <c r="A1205">
+        <v>45.4</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1205" s="2">
+        <v>43781</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1205">
+        <v>4</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1205">
+        <v>1203</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10">
+      <c r="A1206">
+        <v>2</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1206" s="2">
+        <v>43781</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1206">
+        <v>4</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1206">
+        <v>1204</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10">
+      <c r="A1207">
+        <v>3.47</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1207" s="2">
+        <v>43782</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1207">
+        <v>5</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1207">
+        <v>1205</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10">
+      <c r="A1208">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1208" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1208">
+        <v>5</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1208">
+        <v>1206</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10">
+      <c r="A1209">
+        <v>14.27</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1209" s="2">
+        <v>43786</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1209">
+        <v>5</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I1209">
+        <v>1207</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10">
+      <c r="A1210">
+        <v>5.7</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1210" s="2">
+        <v>43786</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1210">
+        <v>5</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I1210">
+        <v>1208</v>
+      </c>
+      <c r="J1210" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10">
+      <c r="A1211">
+        <v>3</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1211" s="2">
+        <v>43786</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1211">
+        <v>5</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I1211">
+        <v>1209</v>
+      </c>
+      <c r="J1211" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10">
+      <c r="A1212">
+        <v>45.4</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1212" s="2">
+        <v>43788</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1212">
+        <v>3</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1212">
+        <v>1210</v>
+      </c>
+      <c r="J1212" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10">
+      <c r="A1213">
+        <v>5</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>43788</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1213">
+        <v>4</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1213">
+        <v>1211</v>
+      </c>
+      <c r="J1213" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10">
+      <c r="A1214">
+        <v>3.2</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1214" s="2">
+        <v>43788</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1214">
+        <v>4</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1214">
+        <v>1212</v>
+      </c>
+      <c r="J1214" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6082" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6102" uniqueCount="1110">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3338,6 +3338,12 @@
   </si>
   <si>
     <t>2 πίτσες μαργαρίτες</t>
+  </si>
+  <si>
+    <t>λουριά για βάρη</t>
+  </si>
+  <si>
+    <t>τσιτσιμπύρι με Σινάνη, Τσαγρή, Τσίρο, Τσιρογιάννη, Χοχτούλα</t>
   </si>
 </sst>
 </file>
@@ -3791,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1214"/>
+  <dimension ref="A1:L1218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1198" workbookViewId="0">
-      <selection activeCell="J1214" sqref="J1214"/>
+      <selection activeCell="I1213" sqref="I1213:I1218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39475,6 +39481,122 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1215" spans="1:10">
+      <c r="A1215">
+        <v>1</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1215" s="2">
+        <v>43789</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1215">
+        <v>5</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1215">
+        <v>1213</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10">
+      <c r="A1216">
+        <v>1</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1216" s="2">
+        <v>43790</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1216">
+        <v>5</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1216">
+        <v>1214</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10">
+      <c r="A1217">
+        <v>9</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1217" s="2">
+        <v>43790</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1217">
+        <v>5</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1217">
+        <v>1215</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10">
+      <c r="A1218">
+        <v>6.5</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1218" s="2">
+        <v>43790</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1218">
+        <v>5</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1218">
+        <v>1216</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6102" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="1114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3344,6 +3344,18 @@
   </si>
   <si>
     <t>τσιτσιμπύρι με Σινάνη, Τσαγρή, Τσίρο, Τσιρογιάννη, Χοχτούλα</t>
+  </si>
+  <si>
+    <t>παπούτσια αθλητικά</t>
+  </si>
+  <si>
+    <t>ράψιμο τα γαμολουριά</t>
+  </si>
+  <si>
+    <t>strongbow με παρέα 8ου</t>
+  </si>
+  <si>
+    <t>Mc Donalds πατάτες και sprite</t>
   </si>
 </sst>
 </file>
@@ -3797,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1218"/>
+  <dimension ref="A1:L1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1198" workbookViewId="0">
-      <selection activeCell="I1213" sqref="I1213:I1218"/>
+    <sheetView tabSelected="1" topLeftCell="C1205" workbookViewId="0">
+      <selection activeCell="J1223" sqref="J1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39597,6 +39609,180 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1219" spans="1:10">
+      <c r="A1219">
+        <v>31</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1219" s="2">
+        <v>43791</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1219">
+        <v>5</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1219">
+        <v>1217</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10">
+      <c r="A1220">
+        <v>1</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1220" s="2">
+        <v>43791</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1220">
+        <v>5</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1220">
+        <v>1218</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10">
+      <c r="A1221">
+        <v>5</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1221" s="2">
+        <v>43792</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1221">
+        <v>3</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1221">
+        <v>1219</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10">
+      <c r="A1222">
+        <v>15</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1222" s="2">
+        <v>43792</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1222">
+        <v>4</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1222">
+        <v>1220</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10">
+      <c r="A1223">
+        <v>5</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1223" s="2">
+        <v>43792</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1223">
+        <v>5</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1223">
+        <v>1221</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10">
+      <c r="A1224">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1224" s="2">
+        <v>43792</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1224">
+        <v>5</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1224">
+        <v>1222</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="1116">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3356,6 +3356,12 @@
   </si>
   <si>
     <t>Mc Donalds πατάτες και sprite</t>
+  </si>
+  <si>
+    <t>Αμαρέτι σοκοφρέτες και κρουασίνια</t>
+  </si>
+  <si>
+    <t>Φαλάφελ με Γεωργία στα Εξάρχεια</t>
   </si>
 </sst>
 </file>
@@ -3809,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1224"/>
+  <dimension ref="A1:L1228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1205" workbookViewId="0">
-      <selection activeCell="J1223" sqref="J1223"/>
+      <selection activeCell="I1223" sqref="I1223:I1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39783,6 +39789,122 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1225" spans="1:10">
+      <c r="A1225">
+        <v>3.9</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1225" s="2">
+        <v>43794</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1225">
+        <v>4</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1225">
+        <v>1223</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:10">
+      <c r="A1226">
+        <v>3</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1226" s="2">
+        <v>43794</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1226">
+        <v>4</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1226">
+        <v>1224</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10">
+      <c r="A1227">
+        <v>6</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1227" s="2">
+        <v>43794</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1227">
+        <v>5</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I1227">
+        <v>1225</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:10">
+      <c r="A1228">
+        <v>0.5</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1228" s="2">
+        <v>43797</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>820</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1228">
+        <v>3</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1228">
+        <v>1226</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="1132">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3362,6 +3362,54 @@
   </si>
   <si>
     <t>Φαλάφελ με Γεωργία στα Εξάρχεια</t>
+  </si>
+  <si>
+    <t>τσίχλες Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>ζεστή σοκολάτα (+ γαλικός Λίας)</t>
+  </si>
+  <si>
+    <t>φαλάφελ με Λία στα Εξάρχεια</t>
+  </si>
+  <si>
+    <t>πίτσα μαργαρίτα (+ σοκολάτα Νικηφόρου) στο Τρέ</t>
+  </si>
+  <si>
+    <t>τυρόπιτα με πιπεριά και ντομάτα</t>
+  </si>
+  <si>
+    <t>τσάι με Νικηφόρο</t>
+  </si>
+  <si>
+    <t>οικολογικό σουβλάκι (+ μάνας μου)</t>
+  </si>
+  <si>
+    <t>μπύρες στο σποράκι με την παρέα</t>
+  </si>
+  <si>
+    <t>πατατάκια και σοκοφρέτες derby</t>
+  </si>
+  <si>
+    <t>3-bit από το περίπτερο στην Δέγλερη</t>
+  </si>
+  <si>
+    <t>Επανέκδοση κάρτας ΜΜΜ</t>
+  </si>
+  <si>
+    <t>κρουασάν με μπανάνα και σοκολάτα στον σταθμό</t>
+  </si>
+  <si>
+    <t>νερό και σοκοφρέτες στο Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>cappuccino σκέτο στο tres jolie με Νικηφόρο</t>
+  </si>
+  <si>
+    <t>peristeri</t>
+  </si>
+  <si>
+    <t>μπλούζα black wolf</t>
   </si>
 </sst>
 </file>
@@ -3815,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1228"/>
+  <dimension ref="A1:L1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1205" workbookViewId="0">
-      <selection activeCell="I1223" sqref="I1223:I1228"/>
+    <sheetView tabSelected="1" topLeftCell="C1228" workbookViewId="0">
+      <selection activeCell="I1234" sqref="I1234:I1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39905,6 +39953,499 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1229" spans="1:10">
+      <c r="A1229">
+        <v>1</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1229" s="2">
+        <v>43802</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1229">
+        <v>4</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1229">
+        <v>1227</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10">
+      <c r="A1230">
+        <v>6.5</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1230" s="2">
+        <v>43802</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1230">
+        <v>5</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I1230">
+        <v>1228</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:10">
+      <c r="A1231">
+        <v>3</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>43802</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1231">
+        <v>5</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I1231">
+        <v>1229</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:10">
+      <c r="A1232">
+        <v>10</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1232" s="2">
+        <v>43803</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1232">
+        <v>5</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1232">
+        <v>1230</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10">
+      <c r="A1233">
+        <v>9</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1233" s="2">
+        <v>43803</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1233">
+        <v>5</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1233">
+        <v>1231</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:10">
+      <c r="A1234">
+        <v>1.5</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1234" s="2">
+        <v>43804</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1234">
+        <v>4</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1234">
+        <v>1232</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10">
+      <c r="A1235">
+        <v>10</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1235" s="2">
+        <v>43804</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1235">
+        <v>3</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1235">
+        <v>1233</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:10">
+      <c r="A1236">
+        <v>3.5</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1236" s="2">
+        <v>43804</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1236">
+        <v>4</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1236">
+        <v>1234</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:10">
+      <c r="A1237">
+        <v>4.2</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1237" s="2">
+        <v>43804</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1237">
+        <v>4</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1237">
+        <v>1235</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:10">
+      <c r="A1238">
+        <v>10.7</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1238">
+        <v>5</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1238">
+        <v>1236</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:10">
+      <c r="A1239">
+        <v>3.9</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1239" s="2">
+        <v>43806</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1239">
+        <v>5</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1239">
+        <v>1237</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:10">
+      <c r="A1240">
+        <v>1</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1240" s="2">
+        <v>43806</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1240">
+        <v>5</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1240">
+        <v>1238</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10">
+      <c r="A1241">
+        <v>2</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1241">
+        <v>5</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1241">
+        <v>1239</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:10">
+      <c r="A1242">
+        <v>1.2</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1242" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1242">
+        <v>5</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1242">
+        <v>1240</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:10">
+      <c r="A1243">
+        <v>1.8</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1243" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1243">
+        <v>5</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1243">
+        <v>1241</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:10">
+      <c r="A1244">
+        <v>31.56</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1244" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1244">
+        <v>5</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1244">
+        <v>1242</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:10">
+      <c r="A1245">
+        <v>5.5</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1245" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1245">
+        <v>5</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I1245">
+        <v>1243</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6252" uniqueCount="1134">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3406,10 +3406,16 @@
     <t>cappuccino σκέτο στο tres jolie με Νικηφόρο</t>
   </si>
   <si>
-    <t>peristeri</t>
-  </si>
-  <si>
     <t>μπλούζα black wolf</t>
+  </si>
+  <si>
+    <t>κεμπάπ σόφιας πουρέ 2 γάλατα και σοκολάτες</t>
+  </si>
+  <si>
+    <t>φλογέρα σπανακότιτα (+ coca-cola μανούλας)</t>
+  </si>
+  <si>
+    <t>amarretti (+ τσιγάρα μανούλας)</t>
   </si>
 </sst>
 </file>
@@ -3863,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1245"/>
+  <dimension ref="A1:L1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1228" workbookViewId="0">
-      <selection activeCell="I1234" sqref="I1234:I1245"/>
+    <sheetView tabSelected="1" topLeftCell="A1228" workbookViewId="0">
+      <selection activeCell="H1249" sqref="H1249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40399,7 +40405,7 @@
         <v>43809</v>
       </c>
       <c r="D1244" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E1244" t="s">
         <v>220</v>
@@ -40437,12 +40443,99 @@
         <v>5</v>
       </c>
       <c r="H1245" t="s">
-        <v>1130</v>
+        <v>224</v>
       </c>
       <c r="I1245">
         <v>1243</v>
       </c>
       <c r="J1245" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:10">
+      <c r="A1246">
+        <v>10.98</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1246">
+        <v>5</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1246">
+        <v>1244</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:10">
+      <c r="A1247">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1247" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1247">
+        <v>4</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1247">
+        <v>1245</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:10">
+      <c r="A1248">
+        <v>6.8</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1248" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1248">
+        <v>3</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1248">
+        <v>1246</v>
+      </c>
+      <c r="J1248" t="s">
         <v>639</v>
       </c>
     </row>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6252" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="1138">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3416,6 +3416,18 @@
   </si>
   <si>
     <t>amarretti (+ τσιγάρα μανούλας)</t>
+  </si>
+  <si>
+    <t>φακός 35mm f1.4 για την sony a6000</t>
+  </si>
+  <si>
+    <t>JBL Xtreme 2</t>
+  </si>
+  <si>
+    <t>καφέ και φαλάφελ με Τσίρο τον Γρηγόρη στην Ανθούπολη</t>
+  </si>
+  <si>
+    <t>μπλούζες black wolf</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3465,6 +3477,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -3869,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1248"/>
+  <dimension ref="A1:L1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1228" workbookViewId="0">
-      <selection activeCell="H1249" sqref="H1249"/>
+    <sheetView tabSelected="1" topLeftCell="C1229" workbookViewId="0">
+      <selection activeCell="J1253" sqref="J1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40539,6 +40552,122 @@
         <v>639</v>
       </c>
     </row>
+    <row r="1249" spans="1:10">
+      <c r="A1249">
+        <v>325</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>43810</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1249">
+        <v>5</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1249">
+        <v>1247</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:10">
+      <c r="A1250">
+        <v>209</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1250" s="2">
+        <v>43810</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1250">
+        <v>4</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1250">
+        <v>1248</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:10">
+      <c r="A1251">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B1251" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1251">
+        <v>5</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1251">
+        <v>1249</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:10">
+      <c r="A1252">
+        <v>50</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1252" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1252">
+        <v>4</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1252">
+        <v>1250</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="1144">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3428,6 +3428,24 @@
   </si>
   <si>
     <t>μπλούζες black wolf</t>
+  </si>
+  <si>
+    <t>pizzetti ζελεδάκια και μπάρα πρωτεΐνης</t>
+  </si>
+  <si>
+    <t>μπύρα άλφα στο reunion</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα και μπάρα με φυστικοβούτηρο</t>
+  </si>
+  <si>
+    <t>pancake με Νικηφόρο στο τρε</t>
+  </si>
+  <si>
+    <t>νερό Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>(+ νερό Κ.Γιάννη)</t>
   </si>
 </sst>
 </file>
@@ -3882,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1252"/>
+  <dimension ref="A1:L1260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1229" workbookViewId="0">
-      <selection activeCell="J1253" sqref="J1253"/>
+    <sheetView tabSelected="1" topLeftCell="C1237" workbookViewId="0">
+      <selection activeCell="J1261" sqref="J1261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40668,6 +40686,238 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1253" spans="1:10">
+      <c r="A1253">
+        <v>3.3</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1253">
+        <v>4</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1253">
+        <v>1251</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:10">
+      <c r="A1254">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1254">
+        <v>4</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1254">
+        <v>1252</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:10">
+      <c r="A1255">
+        <v>3</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1255" s="2">
+        <v>43813</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1255">
+        <v>4</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1255">
+        <v>1253</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:10">
+      <c r="A1256">
+        <v>3.8</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>43814</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1256">
+        <v>4</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1256">
+        <v>1254</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:10">
+      <c r="A1257">
+        <v>1.9</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1257" s="2">
+        <v>43814</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1257">
+        <v>4</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1257">
+        <v>1255</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:10">
+      <c r="A1258">
+        <v>4.8</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>43814</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1258">
+        <v>4</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1258">
+        <v>1256</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:10">
+      <c r="A1259">
+        <v>1</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>43815</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1259">
+        <v>5</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1259">
+        <v>1257</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:10">
+      <c r="A1260">
+        <v>0.5</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>43815</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1260">
+        <v>5</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1260">
+        <v>1258</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="1146">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3446,6 +3446,12 @@
   </si>
   <si>
     <t>(+ νερό Κ.Γιάννη)</t>
+  </si>
+  <si>
+    <t>sandwich και λιχναράκια από το πρώην Φουρναριό</t>
+  </si>
+  <si>
+    <t>pizza από το pizza.gr στο mall, νερό και coca-cola zero με λεμόνι</t>
   </si>
 </sst>
 </file>
@@ -3900,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1260"/>
+  <dimension ref="A1:L1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1237" workbookViewId="0">
-      <selection activeCell="J1261" sqref="J1261"/>
+    <sheetView tabSelected="1" topLeftCell="C1239" workbookViewId="0">
+      <selection activeCell="I1259" sqref="I1259:I1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40918,6 +40924,64 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1261" spans="1:10">
+      <c r="A1261">
+        <v>3.7</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>43816</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1261">
+        <v>5</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1261">
+        <v>1259</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:10">
+      <c r="A1262">
+        <v>7</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>43816</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1262">
+        <v>5</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1262">
+        <v>1260</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1154">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3452,6 +3452,30 @@
   </si>
   <si>
     <t>pizza από το pizza.gr στο mall, νερό και coca-cola zero με λεμόνι</t>
+  </si>
+  <si>
+    <t>καφές με Τσίρο στο Soiynee tod</t>
+  </si>
+  <si>
+    <t>στοίχοιμα συναυλία</t>
+  </si>
+  <si>
+    <t>2 κουλούρια με ντομάτα και τυρί από τον Βενέτη</t>
+  </si>
+  <si>
+    <t>μπύρα με Αγγελίδη, τσίρο Μαειρίν</t>
+  </si>
+  <si>
+    <t>3 ντέρμπι από το περίπτερο στην δέγλερη</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα και λιχναράκια από το Πρώην φουρναριό</t>
+  </si>
+  <si>
+    <t>5 κρουασίνια από το κυλικείο της σχολής</t>
+  </si>
+  <si>
+    <t>κρέμες στιγμής γάλα advanced και ένα χυμό ροδάκινο από τον Κρητικό</t>
   </si>
 </sst>
 </file>
@@ -3906,10 +3930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1262"/>
+  <dimension ref="A1:L1271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1239" workbookViewId="0">
-      <selection activeCell="I1259" sqref="I1259:I1262"/>
+    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
+      <selection activeCell="D1024" sqref="D1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40982,6 +41006,267 @@
         <v>639</v>
       </c>
     </row>
+    <row r="1263" spans="1:10">
+      <c r="A1263">
+        <v>3.5</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>43817</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1263">
+        <v>5</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1263">
+        <v>1261</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:10">
+      <c r="A1264">
+        <v>10</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>43817</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1264">
+        <v>5</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1264">
+        <v>1262</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:10">
+      <c r="A1265">
+        <v>3.3</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>43818</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1265">
+        <v>5</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1265">
+        <v>1263</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:10">
+      <c r="A1266">
+        <v>3.9</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>43818</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1266">
+        <v>5</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1266">
+        <v>1264</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:10">
+      <c r="A1267">
+        <v>2</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>43818</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1267">
+        <v>5</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1267">
+        <v>1265</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:10">
+      <c r="A1268">
+        <v>1.8</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>43818</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1268">
+        <v>5</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1268">
+        <v>1266</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:10">
+      <c r="A1269">
+        <v>3</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>43819</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1269">
+        <v>4</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1269">
+        <v>1267</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:10">
+      <c r="A1270">
+        <v>2</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>43819</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1270">
+        <v>4</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1270">
+        <v>1268</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:10">
+      <c r="A1271">
+        <v>4.12</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>43819</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1271">
+        <v>4</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1271">
+        <v>1269</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="1170">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3476,6 +3476,54 @@
   </si>
   <si>
     <t>κρέμες στιγμής γάλα advanced και ένα χυμό ροδάκινο από τον Κρητικό</t>
+  </si>
+  <si>
+    <t>σουβλάκια (+ μανούλας)</t>
+  </si>
+  <si>
+    <t>σουβλάκι λαχανικών στον κάνδαυλο</t>
+  </si>
+  <si>
+    <t>μπακέτα με φέτα και ελιά και πατατάκια μερίγανη με Τζάνα και Κώστα</t>
+  </si>
+  <si>
+    <t>μπύρα με Νικηφόρο και Κώστα στο suiny tod</t>
+  </si>
+  <si>
+    <t>γρανίτα λεμόνι με Νικηφόρο στην Βεάκη</t>
+  </si>
+  <si>
+    <t>2 πίτσες από τον άρχοντα</t>
+  </si>
+  <si>
+    <t>σουβλάκια με Τσίρους</t>
+  </si>
+  <si>
+    <t>λεμονάδα</t>
+  </si>
+  <si>
+    <t>βενζίνη στο αμάξι του πατέρα για να πάω Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>freddo espresso με Αλίκη Αθηνά Νιλ και Ανδριάννα</t>
+  </si>
+  <si>
+    <t>μπιλιάρδο με  Αλίκη Αθηνά Νιλ και Ανδριάννα</t>
+  </si>
+  <si>
+    <t>μπουνιές (+  Αλίκης Αθηνάς Νιλ και Ανδριάννας Γιάννη)</t>
+  </si>
+  <si>
+    <t>μεσογειακή τσιαπάτα</t>
+  </si>
+  <si>
+    <t>κρασιά με την παρέα του 8ου στο Εξωστρεφή</t>
+  </si>
+  <si>
+    <t>κρασιά με Νικηφόρο και κάτι κοπέλες</t>
+  </si>
+  <si>
+    <t>πίτσα και coca-cola zero με λεμόνι στο Mall</t>
   </si>
 </sst>
 </file>
@@ -3930,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1271"/>
+  <dimension ref="A1:L1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
-      <selection activeCell="D1024" sqref="D1024"/>
+    <sheetView tabSelected="1" topLeftCell="D1272" workbookViewId="0">
+      <selection activeCell="J1293" sqref="J1293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41267,6 +41315,615 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1272" spans="1:10">
+      <c r="A1272">
+        <v>10.4</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>43819</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1272">
+        <v>4</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1272">
+        <v>1270</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:10">
+      <c r="A1273">
+        <v>1.2</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1273" s="2">
+        <v>43820</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1273">
+        <v>5</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1273">
+        <v>1271</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:10">
+      <c r="A1274">
+        <v>3</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>43821</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1274">
+        <v>5</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1274">
+        <v>1272</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10">
+      <c r="A1275">
+        <v>2</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1275" s="2">
+        <v>43821</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1275">
+        <v>5</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1275">
+        <v>1273</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10">
+      <c r="A1276">
+        <v>4</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>43821</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1276">
+        <v>5</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1276">
+        <v>1274</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10">
+      <c r="A1277">
+        <v>4.5</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1277" s="2">
+        <v>43821</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1277">
+        <v>5</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1277">
+        <v>1275</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10">
+      <c r="A1278">
+        <v>4.8</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1278" s="2">
+        <v>43822</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1278">
+        <v>4</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1278">
+        <v>1276</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10">
+      <c r="A1279">
+        <v>8.4</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1279" s="2">
+        <v>43823</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1279">
+        <v>4</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1279">
+        <v>1277</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:10">
+      <c r="A1280">
+        <v>15</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1280" s="2">
+        <v>43823</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1280">
+        <v>4</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1280">
+        <v>1278</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:10">
+      <c r="A1281">
+        <v>3.5</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>43823</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1281">
+        <v>4</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1281">
+        <v>1279</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:10">
+      <c r="A1282">
+        <v>5</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1282" s="2">
+        <v>43823</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1282">
+        <v>5</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1282">
+        <v>1280</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:10">
+      <c r="A1283">
+        <v>0.9</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1283" s="2">
+        <v>43824</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1283">
+        <v>5</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1283">
+        <v>1281</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:10">
+      <c r="A1284">
+        <v>10</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1284" s="2">
+        <v>43825</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1284">
+        <v>5</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1284">
+        <v>1282</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10">
+      <c r="A1285">
+        <v>3.5</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1285" s="2">
+        <v>43825</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1285">
+        <v>5</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1285">
+        <v>1283</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:10">
+      <c r="A1286">
+        <v>4</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1286" s="2">
+        <v>43825</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1286">
+        <v>5</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1286">
+        <v>1284</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:10">
+      <c r="A1287">
+        <v>4</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1287" s="2">
+        <v>43825</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1287">
+        <v>5</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1287">
+        <v>1285</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10">
+      <c r="A1288">
+        <v>2</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1288" s="2">
+        <v>43825</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1288">
+        <v>5</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1288">
+        <v>1286</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:10">
+      <c r="A1289">
+        <v>2.9</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1289" s="2">
+        <v>43826</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1289">
+        <v>4</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1289">
+        <v>1287</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10">
+      <c r="A1290">
+        <v>12</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1290" s="2">
+        <v>43827</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1290">
+        <v>5</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1290">
+        <v>1288</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10">
+      <c r="A1291">
+        <v>2.5</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1291" s="2">
+        <v>43827</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1291">
+        <v>5</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1291">
+        <v>1289</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:10">
+      <c r="A1292">
+        <v>8.84</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1292" s="2">
+        <v>43828</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1292">
+        <v>3</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1292">
+        <v>1290</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="1176">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3524,6 +3524,24 @@
   </si>
   <si>
     <t>πίτσα και coca-cola zero με λεμόνι στο Mall</t>
+  </si>
+  <si>
+    <t>ποτό για το πρωτοχρονιάτικο πάρτι</t>
+  </si>
+  <si>
+    <t>2 ζευγάρια γυαλιά οράσεως</t>
+  </si>
+  <si>
+    <t>candy crash με Αγίλαρα και την παρέα της</t>
+  </si>
+  <si>
+    <t>bronco beer με Αγιλαρίνι</t>
+  </si>
+  <si>
+    <t>Koukaki</t>
+  </si>
+  <si>
+    <t>σκατολοϊδια από περίπτερο στο Ο.Α.Κ.Α</t>
   </si>
 </sst>
 </file>
@@ -3978,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1292"/>
+  <dimension ref="A1:L1298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1272" workbookViewId="0">
-      <selection activeCell="J1293" sqref="J1293"/>
+    <sheetView tabSelected="1" topLeftCell="C1277" workbookViewId="0">
+      <selection activeCell="J1299" sqref="J1299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41924,6 +41942,180 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1293" spans="1:10">
+      <c r="A1293">
+        <v>0.5</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1293" s="2">
+        <v>43829</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1293">
+        <v>5</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1293">
+        <v>1291</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:10">
+      <c r="A1294">
+        <v>300</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1294" s="2">
+        <v>43829</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1294">
+        <v>5</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1294">
+        <v>1292</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:10">
+      <c r="A1295">
+        <v>6</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1295" s="2">
+        <v>43829</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1295">
+        <v>5</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I1295">
+        <v>1293</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:10">
+      <c r="A1296">
+        <v>4</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1296" s="2">
+        <v>43829</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1296">
+        <v>5</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1296">
+        <v>1294</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:10">
+      <c r="A1297">
+        <v>10</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1297" s="2">
+        <v>43800</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1297">
+        <v>5</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1297">
+        <v>1295</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:10">
+      <c r="A1298">
+        <v>5.3</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1298" s="2">
+        <v>43467</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1298">
+        <v>5</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1298">
+        <v>1296</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6548" uniqueCount="1186">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3542,6 +3542,36 @@
   </si>
   <si>
     <t>σκατολοϊδια από περίπτερο στο Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>σουβλάκια με Τσίρο Κούρο Κώστα</t>
+  </si>
+  <si>
+    <t>κρουασάν και νερό</t>
+  </si>
+  <si>
+    <t>corny και παγωτό</t>
+  </si>
+  <si>
+    <t>spite</t>
+  </si>
+  <si>
+    <t>κρητική σαλάτα στο τσιπουΡακι με Τσίρο</t>
+  </si>
+  <si>
+    <t>ρακόμελα με Τσίρο Χαραμαντα και Μαϊρίν</t>
+  </si>
+  <si>
+    <t>σοκολάτες Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>2 street wok με Μάνο Σύριγο</t>
+  </si>
+  <si>
+    <t>χυμός Starbucks</t>
+  </si>
+  <si>
+    <t>Βενζίνη στο αμάξι του πατέρα για να πάω να πάρω την μανούλα</t>
   </si>
 </sst>
 </file>
@@ -3996,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1298"/>
+  <dimension ref="A1:L1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1277" workbookViewId="0">
-      <selection activeCell="J1299" sqref="J1299"/>
+    <sheetView tabSelected="1" topLeftCell="D1286" workbookViewId="0">
+      <selection activeCell="F1309" sqref="F1309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42116,6 +42146,278 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1299" spans="1:10">
+      <c r="A1299">
+        <v>4</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1299" s="2">
+        <v>43468</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1299">
+        <v>5</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1299">
+        <v>1297</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:10">
+      <c r="A1300">
+        <v>1.3</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1300" s="2">
+        <v>43469</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1300">
+        <v>5</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1300">
+        <v>1298</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:10">
+      <c r="A1301">
+        <v>3.5</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1301">
+        <v>4</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1301">
+        <v>1299</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:10">
+      <c r="A1302">
+        <v>1.2</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1302">
+        <v>4</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1302">
+        <v>1300</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:10">
+      <c r="A1303">
+        <v>7.5</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1303" s="2">
+        <v>43471</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1303">
+        <v>5</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1303">
+        <v>1301</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:10">
+      <c r="A1304">
+        <v>5</v>
+      </c>
+      <c r="C1304" s="2">
+        <v>43472</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1304">
+        <v>5</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1304">
+        <v>1302</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:10">
+      <c r="A1305">
+        <v>5.3</v>
+      </c>
+      <c r="C1305" s="2">
+        <v>43472</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1305">
+        <v>5</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1305">
+        <v>1303</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:10">
+      <c r="A1306">
+        <v>3.95</v>
+      </c>
+      <c r="C1306" s="2">
+        <v>43473</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1306">
+        <v>4</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1306">
+        <v>1304</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:10">
+      <c r="A1307">
+        <v>7.8</v>
+      </c>
+      <c r="C1307" s="2">
+        <v>43473</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1307">
+        <v>4</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1307">
+        <v>1305</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:10">
+      <c r="A1308">
+        <v>10</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1308" s="2">
+        <v>43473</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1308">
+        <v>3</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1308">
+        <v>1306</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6548" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6567" uniqueCount="1190">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3572,6 +3572,18 @@
   </si>
   <si>
     <t>Βενζίνη στο αμάξι του πατέρα για να πάω να πάρω την μανούλα</t>
+  </si>
+  <si>
+    <t>γραβιερόπιτα και 2 κρουασανάκια σταθμό</t>
+  </si>
+  <si>
+    <t>σουβλάκι με μπιφτέκι λαχανικών</t>
+  </si>
+  <si>
+    <t>Ano Patissia</t>
+  </si>
+  <si>
+    <t>κρέπα στο Τ2 (+ μπύρα μιχάλη)</t>
   </si>
 </sst>
 </file>
@@ -4026,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1308"/>
+  <dimension ref="A1:L1311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1286" workbookViewId="0">
-      <selection activeCell="F1309" sqref="F1309"/>
+    <sheetView tabSelected="1" topLeftCell="A1289" workbookViewId="0">
+      <selection activeCell="I1307" sqref="I1307:I1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42211,6 +42223,9 @@
       <c r="B1301" t="s">
         <v>207</v>
       </c>
+      <c r="C1301" s="2">
+        <v>43469</v>
+      </c>
       <c r="D1301" t="s">
         <v>1178</v>
       </c>
@@ -42237,6 +42252,9 @@
       <c r="B1302" t="s">
         <v>207</v>
       </c>
+      <c r="C1302" s="2">
+        <v>43469</v>
+      </c>
       <c r="D1302" t="s">
         <v>1179</v>
       </c>
@@ -42289,6 +42307,9 @@
       <c r="A1304">
         <v>5</v>
       </c>
+      <c r="B1304" t="s">
+        <v>207</v>
+      </c>
       <c r="C1304" s="2">
         <v>43472</v>
       </c>
@@ -42315,6 +42336,9 @@
       <c r="A1305">
         <v>5.3</v>
       </c>
+      <c r="B1305" t="s">
+        <v>207</v>
+      </c>
       <c r="C1305" s="2">
         <v>43472</v>
       </c>
@@ -42341,6 +42365,9 @@
       <c r="A1306">
         <v>3.95</v>
       </c>
+      <c r="B1306" t="s">
+        <v>207</v>
+      </c>
       <c r="C1306" s="2">
         <v>43473</v>
       </c>
@@ -42367,6 +42394,9 @@
       <c r="A1307">
         <v>7.8</v>
       </c>
+      <c r="B1307" t="s">
+        <v>207</v>
+      </c>
       <c r="C1307" s="2">
         <v>43473</v>
       </c>
@@ -42416,6 +42446,93 @@
       </c>
       <c r="J1308" t="s">
         <v>639</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:10">
+      <c r="A1309">
+        <v>5.4</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1309" s="2">
+        <v>43474</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1309">
+        <v>4</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1309">
+        <v>1307</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:10">
+      <c r="A1310">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1310" s="2">
+        <v>43474</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1310">
+        <v>3</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I1310">
+        <v>1308</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:10">
+      <c r="A1311">
+        <v>9.5</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1311" s="2">
+        <v>43476</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1311">
+        <v>5</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1311">
+        <v>1309</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6567" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="1206">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3584,6 +3584,54 @@
   </si>
   <si>
     <t>κρέπα στο Τ2 (+ μπύρα μιχάλη)</t>
+  </si>
+  <si>
+    <t>ταξί από Ανθούπολη για σπίτι</t>
+  </si>
+  <si>
+    <t>εισητήριο για novel</t>
+  </si>
+  <si>
+    <t>freddo espresso σκέτο με Τσίρο</t>
+  </si>
+  <si>
+    <t>φούτερ Hip Hop καφενές</t>
+  </si>
+  <si>
+    <t>Διόδια για Ναύπλιο</t>
+  </si>
+  <si>
+    <t>Διόδια από Ναύπλιο</t>
+  </si>
+  <si>
+    <t>καφές διπλός ελληνικός με λουκουμάδες</t>
+  </si>
+  <si>
+    <t>μακαρονάδα και φάβα</t>
+  </si>
+  <si>
+    <t>τάμπλετ παππού για γενέθλια</t>
+  </si>
+  <si>
+    <t>πίτσα μαργαρίτα στο mall</t>
+  </si>
+  <si>
+    <t>2 πίτσες μαργαρίτες από τον αγορίνα</t>
+  </si>
+  <si>
+    <t>για ποτά στο πάρτυ του Νικηφόρου</t>
+  </si>
+  <si>
+    <t>2 μπουκάλια νερό ΟΑΚΑ</t>
+  </si>
+  <si>
+    <t>πίτσα χωριάτικη από τον αγορίνα</t>
+  </si>
+  <si>
+    <t>2 σαντιγές και πατατάκια φούρνου</t>
+  </si>
+  <si>
+    <t>Nauplio</t>
   </si>
 </sst>
 </file>
@@ -4038,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1311"/>
+  <dimension ref="A1:L1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1289" workbookViewId="0">
-      <selection activeCell="I1307" sqref="I1307:I1311"/>
+    <sheetView tabSelected="1" topLeftCell="C1313" workbookViewId="0">
+      <selection activeCell="J1311" sqref="J1311:J1328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42108,7 +42156,7 @@
         <v>207</v>
       </c>
       <c r="C1297" s="2">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="D1297" t="s">
         <v>1170</v>
@@ -42137,7 +42185,7 @@
         <v>207</v>
       </c>
       <c r="C1298" s="2">
-        <v>43467</v>
+        <v>44167</v>
       </c>
       <c r="D1298" t="s">
         <v>1175</v>
@@ -42166,7 +42214,7 @@
         <v>207</v>
       </c>
       <c r="C1299" s="2">
-        <v>43468</v>
+        <v>44168</v>
       </c>
       <c r="D1299" t="s">
         <v>1176</v>
@@ -42195,7 +42243,7 @@
         <v>207</v>
       </c>
       <c r="C1300" s="2">
-        <v>43469</v>
+        <v>44169</v>
       </c>
       <c r="D1300" t="s">
         <v>1177</v>
@@ -42224,7 +42272,7 @@
         <v>207</v>
       </c>
       <c r="C1301" s="2">
-        <v>43469</v>
+        <v>43834</v>
       </c>
       <c r="D1301" t="s">
         <v>1178</v>
@@ -42253,7 +42301,7 @@
         <v>207</v>
       </c>
       <c r="C1302" s="2">
-        <v>43469</v>
+        <v>43834</v>
       </c>
       <c r="D1302" t="s">
         <v>1179</v>
@@ -42282,7 +42330,7 @@
         <v>207</v>
       </c>
       <c r="C1303" s="2">
-        <v>43471</v>
+        <v>43836</v>
       </c>
       <c r="D1303" t="s">
         <v>1180</v>
@@ -42311,7 +42359,7 @@
         <v>207</v>
       </c>
       <c r="C1304" s="2">
-        <v>43472</v>
+        <v>43837</v>
       </c>
       <c r="D1304" t="s">
         <v>1181</v>
@@ -42340,7 +42388,7 @@
         <v>207</v>
       </c>
       <c r="C1305" s="2">
-        <v>43472</v>
+        <v>43837</v>
       </c>
       <c r="D1305" t="s">
         <v>1182</v>
@@ -42369,7 +42417,7 @@
         <v>207</v>
       </c>
       <c r="C1306" s="2">
-        <v>43473</v>
+        <v>43838</v>
       </c>
       <c r="D1306" t="s">
         <v>1184</v>
@@ -42398,7 +42446,7 @@
         <v>207</v>
       </c>
       <c r="C1307" s="2">
-        <v>43473</v>
+        <v>43838</v>
       </c>
       <c r="D1307" t="s">
         <v>1183</v>
@@ -42427,7 +42475,7 @@
         <v>320</v>
       </c>
       <c r="C1308" s="2">
-        <v>43473</v>
+        <v>43838</v>
       </c>
       <c r="D1308" t="s">
         <v>1185</v>
@@ -42456,7 +42504,7 @@
         <v>207</v>
       </c>
       <c r="C1309" s="2">
-        <v>43474</v>
+        <v>43839</v>
       </c>
       <c r="D1309" t="s">
         <v>1186</v>
@@ -42485,7 +42533,7 @@
         <v>207</v>
       </c>
       <c r="C1310" s="2">
-        <v>43474</v>
+        <v>43839</v>
       </c>
       <c r="D1310" t="s">
         <v>1187</v>
@@ -42514,7 +42562,7 @@
         <v>207</v>
       </c>
       <c r="C1311" s="2">
-        <v>43476</v>
+        <v>43841</v>
       </c>
       <c r="D1311" t="s">
         <v>1189</v>
@@ -42532,6 +42580,499 @@
         <v>1309</v>
       </c>
       <c r="J1311" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:10">
+      <c r="A1312">
+        <v>8</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1312" s="2">
+        <v>43845</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1312">
+        <v>5</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1312">
+        <v>1310</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10">
+      <c r="A1313">
+        <v>3.5</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1313" s="2">
+        <v>43845</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1313">
+        <v>5</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1313">
+        <v>1311</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10">
+      <c r="A1314">
+        <v>5</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1314" s="2">
+        <v>43848</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1314">
+        <v>5</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1314">
+        <v>1312</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10">
+      <c r="A1315">
+        <v>1</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1315" s="2">
+        <v>43848</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1315">
+        <v>5</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1315">
+        <v>1313</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10">
+      <c r="A1316">
+        <v>1.9</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1316" s="2">
+        <v>43848</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1316">
+        <v>5</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1316">
+        <v>1314</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10">
+      <c r="A1317">
+        <v>18</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1317" s="2">
+        <v>43848</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1317">
+        <v>5</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1317">
+        <v>1315</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10">
+      <c r="A1318">
+        <v>6.4</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1318" s="2">
+        <v>43849</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1318">
+        <v>5</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1318">
+        <v>1316</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10">
+      <c r="A1319">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1319" s="2">
+        <v>43849</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1319">
+        <v>5</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1319">
+        <v>1317</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10">
+      <c r="A1320">
+        <v>4.5</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1320" s="2">
+        <v>43849</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1320">
+        <v>4</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1320">
+        <v>1318</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10">
+      <c r="A1321">
+        <v>11.2</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1321" s="2">
+        <v>43849</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1321">
+        <v>4</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1321">
+        <v>1319</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10">
+      <c r="A1322">
+        <v>6.4</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1322" s="2">
+        <v>43849</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1322">
+        <v>3</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1322">
+        <v>1320</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10">
+      <c r="A1323">
+        <v>6.98</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1323" s="2">
+        <v>43850</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1323">
+        <v>4</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1323">
+        <v>1321</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10">
+      <c r="A1324">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1324" s="2">
+        <v>43851</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1324">
+        <v>4</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1324">
+        <v>1322</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10">
+      <c r="A1325">
+        <v>15</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1325" s="2">
+        <v>43853</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1325">
+        <v>4</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>865</v>
+      </c>
+      <c r="I1325">
+        <v>1323</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10">
+      <c r="A1326">
+        <v>3.2</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1326" s="2">
+        <v>43853</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1326">
+        <v>4</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1326">
+        <v>1324</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10">
+      <c r="A1327">
+        <v>159</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1327" s="2">
+        <v>43853</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1327">
+        <v>4</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1327">
+        <v>1325</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:10">
+      <c r="A1328">
+        <v>3.5</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1328" s="2">
+        <v>43853</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1328">
+        <v>4</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1328">
+        <v>1326</v>
+      </c>
+      <c r="J1328" t="s">
         <v>637</v>
       </c>
     </row>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6717" uniqueCount="1219">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3632,6 +3632,45 @@
   </si>
   <si>
     <t>Nauplio</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα με Τρίρο στο Τρε</t>
+  </si>
+  <si>
+    <t>κρουασάν με σοκολάτα και σιρόπι και ελιόψωμο</t>
+  </si>
+  <si>
+    <t>Tauros</t>
+  </si>
+  <si>
+    <t>ταξί από Ανθούπολη για σπίτι με Τσίρο</t>
+  </si>
+  <si>
+    <t>(+ Rothmans μανούλας)</t>
+  </si>
+  <si>
+    <t>2 οικολογικά σουβλάκια με Τσίρο στο κρέας στην Πυρά</t>
+  </si>
+  <si>
+    <t>χαλάουα</t>
+  </si>
+  <si>
+    <t>taxi από σπίτι κυψέλη</t>
+  </si>
+  <si>
+    <t>soft kings και derby</t>
+  </si>
+  <si>
+    <t>μαύρο στυλό από το φωτοτυπάδικο</t>
+  </si>
+  <si>
+    <t>πουρές και ρύζι από το σούπερ μάρκετ</t>
+  </si>
+  <si>
+    <t>2 derby Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>πατατάκια και Osphee</t>
   </si>
 </sst>
 </file>
@@ -4086,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1328"/>
+  <dimension ref="A1:L1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1313" workbookViewId="0">
-      <selection activeCell="J1311" sqref="J1311:J1328"/>
+    <sheetView tabSelected="1" topLeftCell="G1325" workbookViewId="0">
+      <selection activeCell="J1328" sqref="J1328:J1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43076,6 +43115,383 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1329" spans="1:10">
+      <c r="A1329">
+        <v>1.9</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1329" s="2">
+        <v>43854</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1329">
+        <v>4</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1329">
+        <v>1327</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:10">
+      <c r="A1330">
+        <v>1</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1330" s="2">
+        <v>43854</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1330">
+        <v>5</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1330">
+        <v>1328</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:10">
+      <c r="A1331">
+        <v>3.5</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1331" s="2">
+        <v>43854</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1331">
+        <v>5</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I1331">
+        <v>1329</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:10">
+      <c r="A1332">
+        <v>1.75</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1332" s="2">
+        <v>43855</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1332">
+        <v>4</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1332">
+        <v>1330</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:10">
+      <c r="A1333">
+        <v>4.8</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1333" s="2">
+        <v>43855</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1333">
+        <v>4</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1333">
+        <v>1331</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:10">
+      <c r="A1334">
+        <v>4</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1334" s="2">
+        <v>43855</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1334">
+        <v>4</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1334">
+        <v>1332</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:10">
+      <c r="A1335">
+        <v>3.23</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1335" s="2">
+        <v>43855</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1335">
+        <v>4</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1335">
+        <v>1333</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:10">
+      <c r="A1336">
+        <v>10</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1336" s="2">
+        <v>43855</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1336">
+        <v>5</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1336">
+        <v>1334</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:10">
+      <c r="A1337">
+        <v>2.35</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1337">
+        <v>4</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1337">
+        <v>1335</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:10">
+      <c r="A1338">
+        <v>0.4</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1338" s="2">
+        <v>43858</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1338">
+        <v>4</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1338">
+        <v>1336</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:10">
+      <c r="A1339">
+        <v>5.72</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1339" s="2">
+        <v>43858</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1339">
+        <v>4</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1339">
+        <v>1337</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:10">
+      <c r="A1340">
+        <v>1</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1340" s="2">
+        <v>43859</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1340">
+        <v>4</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1340">
+        <v>1338</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:10">
+      <c r="A1341">
+        <v>3.2</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1341" s="2">
+        <v>43859</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1341">
+        <v>4</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1341">
+        <v>1339</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6717" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="1223">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3671,6 +3671,18 @@
   </si>
   <si>
     <t>πατατάκια και Osphee</t>
+  </si>
+  <si>
+    <t>(+ βενζίνη πατέρα)</t>
+  </si>
+  <si>
+    <t>2 οικολογικά σουβλάκια (+ 2 σουβλάκια μανούλας)</t>
+  </si>
+  <si>
+    <t>sprite και bueno</t>
+  </si>
+  <si>
+    <t>μακαρονάδα, μεξικάνικη σαλάτα και κρύα σοκολάτα από efood</t>
   </si>
 </sst>
 </file>
@@ -4125,10 +4137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1341"/>
+  <dimension ref="A1:L1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1325" workbookViewId="0">
-      <selection activeCell="J1328" sqref="J1328:J1341"/>
+    <sheetView tabSelected="1" topLeftCell="D1325" workbookViewId="0">
+      <selection activeCell="I1340" sqref="I1340:I1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43492,6 +43504,151 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1342" spans="1:10">
+      <c r="A1342">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1342" s="2">
+        <v>43860</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1342">
+        <v>4</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1342">
+        <v>1340</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:10">
+      <c r="A1343">
+        <v>2</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1343" s="2">
+        <v>43861</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1343">
+        <v>4</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1343">
+        <v>1341</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:10">
+      <c r="A1344">
+        <v>10</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1344" s="2">
+        <v>43861</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1344">
+        <v>4</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1344">
+        <v>1342</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:10">
+      <c r="A1345">
+        <v>10</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1345" s="2">
+        <v>43865</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1345">
+        <v>3</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1345">
+        <v>1343</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:10">
+      <c r="A1346">
+        <v>10</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1346" s="2">
+        <v>43865</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1346">
+        <v>3</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1346">
+        <v>1344</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6758" uniqueCount="1228">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3683,6 +3683,21 @@
   </si>
   <si>
     <t>μακαρονάδα, μεξικάνικη σαλάτα και κρύα σοκολάτα από efood</t>
+  </si>
+  <si>
+    <t>jumbo μάσκα τσάντα και fullface</t>
+  </si>
+  <si>
+    <t>τυρί, μακαρόνια, 2 φρατζόλες και 2 φρουτόκρεμες</t>
+  </si>
+  <si>
+    <t>(+ βενζίνη μανούλας)</t>
+  </si>
+  <si>
+    <t>vegan κρέπα με φακίνο στην Βεάκη</t>
+  </si>
+  <si>
+    <t>2 φρατζόλες ψωμί</t>
   </si>
 </sst>
 </file>
@@ -4137,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1346"/>
+  <dimension ref="A1:L1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1325" workbookViewId="0">
-      <selection activeCell="I1340" sqref="I1340:I1346"/>
+    <sheetView tabSelected="1" topLeftCell="A1330" workbookViewId="0">
+      <selection activeCell="A1344" sqref="A1344:A1352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43649,6 +43664,105 @@
         <v>637</v>
       </c>
     </row>
+    <row r="1347" spans="1:10">
+      <c r="A1347">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1347" s="2">
+        <v>43866</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1347">
+        <v>4</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:10">
+      <c r="A1348">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1348" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:10">
+      <c r="A1349">
+        <v>20</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1349" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:10">
+      <c r="A1350">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1350" s="2">
+        <v>43869</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:10">
+      <c r="A1351">
+        <v>1.9</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1351" s="2">
+        <v>43869</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:10">
+      <c r="A1352">
+        <v>1.4</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>43869</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>1227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6758" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6790" uniqueCount="1231">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3698,6 +3698,15 @@
   </si>
   <si>
     <t>2 φρατζόλες ψωμί</t>
+  </si>
+  <si>
+    <t>δίδακτρα κρητικής λίρας</t>
+  </si>
+  <si>
+    <t>κουλούρι με ελιά και φέτα</t>
+  </si>
+  <si>
+    <t>σοκοφρετες amaretti και πατατάκια</t>
   </si>
 </sst>
 </file>
@@ -4152,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1352"/>
+  <dimension ref="A1:L1356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1330" workbookViewId="0">
-      <selection activeCell="A1344" sqref="A1344:A1352"/>
+    <sheetView tabSelected="1" topLeftCell="E1340" workbookViewId="0">
+      <selection activeCell="J1347" sqref="J1347:J1356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43686,6 +43695,9 @@
       <c r="H1347" t="s">
         <v>228</v>
       </c>
+      <c r="I1347">
+        <v>1345</v>
+      </c>
       <c r="J1347" t="s">
         <v>637</v>
       </c>
@@ -43703,8 +43715,20 @@
       <c r="D1348" t="s">
         <v>1224</v>
       </c>
+      <c r="E1348" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1348">
+        <v>4</v>
+      </c>
       <c r="H1348" t="s">
         <v>224</v>
+      </c>
+      <c r="I1348">
+        <v>1346</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="1349" spans="1:10">
@@ -43720,6 +43744,21 @@
       <c r="D1349" t="s">
         <v>1225</v>
       </c>
+      <c r="E1349" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1349">
+        <v>3</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1349">
+        <v>1347</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="1350" spans="1:10">
       <c r="A1350">
@@ -43734,6 +43773,21 @@
       <c r="D1350" t="s">
         <v>1226</v>
       </c>
+      <c r="E1350" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1350">
+        <v>5</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1350">
+        <v>1348</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="1351" spans="1:10">
       <c r="A1351">
@@ -43748,6 +43802,21 @@
       <c r="D1351" t="s">
         <v>691</v>
       </c>
+      <c r="E1351" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1351">
+        <v>5</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1351">
+        <v>1349</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="1352" spans="1:10">
       <c r="A1352">
@@ -43761,6 +43830,125 @@
       </c>
       <c r="D1352" t="s">
         <v>1227</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1352">
+        <v>5</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1352">
+        <v>1350</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:10">
+      <c r="A1353">
+        <v>25</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1353" s="2">
+        <v>43870</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1353">
+        <v>4</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1353">
+        <v>1351</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:10">
+      <c r="A1354">
+        <v>1.3</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1354" s="2">
+        <v>43870</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1354">
+        <v>5</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1354">
+        <v>1352</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:10">
+      <c r="A1355">
+        <v>5.5</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1355" s="2">
+        <v>43870</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1355">
+        <v>5</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1355">
+        <v>1353</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:10">
+      <c r="E1356" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1356">
+        <v>5</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1356">
+        <v>1354</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="1265">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3776,6 +3776,39 @@
   </si>
   <si>
     <t>Larisa</t>
+  </si>
+  <si>
+    <t>supermarket μακαρόνια, σάλτσα τυρί caprice</t>
+  </si>
+  <si>
+    <t>μηλίτη (+ freddo Κώστα)</t>
+  </si>
+  <si>
+    <t>2 πίτσες οικογενιακές και μία κρέπα</t>
+  </si>
+  <si>
+    <t>εισιτήριο τραίνου</t>
+  </si>
+  <si>
+    <t>φάβα και πατάτες</t>
+  </si>
+  <si>
+    <t>πατατάκια φούρνου με barbeque</t>
+  </si>
+  <si>
+    <t>smoothie φράουλα στον Ιστιοπλοϊκό με Φώτη και Φάνη</t>
+  </si>
+  <si>
+    <t>taxi από περιστέρι Σεφ</t>
+  </si>
+  <si>
+    <t>Αδάμ με ρίπτες</t>
+  </si>
+  <si>
+    <t>κρουασαν και φλογέρα με τυρί (+ πίτσες Ακριβάκη, Μπαρλή και Μιχάλη)</t>
+  </si>
+  <si>
+    <t>εισιτήριο για Βέβυλο (+ Τσίρου)</t>
   </si>
 </sst>
 </file>
@@ -4230,10 +4263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1380"/>
+  <dimension ref="A1:L1392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1357" workbookViewId="0">
-      <selection activeCell="J1381" sqref="J1381"/>
+    <sheetView tabSelected="1" topLeftCell="C1371" workbookViewId="0">
+      <selection activeCell="I1382" sqref="I1382:I1392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44728,6 +44761,354 @@
         <v>633</v>
       </c>
     </row>
+    <row r="1381" spans="1:10">
+      <c r="A1381">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1381" s="2">
+        <v>43885</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1381">
+        <v>5</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1381">
+        <v>1379</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:10">
+      <c r="A1382">
+        <v>8.6</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1382" s="2">
+        <v>43885</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1382">
+        <v>5</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1382">
+        <v>1380</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:10">
+      <c r="A1383">
+        <v>12</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1383" s="2">
+        <v>43886</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1383">
+        <v>5</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1383">
+        <v>1381</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:10">
+      <c r="A1384">
+        <v>6</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1384" s="2">
+        <v>43886</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1384">
+        <v>5</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1384">
+        <v>1382</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:10">
+      <c r="A1385">
+        <v>23.1</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1385" s="2">
+        <v>43887</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1385">
+        <v>5</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1385">
+        <v>1383</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:10">
+      <c r="A1386">
+        <v>15</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1386" s="2">
+        <v>43887</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1386">
+        <v>5</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1386">
+        <v>1384</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:10">
+      <c r="A1387">
+        <v>1.45</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>43888</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1387">
+        <v>5</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1387">
+        <v>1385</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:10">
+      <c r="A1388">
+        <v>7</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1388" s="2">
+        <v>43889</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1388">
+        <v>5</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1388">
+        <v>1386</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:10">
+      <c r="A1389">
+        <v>12</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1389" s="2">
+        <v>43889</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1389">
+        <v>4</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1389">
+        <v>1387</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:10">
+      <c r="A1390">
+        <v>15</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1390" s="2">
+        <v>43890</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1390">
+        <v>5</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>716</v>
+      </c>
+      <c r="I1390">
+        <v>1388</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:10">
+      <c r="A1391">
+        <v>10.3</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1391" s="2">
+        <v>43890</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1391">
+        <v>4</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1391">
+        <v>1389</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:10">
+      <c r="A1392">
+        <v>12</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1392" s="2">
+        <v>43890</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1392">
+        <v>5</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I1392">
+        <v>1390</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="1272">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3809,6 +3809,27 @@
   </si>
   <si>
     <t>εισιτήριο για Βέβυλο (+ Τσίρου)</t>
+  </si>
+  <si>
+    <t>(+ εφημερίδα πατέρα)</t>
+  </si>
+  <si>
+    <t>2 σοκοφρέτες</t>
+  </si>
+  <si>
+    <t>amaretti και 2 champion</t>
+  </si>
+  <si>
+    <t>2 fix ανεφ (+  Γεωργίας και Μάρκου)</t>
+  </si>
+  <si>
+    <t>νερό στο Άλσος Βεϊκου (+ Δωροθέας)</t>
+  </si>
+  <si>
+    <t>pizza margarita με Μιχάλη και Μπαρμπάκου</t>
+  </si>
+  <si>
+    <t>παπουτσια adidas</t>
   </si>
 </sst>
 </file>
@@ -4263,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1392"/>
+  <dimension ref="A1:L1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1371" workbookViewId="0">
-      <selection activeCell="I1382" sqref="I1382:I1392"/>
+    <sheetView tabSelected="1" topLeftCell="E1385" workbookViewId="0">
+      <selection activeCell="I1391" sqref="I1391:I1400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45109,6 +45130,238 @@
         <v>635</v>
       </c>
     </row>
+    <row r="1393" spans="1:10">
+      <c r="A1393">
+        <v>2.6</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1393" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1393">
+        <v>4</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1393">
+        <v>1391</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:10">
+      <c r="A1394">
+        <v>1.2</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1394" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1394">
+        <v>4</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1394">
+        <v>1392</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:10">
+      <c r="A1395">
+        <v>2.6</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1395" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1395">
+        <v>4</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1395">
+        <v>1393</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:10">
+      <c r="A1396">
+        <v>21</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1396" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1396">
+        <v>5</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1396">
+        <v>1394</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:10">
+      <c r="A1397">
+        <v>1</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1397" s="2">
+        <v>43892</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1397">
+        <v>5</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1397">
+        <v>1395</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:10">
+      <c r="A1398">
+        <v>0.8</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1398" s="2">
+        <v>43892</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1398">
+        <v>5</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1398">
+        <v>1396</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:10">
+      <c r="A1399">
+        <v>6</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1399" s="2">
+        <v>43892</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1399">
+        <v>5</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1399">
+        <v>1397</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:10">
+      <c r="A1400">
+        <v>45</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1400" s="2">
+        <v>43893</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1400">
+        <v>5</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1400">
+        <v>1398</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="1281">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3830,6 +3830,33 @@
   </si>
   <si>
     <t>παπουτσια adidas</t>
+  </si>
+  <si>
+    <t>παπούτσια δίσκου και μπάλα στον Φλοίσβο</t>
+  </si>
+  <si>
+    <t>καφές στον Φλοίσβο</t>
+  </si>
+  <si>
+    <t>τρένο για Λάρισα για το TEDx</t>
+  </si>
+  <si>
+    <t>οφθαλμίαρτος</t>
+  </si>
+  <si>
+    <t>supermarket μπισκότα και τσίχλες</t>
+  </si>
+  <si>
+    <t>εισιτήριο για ΤΕΙ</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>taxi από σταθμο λαρίσης περιστέρι</t>
+  </si>
+  <si>
+    <t>πατατάκια νερό και bueno</t>
   </si>
 </sst>
 </file>
@@ -4284,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1400"/>
+  <dimension ref="A1:L1411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1385" workbookViewId="0">
-      <selection activeCell="I1391" sqref="I1391:I1400"/>
+    <sheetView tabSelected="1" topLeftCell="F1399" workbookViewId="0">
+      <selection activeCell="J1412" sqref="J1412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45362,6 +45389,325 @@
         <v>642</v>
       </c>
     </row>
+    <row r="1401" spans="1:10">
+      <c r="A1401">
+        <v>1.5</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1401" s="2">
+        <v>43893</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1401">
+        <v>5</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1401">
+        <v>1399</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:10">
+      <c r="A1402">
+        <v>85.5</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1402" s="2">
+        <v>43894</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1402">
+        <v>5</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1402">
+        <v>1400</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:10">
+      <c r="A1403">
+        <v>4.2</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1403" s="2">
+        <v>43894</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1403">
+        <v>5</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1403">
+        <v>1401</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:10">
+      <c r="A1404">
+        <v>35.1</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1404" s="2">
+        <v>43896</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1404">
+        <v>5</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1404">
+        <v>1402</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:10">
+      <c r="A1405">
+        <v>10</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1405" s="2">
+        <v>43896</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1405">
+        <v>5</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1405">
+        <v>1403</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:10">
+      <c r="A1406">
+        <v>0.5</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1406" s="2">
+        <v>43896</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1406">
+        <v>5</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1406">
+        <v>1404</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:10">
+      <c r="A1407">
+        <v>8.86</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1407" s="2">
+        <v>43896</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1407">
+        <v>5</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1407">
+        <v>1405</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:10">
+      <c r="A1408">
+        <v>0.6</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1408" s="2">
+        <v>43897</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1408">
+        <v>4</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1408">
+        <v>1406</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:10">
+      <c r="A1409">
+        <v>1.2</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1409" s="2">
+        <v>43897</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1409">
+        <v>4</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1409">
+        <v>1407</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:10">
+      <c r="A1410">
+        <v>4</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1410" s="2">
+        <v>43898</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1410">
+        <v>2</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1410">
+        <v>1408</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:10">
+      <c r="A1411">
+        <v>8.5</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1411" s="2">
+        <v>43898</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1411">
+        <v>3</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1411">
+        <v>1409</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="1296">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3857,6 +3857,51 @@
   </si>
   <si>
     <t>πατατάκια νερό και bueno</t>
+  </si>
+  <si>
+    <t>3bit bueno περίπτερο Ο.Α.Κ.Α</t>
+  </si>
+  <si>
+    <t>pizza margarita και νηστίσιμη με βίκος λεμονάδα από τον Αγορίνα</t>
+  </si>
+  <si>
+    <t>lacta amaretti</t>
+  </si>
+  <si>
+    <t>μπουάτσα με τυρί περιστέρι όταν πήγαινα στο ΙΚΑ</t>
+  </si>
+  <si>
+    <t>πρωινό στο Μαρμαρι φλογέρα φιλαδέλφια και τυρόπιτα</t>
+  </si>
+  <si>
+    <t>καράβι για Ραφήνα</t>
+  </si>
+  <si>
+    <t>Πατατάκια και μπισκότα με πορτοκάλι</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ από ραφήνα για Βικτώρια</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ από βικτώρια για Ραφήνα</t>
+  </si>
+  <si>
+    <t>καράβι για Εύβοια</t>
+  </si>
+  <si>
+    <t>Supermarket μακαρόνια πέστο και caprice</t>
+  </si>
+  <si>
+    <t>street wok με Δωροθέα</t>
+  </si>
+  <si>
+    <t>ρόδα γυμναστικής</t>
+  </si>
+  <si>
+    <t>Rafina</t>
+  </si>
+  <si>
+    <t>Evoia</t>
   </si>
 </sst>
 </file>
@@ -4311,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1411"/>
+  <dimension ref="A1:L1426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1399" workbookViewId="0">
-      <selection activeCell="J1412" sqref="J1412"/>
+    <sheetView tabSelected="1" topLeftCell="A1405" workbookViewId="0">
+      <selection activeCell="C1425" sqref="C1425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45708,6 +45753,441 @@
         <v>633</v>
       </c>
     </row>
+    <row r="1412" spans="1:10">
+      <c r="A1412">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1412" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1412">
+        <v>4</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1412">
+        <v>1410</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:10">
+      <c r="A1413">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1413" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1413">
+        <v>4</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1413">
+        <v>1411</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:10">
+      <c r="A1414">
+        <v>2.4</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1414" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1414">
+        <v>4</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1414">
+        <v>1412</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:10">
+      <c r="A1415">
+        <v>1.5</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1415" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1415">
+        <v>4</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1415">
+        <v>1413</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:10">
+      <c r="A1416">
+        <v>1.5</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1416" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1416">
+        <v>4</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1416">
+        <v>1414</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:10">
+      <c r="A1417">
+        <v>3.9</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1417" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1417">
+        <v>5</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1417">
+        <v>1415</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:10">
+      <c r="A1418">
+        <v>1.9</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1418" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1418">
+        <v>5</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1418">
+        <v>1416</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:10">
+      <c r="A1419">
+        <v>2</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1419" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1419">
+        <v>4</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1419">
+        <v>1417</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10">
+      <c r="A1420">
+        <v>6.3</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1420" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1420">
+        <v>4</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I1420">
+        <v>1418</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10">
+      <c r="A1421">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1421" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1421">
+        <v>5</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1421">
+        <v>1419</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10">
+      <c r="A1422">
+        <v>3.2</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1422" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1422">
+        <v>5</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1422">
+        <v>1420</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10">
+      <c r="A1423">
+        <v>6.3</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1423" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1423">
+        <v>5</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1423">
+        <v>1421</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10">
+      <c r="A1424">
+        <v>3.9</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1424" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1424">
+        <v>4</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I1424">
+        <v>1422</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10">
+      <c r="A1425">
+        <v>2</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1425" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1425">
+        <v>4</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I1425">
+        <v>1423</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10">
+      <c r="A1426">
+        <v>6.49</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1426" s="2">
+        <v>43905</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1426">
+        <v>4</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1426">
+        <v>1424</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/Manos costs/costs.xlsx
+++ b/DataBase/Manos costs/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="1297">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3902,6 +3902,9 @@
   </si>
   <si>
     <t>Evoia</t>
+  </si>
+  <si>
+    <t>για το Λέμφωμα</t>
   </si>
 </sst>
 </file>
@@ -4356,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1426"/>
+  <dimension ref="A1:L1427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1405" workbookViewId="0">
-      <selection activeCell="C1425" sqref="C1425"/>
+    <sheetView tabSelected="1" topLeftCell="D1409" workbookViewId="0">
+      <selection activeCell="I1427" sqref="I1427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46188,6 +46191,35 @@
         <v>642</v>
       </c>
     </row>
+    <row r="1427" spans="1:10">
+      <c r="A1427">
+        <v>5</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1427" s="2">
+        <v>43918</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1427">
+        <v>5</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1427">
+        <v>1425</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
